--- a/Quest.xlsx
+++ b/Quest.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/aff98139d4bac41f/文件/DL/dragalia-data-track/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="8_{5481D2AA-BE39-4D5C-836A-7D24C3EF9124}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{2E62C3CA-4BD0-4922-9611-D1567DBFF964}"/>
+  <xr:revisionPtr revIDLastSave="13" documentId="8_{5481D2AA-BE39-4D5C-836A-7D24C3EF9124}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{FE5109C2-6A68-4774-85C2-200B19E05222}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="21525" windowHeight="13500" xr2:uid="{5ACD922F-E2B9-468A-8DAF-19A1C97D580A}"/>
+    <workbookView xWindow="6195" yWindow="885" windowWidth="21525" windowHeight="13500" xr2:uid="{5ACD922F-E2B9-468A-8DAF-19A1C97D580A}"/>
   </bookViews>
   <sheets>
     <sheet name="Agito A&amp;O" sheetId="1" r:id="rId1"/>
@@ -48,9 +48,6 @@
   </si>
   <si>
     <t>- 開場後退或不動，讓王衝刺的時候比較緊密，SS才有辦法一次兩隻</t>
-  </si>
-  <si>
-    <t>馬爾斯要點</t>
   </si>
   <si>
     <t>- S3 &gt; S4 &gt; (吃衝) &gt; 拉牢 &gt; S1 &gt; 滾去右下 &gt; S2 &gt; S4 &gt; S3 (P1結束)</t>
@@ -103,6 +100,9 @@
   </si>
   <si>
     <t>- P2切記拉牢，增加穩度 (牢鎖定最遠)</t>
+  </si>
+  <si>
+    <t>馬爾斯要點 / S3由耶、S4副團</t>
   </si>
 </sst>
 </file>
@@ -307,6 +307,15 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -343,9 +352,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -362,12 +368,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -895,7 +895,7 @@
   <dimension ref="A1:BD54"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="AC52" sqref="AC52:BD52"/>
+      <selection activeCell="A50" sqref="A50:AB50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.85546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -904,184 +904,184 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:56" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
-        <v>15</v>
+      <c r="A1" s="14" t="s">
+        <v>14</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
-      <c r="L1" s="12"/>
-      <c r="M1" s="12"/>
-      <c r="N1" s="12"/>
-      <c r="O1" s="12"/>
-      <c r="P1" s="12"/>
-      <c r="Q1" s="12"/>
-      <c r="R1" s="12"/>
-      <c r="S1" s="12"/>
-      <c r="T1" s="12"/>
-      <c r="U1" s="12"/>
-      <c r="V1" s="12"/>
-      <c r="W1" s="12"/>
-      <c r="X1" s="12"/>
-      <c r="Y1" s="12"/>
-      <c r="Z1" s="12"/>
-      <c r="AA1" s="12"/>
-      <c r="AB1" s="12"/>
-      <c r="AC1" s="12"/>
-      <c r="AD1" s="12"/>
-      <c r="AE1" s="12"/>
-      <c r="AF1" s="12"/>
-      <c r="AG1" s="12"/>
-      <c r="AH1" s="12"/>
-      <c r="AI1" s="12"/>
-      <c r="AJ1" s="12"/>
-      <c r="AK1" s="12"/>
-      <c r="AL1" s="12"/>
-      <c r="AM1" s="12"/>
-      <c r="AN1" s="12"/>
-      <c r="AO1" s="12"/>
-      <c r="AP1" s="12"/>
-      <c r="AQ1" s="12"/>
-      <c r="AR1" s="12"/>
-      <c r="AS1" s="12"/>
-      <c r="AT1" s="12"/>
-      <c r="AU1" s="12"/>
-      <c r="AV1" s="12"/>
-      <c r="AW1" s="12"/>
-      <c r="AX1" s="12"/>
-      <c r="AY1" s="12"/>
-      <c r="AZ1" s="12"/>
-      <c r="BA1" s="12"/>
-      <c r="BB1" s="12"/>
-      <c r="BC1" s="12"/>
-      <c r="BD1" s="13"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
+      <c r="N1" s="15"/>
+      <c r="O1" s="15"/>
+      <c r="P1" s="15"/>
+      <c r="Q1" s="15"/>
+      <c r="R1" s="15"/>
+      <c r="S1" s="15"/>
+      <c r="T1" s="15"/>
+      <c r="U1" s="15"/>
+      <c r="V1" s="15"/>
+      <c r="W1" s="15"/>
+      <c r="X1" s="15"/>
+      <c r="Y1" s="15"/>
+      <c r="Z1" s="15"/>
+      <c r="AA1" s="15"/>
+      <c r="AB1" s="15"/>
+      <c r="AC1" s="15"/>
+      <c r="AD1" s="15"/>
+      <c r="AE1" s="15"/>
+      <c r="AF1" s="15"/>
+      <c r="AG1" s="15"/>
+      <c r="AH1" s="15"/>
+      <c r="AI1" s="15"/>
+      <c r="AJ1" s="15"/>
+      <c r="AK1" s="15"/>
+      <c r="AL1" s="15"/>
+      <c r="AM1" s="15"/>
+      <c r="AN1" s="15"/>
+      <c r="AO1" s="15"/>
+      <c r="AP1" s="15"/>
+      <c r="AQ1" s="15"/>
+      <c r="AR1" s="15"/>
+      <c r="AS1" s="15"/>
+      <c r="AT1" s="15"/>
+      <c r="AU1" s="15"/>
+      <c r="AV1" s="15"/>
+      <c r="AW1" s="15"/>
+      <c r="AX1" s="15"/>
+      <c r="AY1" s="15"/>
+      <c r="AZ1" s="15"/>
+      <c r="BA1" s="15"/>
+      <c r="BB1" s="15"/>
+      <c r="BC1" s="15"/>
+      <c r="BD1" s="16"/>
     </row>
     <row r="2" spans="1:56" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-      <c r="K2" s="15"/>
-      <c r="L2" s="15"/>
-      <c r="M2" s="15"/>
-      <c r="N2" s="15"/>
-      <c r="O2" s="15"/>
-      <c r="P2" s="15"/>
-      <c r="Q2" s="15"/>
-      <c r="R2" s="15"/>
-      <c r="S2" s="15"/>
-      <c r="T2" s="15"/>
-      <c r="U2" s="15"/>
-      <c r="V2" s="15"/>
-      <c r="W2" s="15"/>
-      <c r="X2" s="15"/>
-      <c r="Y2" s="15"/>
-      <c r="Z2" s="15"/>
-      <c r="AA2" s="15"/>
-      <c r="AB2" s="15"/>
-      <c r="AC2" s="15"/>
-      <c r="AD2" s="15"/>
-      <c r="AE2" s="15"/>
-      <c r="AF2" s="15"/>
-      <c r="AG2" s="15"/>
-      <c r="AH2" s="15"/>
-      <c r="AI2" s="15"/>
-      <c r="AJ2" s="15"/>
-      <c r="AK2" s="15"/>
-      <c r="AL2" s="15"/>
-      <c r="AM2" s="15"/>
-      <c r="AN2" s="15"/>
-      <c r="AO2" s="15"/>
-      <c r="AP2" s="15"/>
-      <c r="AQ2" s="15"/>
-      <c r="AR2" s="15"/>
-      <c r="AS2" s="15"/>
-      <c r="AT2" s="15"/>
-      <c r="AU2" s="15"/>
-      <c r="AV2" s="15"/>
-      <c r="AW2" s="15"/>
-      <c r="AX2" s="15"/>
-      <c r="AY2" s="15"/>
-      <c r="AZ2" s="15"/>
-      <c r="BA2" s="15"/>
-      <c r="BB2" s="15"/>
-      <c r="BC2" s="15"/>
-      <c r="BD2" s="16"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="18"/>
+      <c r="L2" s="18"/>
+      <c r="M2" s="18"/>
+      <c r="N2" s="18"/>
+      <c r="O2" s="18"/>
+      <c r="P2" s="18"/>
+      <c r="Q2" s="18"/>
+      <c r="R2" s="18"/>
+      <c r="S2" s="18"/>
+      <c r="T2" s="18"/>
+      <c r="U2" s="18"/>
+      <c r="V2" s="18"/>
+      <c r="W2" s="18"/>
+      <c r="X2" s="18"/>
+      <c r="Y2" s="18"/>
+      <c r="Z2" s="18"/>
+      <c r="AA2" s="18"/>
+      <c r="AB2" s="18"/>
+      <c r="AC2" s="18"/>
+      <c r="AD2" s="18"/>
+      <c r="AE2" s="18"/>
+      <c r="AF2" s="18"/>
+      <c r="AG2" s="18"/>
+      <c r="AH2" s="18"/>
+      <c r="AI2" s="18"/>
+      <c r="AJ2" s="18"/>
+      <c r="AK2" s="18"/>
+      <c r="AL2" s="18"/>
+      <c r="AM2" s="18"/>
+      <c r="AN2" s="18"/>
+      <c r="AO2" s="18"/>
+      <c r="AP2" s="18"/>
+      <c r="AQ2" s="18"/>
+      <c r="AR2" s="18"/>
+      <c r="AS2" s="18"/>
+      <c r="AT2" s="18"/>
+      <c r="AU2" s="18"/>
+      <c r="AV2" s="18"/>
+      <c r="AW2" s="18"/>
+      <c r="AX2" s="18"/>
+      <c r="AY2" s="18"/>
+      <c r="AZ2" s="18"/>
+      <c r="BA2" s="18"/>
+      <c r="BB2" s="18"/>
+      <c r="BC2" s="18"/>
+      <c r="BD2" s="19"/>
     </row>
     <row r="3" spans="1:56" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="24"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="24"/>
-      <c r="I3" s="24"/>
-      <c r="J3" s="24"/>
-      <c r="K3" s="24"/>
-      <c r="L3" s="24"/>
-      <c r="M3" s="24"/>
-      <c r="N3" s="24"/>
-      <c r="O3" s="24"/>
-      <c r="P3" s="24"/>
-      <c r="Q3" s="24"/>
-      <c r="R3" s="24"/>
-      <c r="S3" s="24"/>
-      <c r="T3" s="24"/>
-      <c r="U3" s="24"/>
-      <c r="V3" s="24"/>
-      <c r="W3" s="24"/>
-      <c r="X3" s="24"/>
-      <c r="Y3" s="24"/>
-      <c r="Z3" s="24"/>
-      <c r="AA3" s="24"/>
-      <c r="AB3" s="24"/>
-      <c r="AC3" s="24"/>
-      <c r="AD3" s="24"/>
-      <c r="AE3" s="24"/>
-      <c r="AF3" s="24"/>
-      <c r="AG3" s="24"/>
-      <c r="AH3" s="24"/>
-      <c r="AI3" s="24"/>
-      <c r="AJ3" s="24"/>
-      <c r="AK3" s="24"/>
-      <c r="AL3" s="24"/>
-      <c r="AM3" s="24"/>
-      <c r="AN3" s="24"/>
-      <c r="AO3" s="24"/>
-      <c r="AP3" s="24"/>
-      <c r="AQ3" s="24"/>
-      <c r="AR3" s="24"/>
-      <c r="AS3" s="24"/>
-      <c r="AT3" s="24"/>
-      <c r="AU3" s="24"/>
-      <c r="AV3" s="24"/>
-      <c r="AW3" s="24"/>
-      <c r="AX3" s="24"/>
-      <c r="AY3" s="24"/>
-      <c r="AZ3" s="24"/>
-      <c r="BA3" s="24"/>
-      <c r="BB3" s="24"/>
-      <c r="BC3" s="24"/>
-      <c r="BD3" s="25"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="26"/>
+      <c r="I3" s="26"/>
+      <c r="J3" s="26"/>
+      <c r="K3" s="26"/>
+      <c r="L3" s="26"/>
+      <c r="M3" s="26"/>
+      <c r="N3" s="26"/>
+      <c r="O3" s="26"/>
+      <c r="P3" s="26"/>
+      <c r="Q3" s="26"/>
+      <c r="R3" s="26"/>
+      <c r="S3" s="26"/>
+      <c r="T3" s="26"/>
+      <c r="U3" s="26"/>
+      <c r="V3" s="26"/>
+      <c r="W3" s="26"/>
+      <c r="X3" s="26"/>
+      <c r="Y3" s="26"/>
+      <c r="Z3" s="26"/>
+      <c r="AA3" s="26"/>
+      <c r="AB3" s="26"/>
+      <c r="AC3" s="26"/>
+      <c r="AD3" s="26"/>
+      <c r="AE3" s="26"/>
+      <c r="AF3" s="26"/>
+      <c r="AG3" s="26"/>
+      <c r="AH3" s="26"/>
+      <c r="AI3" s="26"/>
+      <c r="AJ3" s="26"/>
+      <c r="AK3" s="26"/>
+      <c r="AL3" s="26"/>
+      <c r="AM3" s="26"/>
+      <c r="AN3" s="26"/>
+      <c r="AO3" s="26"/>
+      <c r="AP3" s="26"/>
+      <c r="AQ3" s="26"/>
+      <c r="AR3" s="26"/>
+      <c r="AS3" s="26"/>
+      <c r="AT3" s="26"/>
+      <c r="AU3" s="26"/>
+      <c r="AV3" s="26"/>
+      <c r="AW3" s="26"/>
+      <c r="AX3" s="26"/>
+      <c r="AY3" s="26"/>
+      <c r="AZ3" s="26"/>
+      <c r="BA3" s="26"/>
+      <c r="BB3" s="26"/>
+      <c r="BC3" s="26"/>
+      <c r="BD3" s="27"/>
     </row>
     <row r="4" spans="1:56" ht="8.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5"/>
@@ -2302,184 +2302,184 @@
       <c r="BD24" s="4"/>
     </row>
     <row r="25" spans="1:56" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="20" t="s">
+      <c r="A25" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="B25" s="21"/>
-      <c r="C25" s="21"/>
-      <c r="D25" s="21"/>
-      <c r="E25" s="21"/>
-      <c r="F25" s="21"/>
-      <c r="G25" s="21"/>
-      <c r="H25" s="21"/>
-      <c r="I25" s="21"/>
-      <c r="J25" s="21"/>
-      <c r="K25" s="21"/>
-      <c r="L25" s="21"/>
-      <c r="M25" s="21"/>
-      <c r="N25" s="21"/>
-      <c r="O25" s="21"/>
-      <c r="P25" s="21"/>
-      <c r="Q25" s="21"/>
-      <c r="R25" s="21"/>
-      <c r="S25" s="21"/>
-      <c r="T25" s="21"/>
-      <c r="U25" s="21"/>
-      <c r="V25" s="21"/>
-      <c r="W25" s="21"/>
-      <c r="X25" s="21"/>
-      <c r="Y25" s="21"/>
-      <c r="Z25" s="21"/>
-      <c r="AA25" s="21"/>
-      <c r="AB25" s="21"/>
-      <c r="AC25" s="21"/>
-      <c r="AD25" s="21"/>
-      <c r="AE25" s="21"/>
-      <c r="AF25" s="21"/>
-      <c r="AG25" s="21"/>
-      <c r="AH25" s="21"/>
-      <c r="AI25" s="21"/>
-      <c r="AJ25" s="21"/>
-      <c r="AK25" s="21"/>
-      <c r="AL25" s="21"/>
-      <c r="AM25" s="21"/>
-      <c r="AN25" s="21"/>
-      <c r="AO25" s="21"/>
-      <c r="AP25" s="21"/>
-      <c r="AQ25" s="21"/>
-      <c r="AR25" s="21"/>
-      <c r="AS25" s="21"/>
-      <c r="AT25" s="21"/>
-      <c r="AU25" s="21"/>
-      <c r="AV25" s="21"/>
-      <c r="AW25" s="21"/>
-      <c r="AX25" s="21"/>
-      <c r="AY25" s="21"/>
-      <c r="AZ25" s="21"/>
-      <c r="BA25" s="21"/>
-      <c r="BB25" s="21"/>
-      <c r="BC25" s="21"/>
-      <c r="BD25" s="22"/>
+      <c r="B25" s="24"/>
+      <c r="C25" s="24"/>
+      <c r="D25" s="24"/>
+      <c r="E25" s="24"/>
+      <c r="F25" s="24"/>
+      <c r="G25" s="24"/>
+      <c r="H25" s="24"/>
+      <c r="I25" s="24"/>
+      <c r="J25" s="24"/>
+      <c r="K25" s="24"/>
+      <c r="L25" s="24"/>
+      <c r="M25" s="24"/>
+      <c r="N25" s="24"/>
+      <c r="O25" s="24"/>
+      <c r="P25" s="24"/>
+      <c r="Q25" s="24"/>
+      <c r="R25" s="24"/>
+      <c r="S25" s="24"/>
+      <c r="T25" s="24"/>
+      <c r="U25" s="24"/>
+      <c r="V25" s="24"/>
+      <c r="W25" s="24"/>
+      <c r="X25" s="24"/>
+      <c r="Y25" s="24"/>
+      <c r="Z25" s="24"/>
+      <c r="AA25" s="24"/>
+      <c r="AB25" s="24"/>
+      <c r="AC25" s="24"/>
+      <c r="AD25" s="24"/>
+      <c r="AE25" s="24"/>
+      <c r="AF25" s="24"/>
+      <c r="AG25" s="24"/>
+      <c r="AH25" s="24"/>
+      <c r="AI25" s="24"/>
+      <c r="AJ25" s="24"/>
+      <c r="AK25" s="24"/>
+      <c r="AL25" s="24"/>
+      <c r="AM25" s="24"/>
+      <c r="AN25" s="24"/>
+      <c r="AO25" s="24"/>
+      <c r="AP25" s="24"/>
+      <c r="AQ25" s="24"/>
+      <c r="AR25" s="24"/>
+      <c r="AS25" s="24"/>
+      <c r="AT25" s="24"/>
+      <c r="AU25" s="24"/>
+      <c r="AV25" s="24"/>
+      <c r="AW25" s="24"/>
+      <c r="AX25" s="24"/>
+      <c r="AY25" s="24"/>
+      <c r="AZ25" s="24"/>
+      <c r="BA25" s="24"/>
+      <c r="BB25" s="24"/>
+      <c r="BC25" s="24"/>
+      <c r="BD25" s="25"/>
     </row>
     <row r="26" spans="1:56" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="23" t="s">
+      <c r="A26" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B26" s="30"/>
-      <c r="C26" s="30"/>
-      <c r="D26" s="30"/>
-      <c r="E26" s="30"/>
-      <c r="F26" s="30"/>
-      <c r="G26" s="30"/>
-      <c r="H26" s="30"/>
-      <c r="I26" s="30"/>
-      <c r="J26" s="30"/>
-      <c r="K26" s="30"/>
-      <c r="L26" s="30"/>
-      <c r="M26" s="30"/>
-      <c r="N26" s="30"/>
-      <c r="O26" s="30"/>
-      <c r="P26" s="30"/>
-      <c r="Q26" s="30"/>
-      <c r="R26" s="30"/>
-      <c r="S26" s="30"/>
-      <c r="T26" s="30"/>
-      <c r="U26" s="30"/>
-      <c r="V26" s="30"/>
-      <c r="W26" s="30"/>
-      <c r="X26" s="30"/>
-      <c r="Y26" s="30"/>
-      <c r="Z26" s="30"/>
-      <c r="AA26" s="30"/>
-      <c r="AB26" s="30"/>
-      <c r="AC26" s="30"/>
-      <c r="AD26" s="30"/>
-      <c r="AE26" s="30"/>
-      <c r="AF26" s="30"/>
-      <c r="AG26" s="30"/>
-      <c r="AH26" s="30"/>
-      <c r="AI26" s="30"/>
-      <c r="AJ26" s="30"/>
-      <c r="AK26" s="30"/>
-      <c r="AL26" s="30"/>
-      <c r="AM26" s="30"/>
-      <c r="AN26" s="30"/>
-      <c r="AO26" s="30"/>
-      <c r="AP26" s="30"/>
-      <c r="AQ26" s="30"/>
-      <c r="AR26" s="30"/>
-      <c r="AS26" s="30"/>
-      <c r="AT26" s="30"/>
-      <c r="AU26" s="30"/>
-      <c r="AV26" s="30"/>
-      <c r="AW26" s="30"/>
-      <c r="AX26" s="30"/>
-      <c r="AY26" s="30"/>
-      <c r="AZ26" s="30"/>
-      <c r="BA26" s="30"/>
-      <c r="BB26" s="30"/>
-      <c r="BC26" s="30"/>
-      <c r="BD26" s="31"/>
+      <c r="B26" s="12"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="12"/>
+      <c r="H26" s="12"/>
+      <c r="I26" s="12"/>
+      <c r="J26" s="12"/>
+      <c r="K26" s="12"/>
+      <c r="L26" s="12"/>
+      <c r="M26" s="12"/>
+      <c r="N26" s="12"/>
+      <c r="O26" s="12"/>
+      <c r="P26" s="12"/>
+      <c r="Q26" s="12"/>
+      <c r="R26" s="12"/>
+      <c r="S26" s="12"/>
+      <c r="T26" s="12"/>
+      <c r="U26" s="12"/>
+      <c r="V26" s="12"/>
+      <c r="W26" s="12"/>
+      <c r="X26" s="12"/>
+      <c r="Y26" s="12"/>
+      <c r="Z26" s="12"/>
+      <c r="AA26" s="12"/>
+      <c r="AB26" s="12"/>
+      <c r="AC26" s="12"/>
+      <c r="AD26" s="12"/>
+      <c r="AE26" s="12"/>
+      <c r="AF26" s="12"/>
+      <c r="AG26" s="12"/>
+      <c r="AH26" s="12"/>
+      <c r="AI26" s="12"/>
+      <c r="AJ26" s="12"/>
+      <c r="AK26" s="12"/>
+      <c r="AL26" s="12"/>
+      <c r="AM26" s="12"/>
+      <c r="AN26" s="12"/>
+      <c r="AO26" s="12"/>
+      <c r="AP26" s="12"/>
+      <c r="AQ26" s="12"/>
+      <c r="AR26" s="12"/>
+      <c r="AS26" s="12"/>
+      <c r="AT26" s="12"/>
+      <c r="AU26" s="12"/>
+      <c r="AV26" s="12"/>
+      <c r="AW26" s="12"/>
+      <c r="AX26" s="12"/>
+      <c r="AY26" s="12"/>
+      <c r="AZ26" s="12"/>
+      <c r="BA26" s="12"/>
+      <c r="BB26" s="12"/>
+      <c r="BC26" s="12"/>
+      <c r="BD26" s="13"/>
     </row>
     <row r="27" spans="1:56" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="23" t="s">
+      <c r="A27" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B27" s="30"/>
-      <c r="C27" s="30"/>
-      <c r="D27" s="30"/>
-      <c r="E27" s="30"/>
-      <c r="F27" s="30"/>
-      <c r="G27" s="30"/>
-      <c r="H27" s="30"/>
-      <c r="I27" s="30"/>
-      <c r="J27" s="30"/>
-      <c r="K27" s="30"/>
-      <c r="L27" s="30"/>
-      <c r="M27" s="30"/>
-      <c r="N27" s="30"/>
-      <c r="O27" s="30"/>
-      <c r="P27" s="30"/>
-      <c r="Q27" s="30"/>
-      <c r="R27" s="30"/>
-      <c r="S27" s="30"/>
-      <c r="T27" s="30"/>
-      <c r="U27" s="30"/>
-      <c r="V27" s="30"/>
-      <c r="W27" s="30"/>
-      <c r="X27" s="30"/>
-      <c r="Y27" s="30"/>
-      <c r="Z27" s="30"/>
-      <c r="AA27" s="30"/>
-      <c r="AB27" s="30"/>
-      <c r="AC27" s="30"/>
-      <c r="AD27" s="30"/>
-      <c r="AE27" s="30"/>
-      <c r="AF27" s="30"/>
-      <c r="AG27" s="30"/>
-      <c r="AH27" s="30"/>
-      <c r="AI27" s="30"/>
-      <c r="AJ27" s="30"/>
-      <c r="AK27" s="30"/>
-      <c r="AL27" s="30"/>
-      <c r="AM27" s="30"/>
-      <c r="AN27" s="30"/>
-      <c r="AO27" s="30"/>
-      <c r="AP27" s="30"/>
-      <c r="AQ27" s="30"/>
-      <c r="AR27" s="30"/>
-      <c r="AS27" s="30"/>
-      <c r="AT27" s="30"/>
-      <c r="AU27" s="30"/>
-      <c r="AV27" s="30"/>
-      <c r="AW27" s="30"/>
-      <c r="AX27" s="30"/>
-      <c r="AY27" s="30"/>
-      <c r="AZ27" s="30"/>
-      <c r="BA27" s="30"/>
-      <c r="BB27" s="30"/>
-      <c r="BC27" s="30"/>
-      <c r="BD27" s="31"/>
+      <c r="B27" s="12"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="12"/>
+      <c r="H27" s="12"/>
+      <c r="I27" s="12"/>
+      <c r="J27" s="12"/>
+      <c r="K27" s="12"/>
+      <c r="L27" s="12"/>
+      <c r="M27" s="12"/>
+      <c r="N27" s="12"/>
+      <c r="O27" s="12"/>
+      <c r="P27" s="12"/>
+      <c r="Q27" s="12"/>
+      <c r="R27" s="12"/>
+      <c r="S27" s="12"/>
+      <c r="T27" s="12"/>
+      <c r="U27" s="12"/>
+      <c r="V27" s="12"/>
+      <c r="W27" s="12"/>
+      <c r="X27" s="12"/>
+      <c r="Y27" s="12"/>
+      <c r="Z27" s="12"/>
+      <c r="AA27" s="12"/>
+      <c r="AB27" s="12"/>
+      <c r="AC27" s="12"/>
+      <c r="AD27" s="12"/>
+      <c r="AE27" s="12"/>
+      <c r="AF27" s="12"/>
+      <c r="AG27" s="12"/>
+      <c r="AH27" s="12"/>
+      <c r="AI27" s="12"/>
+      <c r="AJ27" s="12"/>
+      <c r="AK27" s="12"/>
+      <c r="AL27" s="12"/>
+      <c r="AM27" s="12"/>
+      <c r="AN27" s="12"/>
+      <c r="AO27" s="12"/>
+      <c r="AP27" s="12"/>
+      <c r="AQ27" s="12"/>
+      <c r="AR27" s="12"/>
+      <c r="AS27" s="12"/>
+      <c r="AT27" s="12"/>
+      <c r="AU27" s="12"/>
+      <c r="AV27" s="12"/>
+      <c r="AW27" s="12"/>
+      <c r="AX27" s="12"/>
+      <c r="AY27" s="12"/>
+      <c r="AZ27" s="12"/>
+      <c r="BA27" s="12"/>
+      <c r="BB27" s="12"/>
+      <c r="BC27" s="12"/>
+      <c r="BD27" s="13"/>
     </row>
     <row r="28" spans="1:56" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="5"/>
@@ -3700,377 +3700,378 @@
       <c r="BD48" s="10"/>
     </row>
     <row r="49" spans="1:56" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="20" t="s">
+      <c r="A49" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="B49" s="24"/>
+      <c r="C49" s="24"/>
+      <c r="D49" s="24"/>
+      <c r="E49" s="24"/>
+      <c r="F49" s="24"/>
+      <c r="G49" s="24"/>
+      <c r="H49" s="24"/>
+      <c r="I49" s="24"/>
+      <c r="J49" s="24"/>
+      <c r="K49" s="24"/>
+      <c r="L49" s="24"/>
+      <c r="M49" s="24"/>
+      <c r="N49" s="24"/>
+      <c r="O49" s="24"/>
+      <c r="P49" s="24"/>
+      <c r="Q49" s="24"/>
+      <c r="R49" s="24"/>
+      <c r="S49" s="24"/>
+      <c r="T49" s="24"/>
+      <c r="U49" s="24"/>
+      <c r="V49" s="24"/>
+      <c r="W49" s="24"/>
+      <c r="X49" s="24"/>
+      <c r="Y49" s="24"/>
+      <c r="Z49" s="24"/>
+      <c r="AA49" s="24"/>
+      <c r="AB49" s="25"/>
+      <c r="AC49" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD49" s="24"/>
+      <c r="AE49" s="24"/>
+      <c r="AF49" s="24"/>
+      <c r="AG49" s="24"/>
+      <c r="AH49" s="24"/>
+      <c r="AI49" s="24"/>
+      <c r="AJ49" s="24"/>
+      <c r="AK49" s="24"/>
+      <c r="AL49" s="24"/>
+      <c r="AM49" s="24"/>
+      <c r="AN49" s="24"/>
+      <c r="AO49" s="24"/>
+      <c r="AP49" s="24"/>
+      <c r="AQ49" s="24"/>
+      <c r="AR49" s="24"/>
+      <c r="AS49" s="24"/>
+      <c r="AT49" s="24"/>
+      <c r="AU49" s="24"/>
+      <c r="AV49" s="24"/>
+      <c r="AW49" s="24"/>
+      <c r="AX49" s="24"/>
+      <c r="AY49" s="24"/>
+      <c r="AZ49" s="24"/>
+      <c r="BA49" s="24"/>
+      <c r="BB49" s="24"/>
+      <c r="BC49" s="24"/>
+      <c r="BD49" s="25"/>
+    </row>
+    <row r="50" spans="1:56" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B49" s="21"/>
-      <c r="C49" s="21"/>
-      <c r="D49" s="21"/>
-      <c r="E49" s="21"/>
-      <c r="F49" s="21"/>
-      <c r="G49" s="21"/>
-      <c r="H49" s="21"/>
-      <c r="I49" s="21"/>
-      <c r="J49" s="21"/>
-      <c r="K49" s="21"/>
-      <c r="L49" s="21"/>
-      <c r="M49" s="21"/>
-      <c r="N49" s="21"/>
-      <c r="O49" s="21"/>
-      <c r="P49" s="21"/>
-      <c r="Q49" s="21"/>
-      <c r="R49" s="21"/>
-      <c r="S49" s="21"/>
-      <c r="T49" s="21"/>
-      <c r="U49" s="21"/>
-      <c r="V49" s="21"/>
-      <c r="W49" s="21"/>
-      <c r="X49" s="21"/>
-      <c r="Y49" s="21"/>
-      <c r="Z49" s="21"/>
-      <c r="AA49" s="21"/>
-      <c r="AB49" s="22"/>
-      <c r="AC49" s="20" t="s">
+      <c r="B50" s="26"/>
+      <c r="C50" s="26"/>
+      <c r="D50" s="26"/>
+      <c r="E50" s="26"/>
+      <c r="F50" s="26"/>
+      <c r="G50" s="26"/>
+      <c r="H50" s="26"/>
+      <c r="I50" s="26"/>
+      <c r="J50" s="26"/>
+      <c r="K50" s="26"/>
+      <c r="L50" s="26"/>
+      <c r="M50" s="26"/>
+      <c r="N50" s="26"/>
+      <c r="O50" s="26"/>
+      <c r="P50" s="26"/>
+      <c r="Q50" s="26"/>
+      <c r="R50" s="26"/>
+      <c r="S50" s="26"/>
+      <c r="T50" s="26"/>
+      <c r="U50" s="26"/>
+      <c r="V50" s="26"/>
+      <c r="W50" s="26"/>
+      <c r="X50" s="26"/>
+      <c r="Y50" s="26"/>
+      <c r="Z50" s="26"/>
+      <c r="AA50" s="26"/>
+      <c r="AB50" s="27"/>
+      <c r="AC50" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="AD49" s="21"/>
-      <c r="AE49" s="21"/>
-      <c r="AF49" s="21"/>
-      <c r="AG49" s="21"/>
-      <c r="AH49" s="21"/>
-      <c r="AI49" s="21"/>
-      <c r="AJ49" s="21"/>
-      <c r="AK49" s="21"/>
-      <c r="AL49" s="21"/>
-      <c r="AM49" s="21"/>
-      <c r="AN49" s="21"/>
-      <c r="AO49" s="21"/>
-      <c r="AP49" s="21"/>
-      <c r="AQ49" s="21"/>
-      <c r="AR49" s="21"/>
-      <c r="AS49" s="21"/>
-      <c r="AT49" s="21"/>
-      <c r="AU49" s="21"/>
-      <c r="AV49" s="21"/>
-      <c r="AW49" s="21"/>
-      <c r="AX49" s="21"/>
-      <c r="AY49" s="21"/>
-      <c r="AZ49" s="21"/>
-      <c r="BA49" s="21"/>
-      <c r="BB49" s="21"/>
-      <c r="BC49" s="21"/>
-      <c r="BD49" s="22"/>
-    </row>
-    <row r="50" spans="1:56" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="23" t="s">
+      <c r="AD50" s="26"/>
+      <c r="AE50" s="26"/>
+      <c r="AF50" s="26"/>
+      <c r="AG50" s="26"/>
+      <c r="AH50" s="26"/>
+      <c r="AI50" s="26"/>
+      <c r="AJ50" s="26"/>
+      <c r="AK50" s="26"/>
+      <c r="AL50" s="26"/>
+      <c r="AM50" s="26"/>
+      <c r="AN50" s="26"/>
+      <c r="AO50" s="26"/>
+      <c r="AP50" s="26"/>
+      <c r="AQ50" s="26"/>
+      <c r="AR50" s="26"/>
+      <c r="AS50" s="26"/>
+      <c r="AT50" s="26"/>
+      <c r="AU50" s="26"/>
+      <c r="AV50" s="26"/>
+      <c r="AW50" s="26"/>
+      <c r="AX50" s="26"/>
+      <c r="AY50" s="26"/>
+      <c r="AZ50" s="26"/>
+      <c r="BA50" s="26"/>
+      <c r="BB50" s="26"/>
+      <c r="BC50" s="26"/>
+      <c r="BD50" s="27"/>
+    </row>
+    <row r="51" spans="1:56" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B50" s="24"/>
-      <c r="C50" s="24"/>
-      <c r="D50" s="24"/>
-      <c r="E50" s="24"/>
-      <c r="F50" s="24"/>
-      <c r="G50" s="24"/>
-      <c r="H50" s="24"/>
-      <c r="I50" s="24"/>
-      <c r="J50" s="24"/>
-      <c r="K50" s="24"/>
-      <c r="L50" s="24"/>
-      <c r="M50" s="24"/>
-      <c r="N50" s="24"/>
-      <c r="O50" s="24"/>
-      <c r="P50" s="24"/>
-      <c r="Q50" s="24"/>
-      <c r="R50" s="24"/>
-      <c r="S50" s="24"/>
-      <c r="T50" s="24"/>
-      <c r="U50" s="24"/>
-      <c r="V50" s="24"/>
-      <c r="W50" s="24"/>
-      <c r="X50" s="24"/>
-      <c r="Y50" s="24"/>
-      <c r="Z50" s="24"/>
-      <c r="AA50" s="24"/>
-      <c r="AB50" s="25"/>
-      <c r="AC50" s="23" t="s">
+      <c r="B51" s="26"/>
+      <c r="C51" s="26"/>
+      <c r="D51" s="26"/>
+      <c r="E51" s="26"/>
+      <c r="F51" s="26"/>
+      <c r="G51" s="26"/>
+      <c r="H51" s="26"/>
+      <c r="I51" s="26"/>
+      <c r="J51" s="26"/>
+      <c r="K51" s="26"/>
+      <c r="L51" s="26"/>
+      <c r="M51" s="26"/>
+      <c r="N51" s="26"/>
+      <c r="O51" s="26"/>
+      <c r="P51" s="26"/>
+      <c r="Q51" s="26"/>
+      <c r="R51" s="26"/>
+      <c r="S51" s="26"/>
+      <c r="T51" s="26"/>
+      <c r="U51" s="26"/>
+      <c r="V51" s="26"/>
+      <c r="W51" s="26"/>
+      <c r="X51" s="26"/>
+      <c r="Y51" s="26"/>
+      <c r="Z51" s="26"/>
+      <c r="AA51" s="26"/>
+      <c r="AB51" s="27"/>
+      <c r="AC51" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="AD50" s="24"/>
-      <c r="AE50" s="24"/>
-      <c r="AF50" s="24"/>
-      <c r="AG50" s="24"/>
-      <c r="AH50" s="24"/>
-      <c r="AI50" s="24"/>
-      <c r="AJ50" s="24"/>
-      <c r="AK50" s="24"/>
-      <c r="AL50" s="24"/>
-      <c r="AM50" s="24"/>
-      <c r="AN50" s="24"/>
-      <c r="AO50" s="24"/>
-      <c r="AP50" s="24"/>
-      <c r="AQ50" s="24"/>
-      <c r="AR50" s="24"/>
-      <c r="AS50" s="24"/>
-      <c r="AT50" s="24"/>
-      <c r="AU50" s="24"/>
-      <c r="AV50" s="24"/>
-      <c r="AW50" s="24"/>
-      <c r="AX50" s="24"/>
-      <c r="AY50" s="24"/>
-      <c r="AZ50" s="24"/>
-      <c r="BA50" s="24"/>
-      <c r="BB50" s="24"/>
-      <c r="BC50" s="24"/>
-      <c r="BD50" s="25"/>
-    </row>
-    <row r="51" spans="1:56" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="23" t="s">
+      <c r="AD51" s="26"/>
+      <c r="AE51" s="26"/>
+      <c r="AF51" s="26"/>
+      <c r="AG51" s="26"/>
+      <c r="AH51" s="26"/>
+      <c r="AI51" s="26"/>
+      <c r="AJ51" s="26"/>
+      <c r="AK51" s="26"/>
+      <c r="AL51" s="26"/>
+      <c r="AM51" s="26"/>
+      <c r="AN51" s="26"/>
+      <c r="AO51" s="26"/>
+      <c r="AP51" s="26"/>
+      <c r="AQ51" s="26"/>
+      <c r="AR51" s="26"/>
+      <c r="AS51" s="26"/>
+      <c r="AT51" s="26"/>
+      <c r="AU51" s="26"/>
+      <c r="AV51" s="26"/>
+      <c r="AW51" s="26"/>
+      <c r="AX51" s="26"/>
+      <c r="AY51" s="26"/>
+      <c r="AZ51" s="26"/>
+      <c r="BA51" s="26"/>
+      <c r="BB51" s="26"/>
+      <c r="BC51" s="26"/>
+      <c r="BD51" s="27"/>
+    </row>
+    <row r="52" spans="1:56" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="B51" s="24"/>
-      <c r="C51" s="24"/>
-      <c r="D51" s="24"/>
-      <c r="E51" s="24"/>
-      <c r="F51" s="24"/>
-      <c r="G51" s="24"/>
-      <c r="H51" s="24"/>
-      <c r="I51" s="24"/>
-      <c r="J51" s="24"/>
-      <c r="K51" s="24"/>
-      <c r="L51" s="24"/>
-      <c r="M51" s="24"/>
-      <c r="N51" s="24"/>
-      <c r="O51" s="24"/>
-      <c r="P51" s="24"/>
-      <c r="Q51" s="24"/>
-      <c r="R51" s="24"/>
-      <c r="S51" s="24"/>
-      <c r="T51" s="24"/>
-      <c r="U51" s="24"/>
-      <c r="V51" s="24"/>
-      <c r="W51" s="24"/>
-      <c r="X51" s="24"/>
-      <c r="Y51" s="24"/>
-      <c r="Z51" s="24"/>
-      <c r="AA51" s="24"/>
-      <c r="AB51" s="25"/>
-      <c r="AC51" s="23" t="s">
+      <c r="B52" s="29"/>
+      <c r="C52" s="29"/>
+      <c r="D52" s="29"/>
+      <c r="E52" s="29"/>
+      <c r="F52" s="29"/>
+      <c r="G52" s="29"/>
+      <c r="H52" s="29"/>
+      <c r="I52" s="29"/>
+      <c r="J52" s="29"/>
+      <c r="K52" s="29"/>
+      <c r="L52" s="29"/>
+      <c r="M52" s="29"/>
+      <c r="N52" s="29"/>
+      <c r="O52" s="29"/>
+      <c r="P52" s="29"/>
+      <c r="Q52" s="29"/>
+      <c r="R52" s="29"/>
+      <c r="S52" s="29"/>
+      <c r="T52" s="29"/>
+      <c r="U52" s="29"/>
+      <c r="V52" s="29"/>
+      <c r="W52" s="29"/>
+      <c r="X52" s="29"/>
+      <c r="Y52" s="29"/>
+      <c r="Z52" s="29"/>
+      <c r="AA52" s="29"/>
+      <c r="AB52" s="30"/>
+      <c r="AC52" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="AD52" s="29"/>
+      <c r="AE52" s="29"/>
+      <c r="AF52" s="29"/>
+      <c r="AG52" s="29"/>
+      <c r="AH52" s="29"/>
+      <c r="AI52" s="29"/>
+      <c r="AJ52" s="29"/>
+      <c r="AK52" s="29"/>
+      <c r="AL52" s="29"/>
+      <c r="AM52" s="29"/>
+      <c r="AN52" s="29"/>
+      <c r="AO52" s="29"/>
+      <c r="AP52" s="29"/>
+      <c r="AQ52" s="29"/>
+      <c r="AR52" s="29"/>
+      <c r="AS52" s="29"/>
+      <c r="AT52" s="29"/>
+      <c r="AU52" s="29"/>
+      <c r="AV52" s="29"/>
+      <c r="AW52" s="29"/>
+      <c r="AX52" s="29"/>
+      <c r="AY52" s="29"/>
+      <c r="AZ52" s="29"/>
+      <c r="BA52" s="29"/>
+      <c r="BB52" s="29"/>
+      <c r="BC52" s="29"/>
+      <c r="BD52" s="30"/>
+    </row>
+    <row r="53" spans="1:56" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="AD51" s="24"/>
-      <c r="AE51" s="24"/>
-      <c r="AF51" s="24"/>
-      <c r="AG51" s="24"/>
-      <c r="AH51" s="24"/>
-      <c r="AI51" s="24"/>
-      <c r="AJ51" s="24"/>
-      <c r="AK51" s="24"/>
-      <c r="AL51" s="24"/>
-      <c r="AM51" s="24"/>
-      <c r="AN51" s="24"/>
-      <c r="AO51" s="24"/>
-      <c r="AP51" s="24"/>
-      <c r="AQ51" s="24"/>
-      <c r="AR51" s="24"/>
-      <c r="AS51" s="24"/>
-      <c r="AT51" s="24"/>
-      <c r="AU51" s="24"/>
-      <c r="AV51" s="24"/>
-      <c r="AW51" s="24"/>
-      <c r="AX51" s="24"/>
-      <c r="AY51" s="24"/>
-      <c r="AZ51" s="24"/>
-      <c r="BA51" s="24"/>
-      <c r="BB51" s="24"/>
-      <c r="BC51" s="24"/>
-      <c r="BD51" s="25"/>
-    </row>
-    <row r="52" spans="1:56" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="29" t="s">
-        <v>8</v>
-      </c>
-      <c r="B52" s="27"/>
-      <c r="C52" s="27"/>
-      <c r="D52" s="27"/>
-      <c r="E52" s="27"/>
-      <c r="F52" s="27"/>
-      <c r="G52" s="27"/>
-      <c r="H52" s="27"/>
-      <c r="I52" s="27"/>
-      <c r="J52" s="27"/>
-      <c r="K52" s="27"/>
-      <c r="L52" s="27"/>
-      <c r="M52" s="27"/>
-      <c r="N52" s="27"/>
-      <c r="O52" s="27"/>
-      <c r="P52" s="27"/>
-      <c r="Q52" s="27"/>
-      <c r="R52" s="27"/>
-      <c r="S52" s="27"/>
-      <c r="T52" s="27"/>
-      <c r="U52" s="27"/>
-      <c r="V52" s="27"/>
-      <c r="W52" s="27"/>
-      <c r="X52" s="27"/>
-      <c r="Y52" s="27"/>
-      <c r="Z52" s="27"/>
-      <c r="AA52" s="27"/>
-      <c r="AB52" s="28"/>
-      <c r="AC52" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="AD52" s="27"/>
-      <c r="AE52" s="27"/>
-      <c r="AF52" s="27"/>
-      <c r="AG52" s="27"/>
-      <c r="AH52" s="27"/>
-      <c r="AI52" s="27"/>
-      <c r="AJ52" s="27"/>
-      <c r="AK52" s="27"/>
-      <c r="AL52" s="27"/>
-      <c r="AM52" s="27"/>
-      <c r="AN52" s="27"/>
-      <c r="AO52" s="27"/>
-      <c r="AP52" s="27"/>
-      <c r="AQ52" s="27"/>
-      <c r="AR52" s="27"/>
-      <c r="AS52" s="27"/>
-      <c r="AT52" s="27"/>
-      <c r="AU52" s="27"/>
-      <c r="AV52" s="27"/>
-      <c r="AW52" s="27"/>
-      <c r="AX52" s="27"/>
-      <c r="AY52" s="27"/>
-      <c r="AZ52" s="27"/>
-      <c r="BA52" s="27"/>
-      <c r="BB52" s="27"/>
-      <c r="BC52" s="27"/>
-      <c r="BD52" s="28"/>
-    </row>
-    <row r="53" spans="1:56" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="14" t="s">
+      <c r="B53" s="18"/>
+      <c r="C53" s="18"/>
+      <c r="D53" s="18"/>
+      <c r="E53" s="18"/>
+      <c r="F53" s="18"/>
+      <c r="G53" s="18"/>
+      <c r="H53" s="18"/>
+      <c r="I53" s="18"/>
+      <c r="J53" s="18"/>
+      <c r="K53" s="18"/>
+      <c r="L53" s="18"/>
+      <c r="M53" s="18"/>
+      <c r="N53" s="18"/>
+      <c r="O53" s="18"/>
+      <c r="P53" s="18"/>
+      <c r="Q53" s="18"/>
+      <c r="R53" s="18"/>
+      <c r="S53" s="18"/>
+      <c r="T53" s="18"/>
+      <c r="U53" s="18"/>
+      <c r="V53" s="18"/>
+      <c r="W53" s="18"/>
+      <c r="X53" s="18"/>
+      <c r="Y53" s="18"/>
+      <c r="Z53" s="18"/>
+      <c r="AA53" s="18"/>
+      <c r="AB53" s="18"/>
+      <c r="AC53" s="18"/>
+      <c r="AD53" s="18"/>
+      <c r="AE53" s="18"/>
+      <c r="AF53" s="18"/>
+      <c r="AG53" s="18"/>
+      <c r="AH53" s="18"/>
+      <c r="AI53" s="18"/>
+      <c r="AJ53" s="18"/>
+      <c r="AK53" s="18"/>
+      <c r="AL53" s="18"/>
+      <c r="AM53" s="18"/>
+      <c r="AN53" s="18"/>
+      <c r="AO53" s="18"/>
+      <c r="AP53" s="18"/>
+      <c r="AQ53" s="18"/>
+      <c r="AR53" s="18"/>
+      <c r="AS53" s="18"/>
+      <c r="AT53" s="18"/>
+      <c r="AU53" s="18"/>
+      <c r="AV53" s="18"/>
+      <c r="AW53" s="18"/>
+      <c r="AX53" s="18"/>
+      <c r="AY53" s="18"/>
+      <c r="AZ53" s="18"/>
+      <c r="BA53" s="18"/>
+      <c r="BB53" s="18"/>
+      <c r="BC53" s="18"/>
+      <c r="BD53" s="19"/>
+    </row>
+    <row r="54" spans="1:56" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="B53" s="15"/>
-      <c r="C53" s="15"/>
-      <c r="D53" s="15"/>
-      <c r="E53" s="15"/>
-      <c r="F53" s="15"/>
-      <c r="G53" s="15"/>
-      <c r="H53" s="15"/>
-      <c r="I53" s="15"/>
-      <c r="J53" s="15"/>
-      <c r="K53" s="15"/>
-      <c r="L53" s="15"/>
-      <c r="M53" s="15"/>
-      <c r="N53" s="15"/>
-      <c r="O53" s="15"/>
-      <c r="P53" s="15"/>
-      <c r="Q53" s="15"/>
-      <c r="R53" s="15"/>
-      <c r="S53" s="15"/>
-      <c r="T53" s="15"/>
-      <c r="U53" s="15"/>
-      <c r="V53" s="15"/>
-      <c r="W53" s="15"/>
-      <c r="X53" s="15"/>
-      <c r="Y53" s="15"/>
-      <c r="Z53" s="15"/>
-      <c r="AA53" s="15"/>
-      <c r="AB53" s="15"/>
-      <c r="AC53" s="15"/>
-      <c r="AD53" s="15"/>
-      <c r="AE53" s="15"/>
-      <c r="AF53" s="15"/>
-      <c r="AG53" s="15"/>
-      <c r="AH53" s="15"/>
-      <c r="AI53" s="15"/>
-      <c r="AJ53" s="15"/>
-      <c r="AK53" s="15"/>
-      <c r="AL53" s="15"/>
-      <c r="AM53" s="15"/>
-      <c r="AN53" s="15"/>
-      <c r="AO53" s="15"/>
-      <c r="AP53" s="15"/>
-      <c r="AQ53" s="15"/>
-      <c r="AR53" s="15"/>
-      <c r="AS53" s="15"/>
-      <c r="AT53" s="15"/>
-      <c r="AU53" s="15"/>
-      <c r="AV53" s="15"/>
-      <c r="AW53" s="15"/>
-      <c r="AX53" s="15"/>
-      <c r="AY53" s="15"/>
-      <c r="AZ53" s="15"/>
-      <c r="BA53" s="15"/>
-      <c r="BB53" s="15"/>
-      <c r="BC53" s="15"/>
-      <c r="BD53" s="16"/>
-    </row>
-    <row r="54" spans="1:56" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="17" t="s">
+      <c r="B54" s="21"/>
+      <c r="C54" s="21"/>
+      <c r="D54" s="21"/>
+      <c r="E54" s="21"/>
+      <c r="F54" s="21"/>
+      <c r="G54" s="21"/>
+      <c r="H54" s="21"/>
+      <c r="I54" s="21"/>
+      <c r="J54" s="21"/>
+      <c r="K54" s="21"/>
+      <c r="L54" s="21"/>
+      <c r="M54" s="21"/>
+      <c r="N54" s="21"/>
+      <c r="O54" s="21"/>
+      <c r="P54" s="21"/>
+      <c r="Q54" s="21"/>
+      <c r="R54" s="21"/>
+      <c r="S54" s="21"/>
+      <c r="T54" s="21"/>
+      <c r="U54" s="21"/>
+      <c r="V54" s="21"/>
+      <c r="W54" s="21"/>
+      <c r="X54" s="21"/>
+      <c r="Y54" s="21"/>
+      <c r="Z54" s="21"/>
+      <c r="AA54" s="21"/>
+      <c r="AB54" s="21"/>
+      <c r="AC54" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="B54" s="18"/>
-      <c r="C54" s="18"/>
-      <c r="D54" s="18"/>
-      <c r="E54" s="18"/>
-      <c r="F54" s="18"/>
-      <c r="G54" s="18"/>
-      <c r="H54" s="18"/>
-      <c r="I54" s="18"/>
-      <c r="J54" s="18"/>
-      <c r="K54" s="18"/>
-      <c r="L54" s="18"/>
-      <c r="M54" s="18"/>
-      <c r="N54" s="18"/>
-      <c r="O54" s="18"/>
-      <c r="P54" s="18"/>
-      <c r="Q54" s="18"/>
-      <c r="R54" s="18"/>
-      <c r="S54" s="18"/>
-      <c r="T54" s="18"/>
-      <c r="U54" s="18"/>
-      <c r="V54" s="18"/>
-      <c r="W54" s="18"/>
-      <c r="X54" s="18"/>
-      <c r="Y54" s="18"/>
-      <c r="Z54" s="18"/>
-      <c r="AA54" s="18"/>
-      <c r="AB54" s="18"/>
-      <c r="AC54" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="AD54" s="18"/>
-      <c r="AE54" s="18"/>
-      <c r="AF54" s="18"/>
-      <c r="AG54" s="18"/>
-      <c r="AH54" s="18"/>
-      <c r="AI54" s="18"/>
-      <c r="AJ54" s="18"/>
-      <c r="AK54" s="18"/>
-      <c r="AL54" s="18"/>
-      <c r="AM54" s="18"/>
-      <c r="AN54" s="18"/>
-      <c r="AO54" s="18"/>
-      <c r="AP54" s="18"/>
-      <c r="AQ54" s="18"/>
-      <c r="AR54" s="18"/>
-      <c r="AS54" s="18"/>
-      <c r="AT54" s="18"/>
-      <c r="AU54" s="18"/>
-      <c r="AV54" s="18"/>
-      <c r="AW54" s="18"/>
-      <c r="AX54" s="18"/>
-      <c r="AY54" s="18"/>
-      <c r="AZ54" s="18"/>
-      <c r="BA54" s="18"/>
-      <c r="BB54" s="18"/>
-      <c r="BC54" s="18"/>
-      <c r="BD54" s="19"/>
+      <c r="AD54" s="21"/>
+      <c r="AE54" s="21"/>
+      <c r="AF54" s="21"/>
+      <c r="AG54" s="21"/>
+      <c r="AH54" s="21"/>
+      <c r="AI54" s="21"/>
+      <c r="AJ54" s="21"/>
+      <c r="AK54" s="21"/>
+      <c r="AL54" s="21"/>
+      <c r="AM54" s="21"/>
+      <c r="AN54" s="21"/>
+      <c r="AO54" s="21"/>
+      <c r="AP54" s="21"/>
+      <c r="AQ54" s="21"/>
+      <c r="AR54" s="21"/>
+      <c r="AS54" s="21"/>
+      <c r="AT54" s="21"/>
+      <c r="AU54" s="21"/>
+      <c r="AV54" s="21"/>
+      <c r="AW54" s="21"/>
+      <c r="AX54" s="21"/>
+      <c r="AY54" s="21"/>
+      <c r="AZ54" s="21"/>
+      <c r="BA54" s="21"/>
+      <c r="BB54" s="21"/>
+      <c r="BC54" s="21"/>
+      <c r="BD54" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A26:BD26"/>
     <mergeCell ref="A27:BD27"/>
     <mergeCell ref="A1:BD1"/>
     <mergeCell ref="A53:BD53"/>
@@ -4087,7 +4088,6 @@
     <mergeCell ref="A50:AB50"/>
     <mergeCell ref="A51:AB51"/>
     <mergeCell ref="A52:AB52"/>
-    <mergeCell ref="A26:BD26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Quest.xlsx
+++ b/Quest.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/aff98139d4bac41f/文件/DL/dragalia-data-track/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="13" documentId="8_{5481D2AA-BE39-4D5C-836A-7D24C3EF9124}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{FE5109C2-6A68-4774-85C2-200B19E05222}"/>
+  <xr:revisionPtr revIDLastSave="17" documentId="8_{5481D2AA-BE39-4D5C-836A-7D24C3EF9124}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{B6CE3091-05CD-44D5-8D5C-2F96976B2E48}"/>
   <bookViews>
-    <workbookView xWindow="6195" yWindow="885" windowWidth="21525" windowHeight="13500" xr2:uid="{5ACD922F-E2B9-468A-8DAF-19A1C97D580A}"/>
+    <workbookView xWindow="29280" yWindow="510" windowWidth="17325" windowHeight="13500" xr2:uid="{5ACD922F-E2B9-468A-8DAF-19A1C97D580A}"/>
   </bookViews>
   <sheets>
     <sheet name="Agito A&amp;O" sheetId="1" r:id="rId1"/>
@@ -50,13 +50,7 @@
     <t>- 開場後退或不動，讓王衝刺的時候比較緊密，SS才有辦法一次兩隻</t>
   </si>
   <si>
-    <t>- S3 &gt; S4 &gt; (吃衝) &gt; 拉牢 &gt; S1 &gt; 滾去右下 &gt; S2 &gt; S4 &gt; S3 (P1結束)</t>
-  </si>
-  <si>
     <t>- 轉P看到紫圈後變龍(本體要被打) &gt; 龍大後立刻躲牢 &gt; 普5下放龍大II &gt; 把龍弄掉 &gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   S1上燒 &gt; S3 &gt; S4 &gt; S2 (結束)</t>
   </si>
   <si>
     <t>德菲要點</t>
@@ -103,6 +97,12 @@
   </si>
   <si>
     <t>馬爾斯要點 / S3由耶、S4副團</t>
+  </si>
+  <si>
+    <t>- S3 &gt; S4 &gt; (吃衝) &gt; 拉牢 &gt; S1 &gt; 滾去右下 &gt; S4 &gt; S2 &gt; S3 (P1結束)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   S1上燒 &gt; S4 &gt; S2 (結束)</t>
   </si>
 </sst>
 </file>
@@ -894,8 +894,8 @@
   </sheetPr>
   <dimension ref="A1:BD54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="A50" sqref="A50:AB50"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="AM58" sqref="AM58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.85546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -905,7 +905,7 @@
   <sheetData>
     <row r="1" spans="1:56" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B1" s="15"/>
       <c r="C1" s="15"/>
@@ -3701,7 +3701,7 @@
     </row>
     <row r="49" spans="1:56" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="23" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B49" s="24"/>
       <c r="C49" s="24"/>
@@ -3731,7 +3731,7 @@
       <c r="AA49" s="24"/>
       <c r="AB49" s="25"/>
       <c r="AC49" s="23" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AD49" s="24"/>
       <c r="AE49" s="24"/>
@@ -3763,7 +3763,7 @@
     </row>
     <row r="50" spans="1:56" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="11" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="B50" s="26"/>
       <c r="C50" s="26"/>
@@ -3793,7 +3793,7 @@
       <c r="AA50" s="26"/>
       <c r="AB50" s="27"/>
       <c r="AC50" s="11" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AD50" s="26"/>
       <c r="AE50" s="26"/>
@@ -3825,7 +3825,7 @@
     </row>
     <row r="51" spans="1:56" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B51" s="26"/>
       <c r="C51" s="26"/>
@@ -3855,7 +3855,7 @@
       <c r="AA51" s="26"/>
       <c r="AB51" s="27"/>
       <c r="AC51" s="11" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AD51" s="26"/>
       <c r="AE51" s="26"/>
@@ -3887,7 +3887,7 @@
     </row>
     <row r="52" spans="1:56" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="31" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="B52" s="29"/>
       <c r="C52" s="29"/>
@@ -3917,7 +3917,7 @@
       <c r="AA52" s="29"/>
       <c r="AB52" s="30"/>
       <c r="AC52" s="28" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AD52" s="29"/>
       <c r="AE52" s="29"/>
@@ -3949,7 +3949,7 @@
     </row>
     <row r="53" spans="1:56" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="17" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B53" s="18"/>
       <c r="C53" s="18"/>
@@ -4009,7 +4009,7 @@
     </row>
     <row r="54" spans="1:56" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="20" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B54" s="21"/>
       <c r="C54" s="21"/>
@@ -4039,7 +4039,7 @@
       <c r="AA54" s="21"/>
       <c r="AB54" s="21"/>
       <c r="AC54" s="21" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AD54" s="21"/>
       <c r="AE54" s="21"/>
@@ -4071,6 +4071,7 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A52:AB52"/>
     <mergeCell ref="A26:BD26"/>
     <mergeCell ref="A27:BD27"/>
     <mergeCell ref="A1:BD1"/>
@@ -4087,7 +4088,6 @@
     <mergeCell ref="A49:AB49"/>
     <mergeCell ref="A50:AB50"/>
     <mergeCell ref="A51:AB51"/>
-    <mergeCell ref="A52:AB52"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Quest.xlsx
+++ b/Quest.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/aff98139d4bac41f/文件/DL/dragalia-data-track/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="17" documentId="8_{5481D2AA-BE39-4D5C-836A-7D24C3EF9124}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{B6CE3091-05CD-44D5-8D5C-2F96976B2E48}"/>
+  <xr:revisionPtr revIDLastSave="24" documentId="8_{5481D2AA-BE39-4D5C-836A-7D24C3EF9124}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{B913FA1B-3449-4C4A-87B8-2F858C05E19F}"/>
   <bookViews>
-    <workbookView xWindow="29280" yWindow="510" windowWidth="17325" windowHeight="13500" xr2:uid="{5ACD922F-E2B9-468A-8DAF-19A1C97D580A}"/>
+    <workbookView xWindow="31740" yWindow="1680" windowWidth="23040" windowHeight="13140" xr2:uid="{5ACD922F-E2B9-468A-8DAF-19A1C97D580A}"/>
   </bookViews>
   <sheets>
     <sheet name="Agito A&amp;O" sheetId="1" r:id="rId1"/>
@@ -71,6 +71,18 @@
     <t>圖片歡迎轉載</t>
   </si>
   <si>
+    <t>- P2切記拉牢，增加穩度 (牢鎖定最遠)</t>
+  </si>
+  <si>
+    <t>馬爾斯要點 / S3由耶、S4副團</t>
+  </si>
+  <si>
+    <t>- S3 &gt; S4 &gt; (吃衝) &gt; 拉牢 &gt; S1 &gt; 滾去右下 &gt; S4 &gt; S2 &gt; S3 (P1結束)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   S1上燒 &gt; S4 &gt; S2 (結束)</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="18"/>
@@ -89,20 +101,8 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> Oasis of the Maniacs</t>
+      <t xml:space="preserve"> Oasis of the Maniacs - 2020/06/26 2:04 PM CDT</t>
     </r>
-  </si>
-  <si>
-    <t>- P2切記拉牢，增加穩度 (牢鎖定最遠)</t>
-  </si>
-  <si>
-    <t>馬爾斯要點 / S3由耶、S4副團</t>
-  </si>
-  <si>
-    <t>- S3 &gt; S4 &gt; (吃衝) &gt; 拉牢 &gt; S1 &gt; 滾去右下 &gt; S4 &gt; S2 &gt; S3 (P1結束)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   S1上燒 &gt; S4 &gt; S2 (結束)</t>
   </si>
 </sst>
 </file>
@@ -307,6 +307,15 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -359,15 +368,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -554,10 +554,10 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="Picture 8">
+        <xdr:cNvPr id="4" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF7E41B3-4ABB-435C-A89F-F6CB89C2689D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C6AA43B-364F-474A-873C-0AC2686BEB48}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -579,7 +579,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5334000" y="4572000"/>
+          <a:off x="5334000" y="5343525"/>
           <a:ext cx="5331778" cy="3657600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -894,8 +894,8 @@
   </sheetPr>
   <dimension ref="A1:BD54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="AM58" sqref="AM58"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection sqref="A1:BD54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.85546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -904,184 +904,184 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:56" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
-        <v>12</v>
+      <c r="A1" s="17" t="s">
+        <v>16</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
-      <c r="L1" s="15"/>
-      <c r="M1" s="15"/>
-      <c r="N1" s="15"/>
-      <c r="O1" s="15"/>
-      <c r="P1" s="15"/>
-      <c r="Q1" s="15"/>
-      <c r="R1" s="15"/>
-      <c r="S1" s="15"/>
-      <c r="T1" s="15"/>
-      <c r="U1" s="15"/>
-      <c r="V1" s="15"/>
-      <c r="W1" s="15"/>
-      <c r="X1" s="15"/>
-      <c r="Y1" s="15"/>
-      <c r="Z1" s="15"/>
-      <c r="AA1" s="15"/>
-      <c r="AB1" s="15"/>
-      <c r="AC1" s="15"/>
-      <c r="AD1" s="15"/>
-      <c r="AE1" s="15"/>
-      <c r="AF1" s="15"/>
-      <c r="AG1" s="15"/>
-      <c r="AH1" s="15"/>
-      <c r="AI1" s="15"/>
-      <c r="AJ1" s="15"/>
-      <c r="AK1" s="15"/>
-      <c r="AL1" s="15"/>
-      <c r="AM1" s="15"/>
-      <c r="AN1" s="15"/>
-      <c r="AO1" s="15"/>
-      <c r="AP1" s="15"/>
-      <c r="AQ1" s="15"/>
-      <c r="AR1" s="15"/>
-      <c r="AS1" s="15"/>
-      <c r="AT1" s="15"/>
-      <c r="AU1" s="15"/>
-      <c r="AV1" s="15"/>
-      <c r="AW1" s="15"/>
-      <c r="AX1" s="15"/>
-      <c r="AY1" s="15"/>
-      <c r="AZ1" s="15"/>
-      <c r="BA1" s="15"/>
-      <c r="BB1" s="15"/>
-      <c r="BC1" s="15"/>
-      <c r="BD1" s="16"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
+      <c r="M1" s="18"/>
+      <c r="N1" s="18"/>
+      <c r="O1" s="18"/>
+      <c r="P1" s="18"/>
+      <c r="Q1" s="18"/>
+      <c r="R1" s="18"/>
+      <c r="S1" s="18"/>
+      <c r="T1" s="18"/>
+      <c r="U1" s="18"/>
+      <c r="V1" s="18"/>
+      <c r="W1" s="18"/>
+      <c r="X1" s="18"/>
+      <c r="Y1" s="18"/>
+      <c r="Z1" s="18"/>
+      <c r="AA1" s="18"/>
+      <c r="AB1" s="18"/>
+      <c r="AC1" s="18"/>
+      <c r="AD1" s="18"/>
+      <c r="AE1" s="18"/>
+      <c r="AF1" s="18"/>
+      <c r="AG1" s="18"/>
+      <c r="AH1" s="18"/>
+      <c r="AI1" s="18"/>
+      <c r="AJ1" s="18"/>
+      <c r="AK1" s="18"/>
+      <c r="AL1" s="18"/>
+      <c r="AM1" s="18"/>
+      <c r="AN1" s="18"/>
+      <c r="AO1" s="18"/>
+      <c r="AP1" s="18"/>
+      <c r="AQ1" s="18"/>
+      <c r="AR1" s="18"/>
+      <c r="AS1" s="18"/>
+      <c r="AT1" s="18"/>
+      <c r="AU1" s="18"/>
+      <c r="AV1" s="18"/>
+      <c r="AW1" s="18"/>
+      <c r="AX1" s="18"/>
+      <c r="AY1" s="18"/>
+      <c r="AZ1" s="18"/>
+      <c r="BA1" s="18"/>
+      <c r="BB1" s="18"/>
+      <c r="BC1" s="18"/>
+      <c r="BD1" s="19"/>
     </row>
     <row r="2" spans="1:56" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
-      <c r="K2" s="18"/>
-      <c r="L2" s="18"/>
-      <c r="M2" s="18"/>
-      <c r="N2" s="18"/>
-      <c r="O2" s="18"/>
-      <c r="P2" s="18"/>
-      <c r="Q2" s="18"/>
-      <c r="R2" s="18"/>
-      <c r="S2" s="18"/>
-      <c r="T2" s="18"/>
-      <c r="U2" s="18"/>
-      <c r="V2" s="18"/>
-      <c r="W2" s="18"/>
-      <c r="X2" s="18"/>
-      <c r="Y2" s="18"/>
-      <c r="Z2" s="18"/>
-      <c r="AA2" s="18"/>
-      <c r="AB2" s="18"/>
-      <c r="AC2" s="18"/>
-      <c r="AD2" s="18"/>
-      <c r="AE2" s="18"/>
-      <c r="AF2" s="18"/>
-      <c r="AG2" s="18"/>
-      <c r="AH2" s="18"/>
-      <c r="AI2" s="18"/>
-      <c r="AJ2" s="18"/>
-      <c r="AK2" s="18"/>
-      <c r="AL2" s="18"/>
-      <c r="AM2" s="18"/>
-      <c r="AN2" s="18"/>
-      <c r="AO2" s="18"/>
-      <c r="AP2" s="18"/>
-      <c r="AQ2" s="18"/>
-      <c r="AR2" s="18"/>
-      <c r="AS2" s="18"/>
-      <c r="AT2" s="18"/>
-      <c r="AU2" s="18"/>
-      <c r="AV2" s="18"/>
-      <c r="AW2" s="18"/>
-      <c r="AX2" s="18"/>
-      <c r="AY2" s="18"/>
-      <c r="AZ2" s="18"/>
-      <c r="BA2" s="18"/>
-      <c r="BB2" s="18"/>
-      <c r="BC2" s="18"/>
-      <c r="BD2" s="19"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="21"/>
+      <c r="M2" s="21"/>
+      <c r="N2" s="21"/>
+      <c r="O2" s="21"/>
+      <c r="P2" s="21"/>
+      <c r="Q2" s="21"/>
+      <c r="R2" s="21"/>
+      <c r="S2" s="21"/>
+      <c r="T2" s="21"/>
+      <c r="U2" s="21"/>
+      <c r="V2" s="21"/>
+      <c r="W2" s="21"/>
+      <c r="X2" s="21"/>
+      <c r="Y2" s="21"/>
+      <c r="Z2" s="21"/>
+      <c r="AA2" s="21"/>
+      <c r="AB2" s="21"/>
+      <c r="AC2" s="21"/>
+      <c r="AD2" s="21"/>
+      <c r="AE2" s="21"/>
+      <c r="AF2" s="21"/>
+      <c r="AG2" s="21"/>
+      <c r="AH2" s="21"/>
+      <c r="AI2" s="21"/>
+      <c r="AJ2" s="21"/>
+      <c r="AK2" s="21"/>
+      <c r="AL2" s="21"/>
+      <c r="AM2" s="21"/>
+      <c r="AN2" s="21"/>
+      <c r="AO2" s="21"/>
+      <c r="AP2" s="21"/>
+      <c r="AQ2" s="21"/>
+      <c r="AR2" s="21"/>
+      <c r="AS2" s="21"/>
+      <c r="AT2" s="21"/>
+      <c r="AU2" s="21"/>
+      <c r="AV2" s="21"/>
+      <c r="AW2" s="21"/>
+      <c r="AX2" s="21"/>
+      <c r="AY2" s="21"/>
+      <c r="AZ2" s="21"/>
+      <c r="BA2" s="21"/>
+      <c r="BB2" s="21"/>
+      <c r="BC2" s="21"/>
+      <c r="BD2" s="22"/>
     </row>
     <row r="3" spans="1:56" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="26"/>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
-      <c r="H3" s="26"/>
-      <c r="I3" s="26"/>
-      <c r="J3" s="26"/>
-      <c r="K3" s="26"/>
-      <c r="L3" s="26"/>
-      <c r="M3" s="26"/>
-      <c r="N3" s="26"/>
-      <c r="O3" s="26"/>
-      <c r="P3" s="26"/>
-      <c r="Q3" s="26"/>
-      <c r="R3" s="26"/>
-      <c r="S3" s="26"/>
-      <c r="T3" s="26"/>
-      <c r="U3" s="26"/>
-      <c r="V3" s="26"/>
-      <c r="W3" s="26"/>
-      <c r="X3" s="26"/>
-      <c r="Y3" s="26"/>
-      <c r="Z3" s="26"/>
-      <c r="AA3" s="26"/>
-      <c r="AB3" s="26"/>
-      <c r="AC3" s="26"/>
-      <c r="AD3" s="26"/>
-      <c r="AE3" s="26"/>
-      <c r="AF3" s="26"/>
-      <c r="AG3" s="26"/>
-      <c r="AH3" s="26"/>
-      <c r="AI3" s="26"/>
-      <c r="AJ3" s="26"/>
-      <c r="AK3" s="26"/>
-      <c r="AL3" s="26"/>
-      <c r="AM3" s="26"/>
-      <c r="AN3" s="26"/>
-      <c r="AO3" s="26"/>
-      <c r="AP3" s="26"/>
-      <c r="AQ3" s="26"/>
-      <c r="AR3" s="26"/>
-      <c r="AS3" s="26"/>
-      <c r="AT3" s="26"/>
-      <c r="AU3" s="26"/>
-      <c r="AV3" s="26"/>
-      <c r="AW3" s="26"/>
-      <c r="AX3" s="26"/>
-      <c r="AY3" s="26"/>
-      <c r="AZ3" s="26"/>
-      <c r="BA3" s="26"/>
-      <c r="BB3" s="26"/>
-      <c r="BC3" s="26"/>
-      <c r="BD3" s="27"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="29"/>
+      <c r="J3" s="29"/>
+      <c r="K3" s="29"/>
+      <c r="L3" s="29"/>
+      <c r="M3" s="29"/>
+      <c r="N3" s="29"/>
+      <c r="O3" s="29"/>
+      <c r="P3" s="29"/>
+      <c r="Q3" s="29"/>
+      <c r="R3" s="29"/>
+      <c r="S3" s="29"/>
+      <c r="T3" s="29"/>
+      <c r="U3" s="29"/>
+      <c r="V3" s="29"/>
+      <c r="W3" s="29"/>
+      <c r="X3" s="29"/>
+      <c r="Y3" s="29"/>
+      <c r="Z3" s="29"/>
+      <c r="AA3" s="29"/>
+      <c r="AB3" s="29"/>
+      <c r="AC3" s="29"/>
+      <c r="AD3" s="29"/>
+      <c r="AE3" s="29"/>
+      <c r="AF3" s="29"/>
+      <c r="AG3" s="29"/>
+      <c r="AH3" s="29"/>
+      <c r="AI3" s="29"/>
+      <c r="AJ3" s="29"/>
+      <c r="AK3" s="29"/>
+      <c r="AL3" s="29"/>
+      <c r="AM3" s="29"/>
+      <c r="AN3" s="29"/>
+      <c r="AO3" s="29"/>
+      <c r="AP3" s="29"/>
+      <c r="AQ3" s="29"/>
+      <c r="AR3" s="29"/>
+      <c r="AS3" s="29"/>
+      <c r="AT3" s="29"/>
+      <c r="AU3" s="29"/>
+      <c r="AV3" s="29"/>
+      <c r="AW3" s="29"/>
+      <c r="AX3" s="29"/>
+      <c r="AY3" s="29"/>
+      <c r="AZ3" s="29"/>
+      <c r="BA3" s="29"/>
+      <c r="BB3" s="29"/>
+      <c r="BC3" s="29"/>
+      <c r="BD3" s="30"/>
     </row>
     <row r="4" spans="1:56" ht="8.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5"/>
@@ -2302,184 +2302,184 @@
       <c r="BD24" s="4"/>
     </row>
     <row r="25" spans="1:56" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="23" t="s">
+      <c r="A25" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="B25" s="24"/>
-      <c r="C25" s="24"/>
-      <c r="D25" s="24"/>
-      <c r="E25" s="24"/>
-      <c r="F25" s="24"/>
-      <c r="G25" s="24"/>
-      <c r="H25" s="24"/>
-      <c r="I25" s="24"/>
-      <c r="J25" s="24"/>
-      <c r="K25" s="24"/>
-      <c r="L25" s="24"/>
-      <c r="M25" s="24"/>
-      <c r="N25" s="24"/>
-      <c r="O25" s="24"/>
-      <c r="P25" s="24"/>
-      <c r="Q25" s="24"/>
-      <c r="R25" s="24"/>
-      <c r="S25" s="24"/>
-      <c r="T25" s="24"/>
-      <c r="U25" s="24"/>
-      <c r="V25" s="24"/>
-      <c r="W25" s="24"/>
-      <c r="X25" s="24"/>
-      <c r="Y25" s="24"/>
-      <c r="Z25" s="24"/>
-      <c r="AA25" s="24"/>
-      <c r="AB25" s="24"/>
-      <c r="AC25" s="24"/>
-      <c r="AD25" s="24"/>
-      <c r="AE25" s="24"/>
-      <c r="AF25" s="24"/>
-      <c r="AG25" s="24"/>
-      <c r="AH25" s="24"/>
-      <c r="AI25" s="24"/>
-      <c r="AJ25" s="24"/>
-      <c r="AK25" s="24"/>
-      <c r="AL25" s="24"/>
-      <c r="AM25" s="24"/>
-      <c r="AN25" s="24"/>
-      <c r="AO25" s="24"/>
-      <c r="AP25" s="24"/>
-      <c r="AQ25" s="24"/>
-      <c r="AR25" s="24"/>
-      <c r="AS25" s="24"/>
-      <c r="AT25" s="24"/>
-      <c r="AU25" s="24"/>
-      <c r="AV25" s="24"/>
-      <c r="AW25" s="24"/>
-      <c r="AX25" s="24"/>
-      <c r="AY25" s="24"/>
-      <c r="AZ25" s="24"/>
-      <c r="BA25" s="24"/>
-      <c r="BB25" s="24"/>
-      <c r="BC25" s="24"/>
-      <c r="BD25" s="25"/>
+      <c r="B25" s="27"/>
+      <c r="C25" s="27"/>
+      <c r="D25" s="27"/>
+      <c r="E25" s="27"/>
+      <c r="F25" s="27"/>
+      <c r="G25" s="27"/>
+      <c r="H25" s="27"/>
+      <c r="I25" s="27"/>
+      <c r="J25" s="27"/>
+      <c r="K25" s="27"/>
+      <c r="L25" s="27"/>
+      <c r="M25" s="27"/>
+      <c r="N25" s="27"/>
+      <c r="O25" s="27"/>
+      <c r="P25" s="27"/>
+      <c r="Q25" s="27"/>
+      <c r="R25" s="27"/>
+      <c r="S25" s="27"/>
+      <c r="T25" s="27"/>
+      <c r="U25" s="27"/>
+      <c r="V25" s="27"/>
+      <c r="W25" s="27"/>
+      <c r="X25" s="27"/>
+      <c r="Y25" s="27"/>
+      <c r="Z25" s="27"/>
+      <c r="AA25" s="27"/>
+      <c r="AB25" s="27"/>
+      <c r="AC25" s="27"/>
+      <c r="AD25" s="27"/>
+      <c r="AE25" s="27"/>
+      <c r="AF25" s="27"/>
+      <c r="AG25" s="27"/>
+      <c r="AH25" s="27"/>
+      <c r="AI25" s="27"/>
+      <c r="AJ25" s="27"/>
+      <c r="AK25" s="27"/>
+      <c r="AL25" s="27"/>
+      <c r="AM25" s="27"/>
+      <c r="AN25" s="27"/>
+      <c r="AO25" s="27"/>
+      <c r="AP25" s="27"/>
+      <c r="AQ25" s="27"/>
+      <c r="AR25" s="27"/>
+      <c r="AS25" s="27"/>
+      <c r="AT25" s="27"/>
+      <c r="AU25" s="27"/>
+      <c r="AV25" s="27"/>
+      <c r="AW25" s="27"/>
+      <c r="AX25" s="27"/>
+      <c r="AY25" s="27"/>
+      <c r="AZ25" s="27"/>
+      <c r="BA25" s="27"/>
+      <c r="BB25" s="27"/>
+      <c r="BC25" s="27"/>
+      <c r="BD25" s="28"/>
     </row>
     <row r="26" spans="1:56" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="11" t="s">
+      <c r="A26" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B26" s="12"/>
-      <c r="C26" s="12"/>
-      <c r="D26" s="12"/>
-      <c r="E26" s="12"/>
-      <c r="F26" s="12"/>
-      <c r="G26" s="12"/>
-      <c r="H26" s="12"/>
-      <c r="I26" s="12"/>
-      <c r="J26" s="12"/>
-      <c r="K26" s="12"/>
-      <c r="L26" s="12"/>
-      <c r="M26" s="12"/>
-      <c r="N26" s="12"/>
-      <c r="O26" s="12"/>
-      <c r="P26" s="12"/>
-      <c r="Q26" s="12"/>
-      <c r="R26" s="12"/>
-      <c r="S26" s="12"/>
-      <c r="T26" s="12"/>
-      <c r="U26" s="12"/>
-      <c r="V26" s="12"/>
-      <c r="W26" s="12"/>
-      <c r="X26" s="12"/>
-      <c r="Y26" s="12"/>
-      <c r="Z26" s="12"/>
-      <c r="AA26" s="12"/>
-      <c r="AB26" s="12"/>
-      <c r="AC26" s="12"/>
-      <c r="AD26" s="12"/>
-      <c r="AE26" s="12"/>
-      <c r="AF26" s="12"/>
-      <c r="AG26" s="12"/>
-      <c r="AH26" s="12"/>
-      <c r="AI26" s="12"/>
-      <c r="AJ26" s="12"/>
-      <c r="AK26" s="12"/>
-      <c r="AL26" s="12"/>
-      <c r="AM26" s="12"/>
-      <c r="AN26" s="12"/>
-      <c r="AO26" s="12"/>
-      <c r="AP26" s="12"/>
-      <c r="AQ26" s="12"/>
-      <c r="AR26" s="12"/>
-      <c r="AS26" s="12"/>
-      <c r="AT26" s="12"/>
-      <c r="AU26" s="12"/>
-      <c r="AV26" s="12"/>
-      <c r="AW26" s="12"/>
-      <c r="AX26" s="12"/>
-      <c r="AY26" s="12"/>
-      <c r="AZ26" s="12"/>
-      <c r="BA26" s="12"/>
-      <c r="BB26" s="12"/>
-      <c r="BC26" s="12"/>
-      <c r="BD26" s="13"/>
+      <c r="B26" s="15"/>
+      <c r="C26" s="15"/>
+      <c r="D26" s="15"/>
+      <c r="E26" s="15"/>
+      <c r="F26" s="15"/>
+      <c r="G26" s="15"/>
+      <c r="H26" s="15"/>
+      <c r="I26" s="15"/>
+      <c r="J26" s="15"/>
+      <c r="K26" s="15"/>
+      <c r="L26" s="15"/>
+      <c r="M26" s="15"/>
+      <c r="N26" s="15"/>
+      <c r="O26" s="15"/>
+      <c r="P26" s="15"/>
+      <c r="Q26" s="15"/>
+      <c r="R26" s="15"/>
+      <c r="S26" s="15"/>
+      <c r="T26" s="15"/>
+      <c r="U26" s="15"/>
+      <c r="V26" s="15"/>
+      <c r="W26" s="15"/>
+      <c r="X26" s="15"/>
+      <c r="Y26" s="15"/>
+      <c r="Z26" s="15"/>
+      <c r="AA26" s="15"/>
+      <c r="AB26" s="15"/>
+      <c r="AC26" s="15"/>
+      <c r="AD26" s="15"/>
+      <c r="AE26" s="15"/>
+      <c r="AF26" s="15"/>
+      <c r="AG26" s="15"/>
+      <c r="AH26" s="15"/>
+      <c r="AI26" s="15"/>
+      <c r="AJ26" s="15"/>
+      <c r="AK26" s="15"/>
+      <c r="AL26" s="15"/>
+      <c r="AM26" s="15"/>
+      <c r="AN26" s="15"/>
+      <c r="AO26" s="15"/>
+      <c r="AP26" s="15"/>
+      <c r="AQ26" s="15"/>
+      <c r="AR26" s="15"/>
+      <c r="AS26" s="15"/>
+      <c r="AT26" s="15"/>
+      <c r="AU26" s="15"/>
+      <c r="AV26" s="15"/>
+      <c r="AW26" s="15"/>
+      <c r="AX26" s="15"/>
+      <c r="AY26" s="15"/>
+      <c r="AZ26" s="15"/>
+      <c r="BA26" s="15"/>
+      <c r="BB26" s="15"/>
+      <c r="BC26" s="15"/>
+      <c r="BD26" s="16"/>
     </row>
     <row r="27" spans="1:56" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="11" t="s">
+      <c r="A27" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B27" s="12"/>
-      <c r="C27" s="12"/>
-      <c r="D27" s="12"/>
-      <c r="E27" s="12"/>
-      <c r="F27" s="12"/>
-      <c r="G27" s="12"/>
-      <c r="H27" s="12"/>
-      <c r="I27" s="12"/>
-      <c r="J27" s="12"/>
-      <c r="K27" s="12"/>
-      <c r="L27" s="12"/>
-      <c r="M27" s="12"/>
-      <c r="N27" s="12"/>
-      <c r="O27" s="12"/>
-      <c r="P27" s="12"/>
-      <c r="Q27" s="12"/>
-      <c r="R27" s="12"/>
-      <c r="S27" s="12"/>
-      <c r="T27" s="12"/>
-      <c r="U27" s="12"/>
-      <c r="V27" s="12"/>
-      <c r="W27" s="12"/>
-      <c r="X27" s="12"/>
-      <c r="Y27" s="12"/>
-      <c r="Z27" s="12"/>
-      <c r="AA27" s="12"/>
-      <c r="AB27" s="12"/>
-      <c r="AC27" s="12"/>
-      <c r="AD27" s="12"/>
-      <c r="AE27" s="12"/>
-      <c r="AF27" s="12"/>
-      <c r="AG27" s="12"/>
-      <c r="AH27" s="12"/>
-      <c r="AI27" s="12"/>
-      <c r="AJ27" s="12"/>
-      <c r="AK27" s="12"/>
-      <c r="AL27" s="12"/>
-      <c r="AM27" s="12"/>
-      <c r="AN27" s="12"/>
-      <c r="AO27" s="12"/>
-      <c r="AP27" s="12"/>
-      <c r="AQ27" s="12"/>
-      <c r="AR27" s="12"/>
-      <c r="AS27" s="12"/>
-      <c r="AT27" s="12"/>
-      <c r="AU27" s="12"/>
-      <c r="AV27" s="12"/>
-      <c r="AW27" s="12"/>
-      <c r="AX27" s="12"/>
-      <c r="AY27" s="12"/>
-      <c r="AZ27" s="12"/>
-      <c r="BA27" s="12"/>
-      <c r="BB27" s="12"/>
-      <c r="BC27" s="12"/>
-      <c r="BD27" s="13"/>
+      <c r="B27" s="15"/>
+      <c r="C27" s="15"/>
+      <c r="D27" s="15"/>
+      <c r="E27" s="15"/>
+      <c r="F27" s="15"/>
+      <c r="G27" s="15"/>
+      <c r="H27" s="15"/>
+      <c r="I27" s="15"/>
+      <c r="J27" s="15"/>
+      <c r="K27" s="15"/>
+      <c r="L27" s="15"/>
+      <c r="M27" s="15"/>
+      <c r="N27" s="15"/>
+      <c r="O27" s="15"/>
+      <c r="P27" s="15"/>
+      <c r="Q27" s="15"/>
+      <c r="R27" s="15"/>
+      <c r="S27" s="15"/>
+      <c r="T27" s="15"/>
+      <c r="U27" s="15"/>
+      <c r="V27" s="15"/>
+      <c r="W27" s="15"/>
+      <c r="X27" s="15"/>
+      <c r="Y27" s="15"/>
+      <c r="Z27" s="15"/>
+      <c r="AA27" s="15"/>
+      <c r="AB27" s="15"/>
+      <c r="AC27" s="15"/>
+      <c r="AD27" s="15"/>
+      <c r="AE27" s="15"/>
+      <c r="AF27" s="15"/>
+      <c r="AG27" s="15"/>
+      <c r="AH27" s="15"/>
+      <c r="AI27" s="15"/>
+      <c r="AJ27" s="15"/>
+      <c r="AK27" s="15"/>
+      <c r="AL27" s="15"/>
+      <c r="AM27" s="15"/>
+      <c r="AN27" s="15"/>
+      <c r="AO27" s="15"/>
+      <c r="AP27" s="15"/>
+      <c r="AQ27" s="15"/>
+      <c r="AR27" s="15"/>
+      <c r="AS27" s="15"/>
+      <c r="AT27" s="15"/>
+      <c r="AU27" s="15"/>
+      <c r="AV27" s="15"/>
+      <c r="AW27" s="15"/>
+      <c r="AX27" s="15"/>
+      <c r="AY27" s="15"/>
+      <c r="AZ27" s="15"/>
+      <c r="BA27" s="15"/>
+      <c r="BB27" s="15"/>
+      <c r="BC27" s="15"/>
+      <c r="BD27" s="16"/>
     </row>
     <row r="28" spans="1:56" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="5"/>
@@ -3700,394 +3700,394 @@
       <c r="BD48" s="10"/>
     </row>
     <row r="49" spans="1:56" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="23" t="s">
+      <c r="A49" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="B49" s="27"/>
+      <c r="C49" s="27"/>
+      <c r="D49" s="27"/>
+      <c r="E49" s="27"/>
+      <c r="F49" s="27"/>
+      <c r="G49" s="27"/>
+      <c r="H49" s="27"/>
+      <c r="I49" s="27"/>
+      <c r="J49" s="27"/>
+      <c r="K49" s="27"/>
+      <c r="L49" s="27"/>
+      <c r="M49" s="27"/>
+      <c r="N49" s="27"/>
+      <c r="O49" s="27"/>
+      <c r="P49" s="27"/>
+      <c r="Q49" s="27"/>
+      <c r="R49" s="27"/>
+      <c r="S49" s="27"/>
+      <c r="T49" s="27"/>
+      <c r="U49" s="27"/>
+      <c r="V49" s="27"/>
+      <c r="W49" s="27"/>
+      <c r="X49" s="27"/>
+      <c r="Y49" s="27"/>
+      <c r="Z49" s="27"/>
+      <c r="AA49" s="27"/>
+      <c r="AB49" s="28"/>
+      <c r="AC49" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="AD49" s="27"/>
+      <c r="AE49" s="27"/>
+      <c r="AF49" s="27"/>
+      <c r="AG49" s="27"/>
+      <c r="AH49" s="27"/>
+      <c r="AI49" s="27"/>
+      <c r="AJ49" s="27"/>
+      <c r="AK49" s="27"/>
+      <c r="AL49" s="27"/>
+      <c r="AM49" s="27"/>
+      <c r="AN49" s="27"/>
+      <c r="AO49" s="27"/>
+      <c r="AP49" s="27"/>
+      <c r="AQ49" s="27"/>
+      <c r="AR49" s="27"/>
+      <c r="AS49" s="27"/>
+      <c r="AT49" s="27"/>
+      <c r="AU49" s="27"/>
+      <c r="AV49" s="27"/>
+      <c r="AW49" s="27"/>
+      <c r="AX49" s="27"/>
+      <c r="AY49" s="27"/>
+      <c r="AZ49" s="27"/>
+      <c r="BA49" s="27"/>
+      <c r="BB49" s="27"/>
+      <c r="BC49" s="27"/>
+      <c r="BD49" s="28"/>
+    </row>
+    <row r="50" spans="1:56" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="B49" s="24"/>
-      <c r="C49" s="24"/>
-      <c r="D49" s="24"/>
-      <c r="E49" s="24"/>
-      <c r="F49" s="24"/>
-      <c r="G49" s="24"/>
-      <c r="H49" s="24"/>
-      <c r="I49" s="24"/>
-      <c r="J49" s="24"/>
-      <c r="K49" s="24"/>
-      <c r="L49" s="24"/>
-      <c r="M49" s="24"/>
-      <c r="N49" s="24"/>
-      <c r="O49" s="24"/>
-      <c r="P49" s="24"/>
-      <c r="Q49" s="24"/>
-      <c r="R49" s="24"/>
-      <c r="S49" s="24"/>
-      <c r="T49" s="24"/>
-      <c r="U49" s="24"/>
-      <c r="V49" s="24"/>
-      <c r="W49" s="24"/>
-      <c r="X49" s="24"/>
-      <c r="Y49" s="24"/>
-      <c r="Z49" s="24"/>
-      <c r="AA49" s="24"/>
-      <c r="AB49" s="25"/>
-      <c r="AC49" s="23" t="s">
-        <v>6</v>
+      <c r="B50" s="29"/>
+      <c r="C50" s="29"/>
+      <c r="D50" s="29"/>
+      <c r="E50" s="29"/>
+      <c r="F50" s="29"/>
+      <c r="G50" s="29"/>
+      <c r="H50" s="29"/>
+      <c r="I50" s="29"/>
+      <c r="J50" s="29"/>
+      <c r="K50" s="29"/>
+      <c r="L50" s="29"/>
+      <c r="M50" s="29"/>
+      <c r="N50" s="29"/>
+      <c r="O50" s="29"/>
+      <c r="P50" s="29"/>
+      <c r="Q50" s="29"/>
+      <c r="R50" s="29"/>
+      <c r="S50" s="29"/>
+      <c r="T50" s="29"/>
+      <c r="U50" s="29"/>
+      <c r="V50" s="29"/>
+      <c r="W50" s="29"/>
+      <c r="X50" s="29"/>
+      <c r="Y50" s="29"/>
+      <c r="Z50" s="29"/>
+      <c r="AA50" s="29"/>
+      <c r="AB50" s="30"/>
+      <c r="AC50" s="14" t="s">
+        <v>7</v>
       </c>
-      <c r="AD49" s="24"/>
-      <c r="AE49" s="24"/>
-      <c r="AF49" s="24"/>
-      <c r="AG49" s="24"/>
-      <c r="AH49" s="24"/>
-      <c r="AI49" s="24"/>
-      <c r="AJ49" s="24"/>
-      <c r="AK49" s="24"/>
-      <c r="AL49" s="24"/>
-      <c r="AM49" s="24"/>
-      <c r="AN49" s="24"/>
-      <c r="AO49" s="24"/>
-      <c r="AP49" s="24"/>
-      <c r="AQ49" s="24"/>
-      <c r="AR49" s="24"/>
-      <c r="AS49" s="24"/>
-      <c r="AT49" s="24"/>
-      <c r="AU49" s="24"/>
-      <c r="AV49" s="24"/>
-      <c r="AW49" s="24"/>
-      <c r="AX49" s="24"/>
-      <c r="AY49" s="24"/>
-      <c r="AZ49" s="24"/>
-      <c r="BA49" s="24"/>
-      <c r="BB49" s="24"/>
-      <c r="BC49" s="24"/>
-      <c r="BD49" s="25"/>
-    </row>
-    <row r="50" spans="1:56" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="11" t="s">
+      <c r="AD50" s="29"/>
+      <c r="AE50" s="29"/>
+      <c r="AF50" s="29"/>
+      <c r="AG50" s="29"/>
+      <c r="AH50" s="29"/>
+      <c r="AI50" s="29"/>
+      <c r="AJ50" s="29"/>
+      <c r="AK50" s="29"/>
+      <c r="AL50" s="29"/>
+      <c r="AM50" s="29"/>
+      <c r="AN50" s="29"/>
+      <c r="AO50" s="29"/>
+      <c r="AP50" s="29"/>
+      <c r="AQ50" s="29"/>
+      <c r="AR50" s="29"/>
+      <c r="AS50" s="29"/>
+      <c r="AT50" s="29"/>
+      <c r="AU50" s="29"/>
+      <c r="AV50" s="29"/>
+      <c r="AW50" s="29"/>
+      <c r="AX50" s="29"/>
+      <c r="AY50" s="29"/>
+      <c r="AZ50" s="29"/>
+      <c r="BA50" s="29"/>
+      <c r="BB50" s="29"/>
+      <c r="BC50" s="29"/>
+      <c r="BD50" s="30"/>
+    </row>
+    <row r="51" spans="1:56" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="B51" s="29"/>
+      <c r="C51" s="29"/>
+      <c r="D51" s="29"/>
+      <c r="E51" s="29"/>
+      <c r="F51" s="29"/>
+      <c r="G51" s="29"/>
+      <c r="H51" s="29"/>
+      <c r="I51" s="29"/>
+      <c r="J51" s="29"/>
+      <c r="K51" s="29"/>
+      <c r="L51" s="29"/>
+      <c r="M51" s="29"/>
+      <c r="N51" s="29"/>
+      <c r="O51" s="29"/>
+      <c r="P51" s="29"/>
+      <c r="Q51" s="29"/>
+      <c r="R51" s="29"/>
+      <c r="S51" s="29"/>
+      <c r="T51" s="29"/>
+      <c r="U51" s="29"/>
+      <c r="V51" s="29"/>
+      <c r="W51" s="29"/>
+      <c r="X51" s="29"/>
+      <c r="Y51" s="29"/>
+      <c r="Z51" s="29"/>
+      <c r="AA51" s="29"/>
+      <c r="AB51" s="30"/>
+      <c r="AC51" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD51" s="29"/>
+      <c r="AE51" s="29"/>
+      <c r="AF51" s="29"/>
+      <c r="AG51" s="29"/>
+      <c r="AH51" s="29"/>
+      <c r="AI51" s="29"/>
+      <c r="AJ51" s="29"/>
+      <c r="AK51" s="29"/>
+      <c r="AL51" s="29"/>
+      <c r="AM51" s="29"/>
+      <c r="AN51" s="29"/>
+      <c r="AO51" s="29"/>
+      <c r="AP51" s="29"/>
+      <c r="AQ51" s="29"/>
+      <c r="AR51" s="29"/>
+      <c r="AS51" s="29"/>
+      <c r="AT51" s="29"/>
+      <c r="AU51" s="29"/>
+      <c r="AV51" s="29"/>
+      <c r="AW51" s="29"/>
+      <c r="AX51" s="29"/>
+      <c r="AY51" s="29"/>
+      <c r="AZ51" s="29"/>
+      <c r="BA51" s="29"/>
+      <c r="BB51" s="29"/>
+      <c r="BC51" s="29"/>
+      <c r="BD51" s="30"/>
+    </row>
+    <row r="52" spans="1:56" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B50" s="26"/>
-      <c r="C50" s="26"/>
-      <c r="D50" s="26"/>
-      <c r="E50" s="26"/>
-      <c r="F50" s="26"/>
-      <c r="G50" s="26"/>
-      <c r="H50" s="26"/>
-      <c r="I50" s="26"/>
-      <c r="J50" s="26"/>
-      <c r="K50" s="26"/>
-      <c r="L50" s="26"/>
-      <c r="M50" s="26"/>
-      <c r="N50" s="26"/>
-      <c r="O50" s="26"/>
-      <c r="P50" s="26"/>
-      <c r="Q50" s="26"/>
-      <c r="R50" s="26"/>
-      <c r="S50" s="26"/>
-      <c r="T50" s="26"/>
-      <c r="U50" s="26"/>
-      <c r="V50" s="26"/>
-      <c r="W50" s="26"/>
-      <c r="X50" s="26"/>
-      <c r="Y50" s="26"/>
-      <c r="Z50" s="26"/>
-      <c r="AA50" s="26"/>
-      <c r="AB50" s="27"/>
-      <c r="AC50" s="11" t="s">
-        <v>7</v>
+      <c r="B52" s="12"/>
+      <c r="C52" s="12"/>
+      <c r="D52" s="12"/>
+      <c r="E52" s="12"/>
+      <c r="F52" s="12"/>
+      <c r="G52" s="12"/>
+      <c r="H52" s="12"/>
+      <c r="I52" s="12"/>
+      <c r="J52" s="12"/>
+      <c r="K52" s="12"/>
+      <c r="L52" s="12"/>
+      <c r="M52" s="12"/>
+      <c r="N52" s="12"/>
+      <c r="O52" s="12"/>
+      <c r="P52" s="12"/>
+      <c r="Q52" s="12"/>
+      <c r="R52" s="12"/>
+      <c r="S52" s="12"/>
+      <c r="T52" s="12"/>
+      <c r="U52" s="12"/>
+      <c r="V52" s="12"/>
+      <c r="W52" s="12"/>
+      <c r="X52" s="12"/>
+      <c r="Y52" s="12"/>
+      <c r="Z52" s="12"/>
+      <c r="AA52" s="12"/>
+      <c r="AB52" s="13"/>
+      <c r="AC52" s="31" t="s">
+        <v>12</v>
       </c>
-      <c r="AD50" s="26"/>
-      <c r="AE50" s="26"/>
-      <c r="AF50" s="26"/>
-      <c r="AG50" s="26"/>
-      <c r="AH50" s="26"/>
-      <c r="AI50" s="26"/>
-      <c r="AJ50" s="26"/>
-      <c r="AK50" s="26"/>
-      <c r="AL50" s="26"/>
-      <c r="AM50" s="26"/>
-      <c r="AN50" s="26"/>
-      <c r="AO50" s="26"/>
-      <c r="AP50" s="26"/>
-      <c r="AQ50" s="26"/>
-      <c r="AR50" s="26"/>
-      <c r="AS50" s="26"/>
-      <c r="AT50" s="26"/>
-      <c r="AU50" s="26"/>
-      <c r="AV50" s="26"/>
-      <c r="AW50" s="26"/>
-      <c r="AX50" s="26"/>
-      <c r="AY50" s="26"/>
-      <c r="AZ50" s="26"/>
-      <c r="BA50" s="26"/>
-      <c r="BB50" s="26"/>
-      <c r="BC50" s="26"/>
-      <c r="BD50" s="27"/>
-    </row>
-    <row r="51" spans="1:56" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="B51" s="26"/>
-      <c r="C51" s="26"/>
-      <c r="D51" s="26"/>
-      <c r="E51" s="26"/>
-      <c r="F51" s="26"/>
-      <c r="G51" s="26"/>
-      <c r="H51" s="26"/>
-      <c r="I51" s="26"/>
-      <c r="J51" s="26"/>
-      <c r="K51" s="26"/>
-      <c r="L51" s="26"/>
-      <c r="M51" s="26"/>
-      <c r="N51" s="26"/>
-      <c r="O51" s="26"/>
-      <c r="P51" s="26"/>
-      <c r="Q51" s="26"/>
-      <c r="R51" s="26"/>
-      <c r="S51" s="26"/>
-      <c r="T51" s="26"/>
-      <c r="U51" s="26"/>
-      <c r="V51" s="26"/>
-      <c r="W51" s="26"/>
-      <c r="X51" s="26"/>
-      <c r="Y51" s="26"/>
-      <c r="Z51" s="26"/>
-      <c r="AA51" s="26"/>
-      <c r="AB51" s="27"/>
-      <c r="AC51" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="AD51" s="26"/>
-      <c r="AE51" s="26"/>
-      <c r="AF51" s="26"/>
-      <c r="AG51" s="26"/>
-      <c r="AH51" s="26"/>
-      <c r="AI51" s="26"/>
-      <c r="AJ51" s="26"/>
-      <c r="AK51" s="26"/>
-      <c r="AL51" s="26"/>
-      <c r="AM51" s="26"/>
-      <c r="AN51" s="26"/>
-      <c r="AO51" s="26"/>
-      <c r="AP51" s="26"/>
-      <c r="AQ51" s="26"/>
-      <c r="AR51" s="26"/>
-      <c r="AS51" s="26"/>
-      <c r="AT51" s="26"/>
-      <c r="AU51" s="26"/>
-      <c r="AV51" s="26"/>
-      <c r="AW51" s="26"/>
-      <c r="AX51" s="26"/>
-      <c r="AY51" s="26"/>
-      <c r="AZ51" s="26"/>
-      <c r="BA51" s="26"/>
-      <c r="BB51" s="26"/>
-      <c r="BC51" s="26"/>
-      <c r="BD51" s="27"/>
-    </row>
-    <row r="52" spans="1:56" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="31" t="s">
-        <v>16</v>
-      </c>
-      <c r="B52" s="29"/>
-      <c r="C52" s="29"/>
-      <c r="D52" s="29"/>
-      <c r="E52" s="29"/>
-      <c r="F52" s="29"/>
-      <c r="G52" s="29"/>
-      <c r="H52" s="29"/>
-      <c r="I52" s="29"/>
-      <c r="J52" s="29"/>
-      <c r="K52" s="29"/>
-      <c r="L52" s="29"/>
-      <c r="M52" s="29"/>
-      <c r="N52" s="29"/>
-      <c r="O52" s="29"/>
-      <c r="P52" s="29"/>
-      <c r="Q52" s="29"/>
-      <c r="R52" s="29"/>
-      <c r="S52" s="29"/>
-      <c r="T52" s="29"/>
-      <c r="U52" s="29"/>
-      <c r="V52" s="29"/>
-      <c r="W52" s="29"/>
-      <c r="X52" s="29"/>
-      <c r="Y52" s="29"/>
-      <c r="Z52" s="29"/>
-      <c r="AA52" s="29"/>
-      <c r="AB52" s="30"/>
-      <c r="AC52" s="28" t="s">
-        <v>13</v>
-      </c>
-      <c r="AD52" s="29"/>
-      <c r="AE52" s="29"/>
-      <c r="AF52" s="29"/>
-      <c r="AG52" s="29"/>
-      <c r="AH52" s="29"/>
-      <c r="AI52" s="29"/>
-      <c r="AJ52" s="29"/>
-      <c r="AK52" s="29"/>
-      <c r="AL52" s="29"/>
-      <c r="AM52" s="29"/>
-      <c r="AN52" s="29"/>
-      <c r="AO52" s="29"/>
-      <c r="AP52" s="29"/>
-      <c r="AQ52" s="29"/>
-      <c r="AR52" s="29"/>
-      <c r="AS52" s="29"/>
-      <c r="AT52" s="29"/>
-      <c r="AU52" s="29"/>
-      <c r="AV52" s="29"/>
-      <c r="AW52" s="29"/>
-      <c r="AX52" s="29"/>
-      <c r="AY52" s="29"/>
-      <c r="AZ52" s="29"/>
-      <c r="BA52" s="29"/>
-      <c r="BB52" s="29"/>
-      <c r="BC52" s="29"/>
-      <c r="BD52" s="30"/>
+      <c r="AD52" s="12"/>
+      <c r="AE52" s="12"/>
+      <c r="AF52" s="12"/>
+      <c r="AG52" s="12"/>
+      <c r="AH52" s="12"/>
+      <c r="AI52" s="12"/>
+      <c r="AJ52" s="12"/>
+      <c r="AK52" s="12"/>
+      <c r="AL52" s="12"/>
+      <c r="AM52" s="12"/>
+      <c r="AN52" s="12"/>
+      <c r="AO52" s="12"/>
+      <c r="AP52" s="12"/>
+      <c r="AQ52" s="12"/>
+      <c r="AR52" s="12"/>
+      <c r="AS52" s="12"/>
+      <c r="AT52" s="12"/>
+      <c r="AU52" s="12"/>
+      <c r="AV52" s="12"/>
+      <c r="AW52" s="12"/>
+      <c r="AX52" s="12"/>
+      <c r="AY52" s="12"/>
+      <c r="AZ52" s="12"/>
+      <c r="BA52" s="12"/>
+      <c r="BB52" s="12"/>
+      <c r="BC52" s="12"/>
+      <c r="BD52" s="13"/>
     </row>
     <row r="53" spans="1:56" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="17" t="s">
+      <c r="A53" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="B53" s="18"/>
-      <c r="C53" s="18"/>
-      <c r="D53" s="18"/>
-      <c r="E53" s="18"/>
-      <c r="F53" s="18"/>
-      <c r="G53" s="18"/>
-      <c r="H53" s="18"/>
-      <c r="I53" s="18"/>
-      <c r="J53" s="18"/>
-      <c r="K53" s="18"/>
-      <c r="L53" s="18"/>
-      <c r="M53" s="18"/>
-      <c r="N53" s="18"/>
-      <c r="O53" s="18"/>
-      <c r="P53" s="18"/>
-      <c r="Q53" s="18"/>
-      <c r="R53" s="18"/>
-      <c r="S53" s="18"/>
-      <c r="T53" s="18"/>
-      <c r="U53" s="18"/>
-      <c r="V53" s="18"/>
-      <c r="W53" s="18"/>
-      <c r="X53" s="18"/>
-      <c r="Y53" s="18"/>
-      <c r="Z53" s="18"/>
-      <c r="AA53" s="18"/>
-      <c r="AB53" s="18"/>
-      <c r="AC53" s="18"/>
-      <c r="AD53" s="18"/>
-      <c r="AE53" s="18"/>
-      <c r="AF53" s="18"/>
-      <c r="AG53" s="18"/>
-      <c r="AH53" s="18"/>
-      <c r="AI53" s="18"/>
-      <c r="AJ53" s="18"/>
-      <c r="AK53" s="18"/>
-      <c r="AL53" s="18"/>
-      <c r="AM53" s="18"/>
-      <c r="AN53" s="18"/>
-      <c r="AO53" s="18"/>
-      <c r="AP53" s="18"/>
-      <c r="AQ53" s="18"/>
-      <c r="AR53" s="18"/>
-      <c r="AS53" s="18"/>
-      <c r="AT53" s="18"/>
-      <c r="AU53" s="18"/>
-      <c r="AV53" s="18"/>
-      <c r="AW53" s="18"/>
-      <c r="AX53" s="18"/>
-      <c r="AY53" s="18"/>
-      <c r="AZ53" s="18"/>
-      <c r="BA53" s="18"/>
-      <c r="BB53" s="18"/>
-      <c r="BC53" s="18"/>
-      <c r="BD53" s="19"/>
+      <c r="B53" s="21"/>
+      <c r="C53" s="21"/>
+      <c r="D53" s="21"/>
+      <c r="E53" s="21"/>
+      <c r="F53" s="21"/>
+      <c r="G53" s="21"/>
+      <c r="H53" s="21"/>
+      <c r="I53" s="21"/>
+      <c r="J53" s="21"/>
+      <c r="K53" s="21"/>
+      <c r="L53" s="21"/>
+      <c r="M53" s="21"/>
+      <c r="N53" s="21"/>
+      <c r="O53" s="21"/>
+      <c r="P53" s="21"/>
+      <c r="Q53" s="21"/>
+      <c r="R53" s="21"/>
+      <c r="S53" s="21"/>
+      <c r="T53" s="21"/>
+      <c r="U53" s="21"/>
+      <c r="V53" s="21"/>
+      <c r="W53" s="21"/>
+      <c r="X53" s="21"/>
+      <c r="Y53" s="21"/>
+      <c r="Z53" s="21"/>
+      <c r="AA53" s="21"/>
+      <c r="AB53" s="21"/>
+      <c r="AC53" s="21"/>
+      <c r="AD53" s="21"/>
+      <c r="AE53" s="21"/>
+      <c r="AF53" s="21"/>
+      <c r="AG53" s="21"/>
+      <c r="AH53" s="21"/>
+      <c r="AI53" s="21"/>
+      <c r="AJ53" s="21"/>
+      <c r="AK53" s="21"/>
+      <c r="AL53" s="21"/>
+      <c r="AM53" s="21"/>
+      <c r="AN53" s="21"/>
+      <c r="AO53" s="21"/>
+      <c r="AP53" s="21"/>
+      <c r="AQ53" s="21"/>
+      <c r="AR53" s="21"/>
+      <c r="AS53" s="21"/>
+      <c r="AT53" s="21"/>
+      <c r="AU53" s="21"/>
+      <c r="AV53" s="21"/>
+      <c r="AW53" s="21"/>
+      <c r="AX53" s="21"/>
+      <c r="AY53" s="21"/>
+      <c r="AZ53" s="21"/>
+      <c r="BA53" s="21"/>
+      <c r="BB53" s="21"/>
+      <c r="BC53" s="21"/>
+      <c r="BD53" s="22"/>
     </row>
     <row r="54" spans="1:56" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="20" t="s">
+      <c r="A54" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="B54" s="21"/>
-      <c r="C54" s="21"/>
-      <c r="D54" s="21"/>
-      <c r="E54" s="21"/>
-      <c r="F54" s="21"/>
-      <c r="G54" s="21"/>
-      <c r="H54" s="21"/>
-      <c r="I54" s="21"/>
-      <c r="J54" s="21"/>
-      <c r="K54" s="21"/>
-      <c r="L54" s="21"/>
-      <c r="M54" s="21"/>
-      <c r="N54" s="21"/>
-      <c r="O54" s="21"/>
-      <c r="P54" s="21"/>
-      <c r="Q54" s="21"/>
-      <c r="R54" s="21"/>
-      <c r="S54" s="21"/>
-      <c r="T54" s="21"/>
-      <c r="U54" s="21"/>
-      <c r="V54" s="21"/>
-      <c r="W54" s="21"/>
-      <c r="X54" s="21"/>
-      <c r="Y54" s="21"/>
-      <c r="Z54" s="21"/>
-      <c r="AA54" s="21"/>
-      <c r="AB54" s="21"/>
-      <c r="AC54" s="21" t="s">
+      <c r="B54" s="24"/>
+      <c r="C54" s="24"/>
+      <c r="D54" s="24"/>
+      <c r="E54" s="24"/>
+      <c r="F54" s="24"/>
+      <c r="G54" s="24"/>
+      <c r="H54" s="24"/>
+      <c r="I54" s="24"/>
+      <c r="J54" s="24"/>
+      <c r="K54" s="24"/>
+      <c r="L54" s="24"/>
+      <c r="M54" s="24"/>
+      <c r="N54" s="24"/>
+      <c r="O54" s="24"/>
+      <c r="P54" s="24"/>
+      <c r="Q54" s="24"/>
+      <c r="R54" s="24"/>
+      <c r="S54" s="24"/>
+      <c r="T54" s="24"/>
+      <c r="U54" s="24"/>
+      <c r="V54" s="24"/>
+      <c r="W54" s="24"/>
+      <c r="X54" s="24"/>
+      <c r="Y54" s="24"/>
+      <c r="Z54" s="24"/>
+      <c r="AA54" s="24"/>
+      <c r="AB54" s="24"/>
+      <c r="AC54" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="AD54" s="21"/>
-      <c r="AE54" s="21"/>
-      <c r="AF54" s="21"/>
-      <c r="AG54" s="21"/>
-      <c r="AH54" s="21"/>
-      <c r="AI54" s="21"/>
-      <c r="AJ54" s="21"/>
-      <c r="AK54" s="21"/>
-      <c r="AL54" s="21"/>
-      <c r="AM54" s="21"/>
-      <c r="AN54" s="21"/>
-      <c r="AO54" s="21"/>
-      <c r="AP54" s="21"/>
-      <c r="AQ54" s="21"/>
-      <c r="AR54" s="21"/>
-      <c r="AS54" s="21"/>
-      <c r="AT54" s="21"/>
-      <c r="AU54" s="21"/>
-      <c r="AV54" s="21"/>
-      <c r="AW54" s="21"/>
-      <c r="AX54" s="21"/>
-      <c r="AY54" s="21"/>
-      <c r="AZ54" s="21"/>
-      <c r="BA54" s="21"/>
-      <c r="BB54" s="21"/>
-      <c r="BC54" s="21"/>
-      <c r="BD54" s="22"/>
+      <c r="AD54" s="24"/>
+      <c r="AE54" s="24"/>
+      <c r="AF54" s="24"/>
+      <c r="AG54" s="24"/>
+      <c r="AH54" s="24"/>
+      <c r="AI54" s="24"/>
+      <c r="AJ54" s="24"/>
+      <c r="AK54" s="24"/>
+      <c r="AL54" s="24"/>
+      <c r="AM54" s="24"/>
+      <c r="AN54" s="24"/>
+      <c r="AO54" s="24"/>
+      <c r="AP54" s="24"/>
+      <c r="AQ54" s="24"/>
+      <c r="AR54" s="24"/>
+      <c r="AS54" s="24"/>
+      <c r="AT54" s="24"/>
+      <c r="AU54" s="24"/>
+      <c r="AV54" s="24"/>
+      <c r="AW54" s="24"/>
+      <c r="AX54" s="24"/>
+      <c r="AY54" s="24"/>
+      <c r="AZ54" s="24"/>
+      <c r="BA54" s="24"/>
+      <c r="BB54" s="24"/>
+      <c r="BC54" s="24"/>
+      <c r="BD54" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A52:AB52"/>
-    <mergeCell ref="A26:BD26"/>
-    <mergeCell ref="A27:BD27"/>
-    <mergeCell ref="A1:BD1"/>
-    <mergeCell ref="A53:BD53"/>
     <mergeCell ref="A54:AB54"/>
     <mergeCell ref="AC54:BD54"/>
     <mergeCell ref="AC49:BD49"/>
     <mergeCell ref="AC50:BD50"/>
     <mergeCell ref="AC51:BD51"/>
     <mergeCell ref="AC52:BD52"/>
+    <mergeCell ref="A49:AB49"/>
+    <mergeCell ref="A50:AB50"/>
+    <mergeCell ref="A51:AB51"/>
+    <mergeCell ref="A52:AB52"/>
+    <mergeCell ref="A26:BD26"/>
+    <mergeCell ref="A27:BD27"/>
+    <mergeCell ref="A1:BD1"/>
+    <mergeCell ref="A53:BD53"/>
     <mergeCell ref="A25:BD25"/>
     <mergeCell ref="A2:BD2"/>
     <mergeCell ref="A3:BD3"/>
-    <mergeCell ref="A49:AB49"/>
-    <mergeCell ref="A50:AB50"/>
-    <mergeCell ref="A51:AB51"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Quest.xlsx
+++ b/Quest.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/aff98139d4bac41f/文件/DL/dragalia-data-track/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="24" documentId="8_{5481D2AA-BE39-4D5C-836A-7D24C3EF9124}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{B913FA1B-3449-4C4A-87B8-2F858C05E19F}"/>
+  <xr:revisionPtr revIDLastSave="39" documentId="8_{5481D2AA-BE39-4D5C-836A-7D24C3EF9124}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{15851184-AA55-43E4-B3F4-0AC8A42B2272}"/>
   <bookViews>
-    <workbookView xWindow="31740" yWindow="1680" windowWidth="23040" windowHeight="13140" xr2:uid="{5ACD922F-E2B9-468A-8DAF-19A1C97D580A}"/>
+    <workbookView xWindow="33795" yWindow="2010" windowWidth="20190" windowHeight="13560" xr2:uid="{5ACD922F-E2B9-468A-8DAF-19A1C97D580A}"/>
   </bookViews>
   <sheets>
     <sheet name="Agito A&amp;O" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>- SS 皇女可換庫豹，用皇女的開場要吃衝，庫豹不用</t>
   </si>
@@ -83,6 +83,9 @@
     <t xml:space="preserve">   S1上燒 &gt; S4 &gt; S2 (結束)</t>
   </si>
   <si>
+    <t>更多相關資訊 / Q&amp;A / 其他共鬥組合:  http://rnnx.cc/gNXCr</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="18"/>
@@ -101,7 +104,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> Oasis of the Maniacs - 2020/06/26 2:04 PM CDT</t>
+      <t xml:space="preserve"> Oasis of the Maniacs - 2020/06/26 2:51 PM CDT</t>
     </r>
   </si>
 </sst>
@@ -308,6 +311,33 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -316,7 +346,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -342,33 +372,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -491,56 +494,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>188278</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="Picture 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E80622C-3C9A-4144-B231-3D3A251B9DBE}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="4572000"/>
-          <a:ext cx="5331778" cy="3657600"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
       <xdr:col>28</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>28</xdr:row>
@@ -566,6 +519,56 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5334000" y="5343525"/>
+          <a:ext cx="5331778" cy="3657600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>188278</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Picture 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2132969B-6402-4539-BDB3-EDF36C796D8A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
@@ -579,7 +582,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5334000" y="5343525"/>
+          <a:off x="0" y="5343525"/>
           <a:ext cx="5331778" cy="3657600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -894,8 +897,8 @@
   </sheetPr>
   <dimension ref="A1:BD54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection sqref="A1:BD54"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:BD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.85546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -904,184 +907,184 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:56" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
-        <v>16</v>
+      <c r="A1" s="26" t="s">
+        <v>17</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
-      <c r="L1" s="18"/>
-      <c r="M1" s="18"/>
-      <c r="N1" s="18"/>
-      <c r="O1" s="18"/>
-      <c r="P1" s="18"/>
-      <c r="Q1" s="18"/>
-      <c r="R1" s="18"/>
-      <c r="S1" s="18"/>
-      <c r="T1" s="18"/>
-      <c r="U1" s="18"/>
-      <c r="V1" s="18"/>
-      <c r="W1" s="18"/>
-      <c r="X1" s="18"/>
-      <c r="Y1" s="18"/>
-      <c r="Z1" s="18"/>
-      <c r="AA1" s="18"/>
-      <c r="AB1" s="18"/>
-      <c r="AC1" s="18"/>
-      <c r="AD1" s="18"/>
-      <c r="AE1" s="18"/>
-      <c r="AF1" s="18"/>
-      <c r="AG1" s="18"/>
-      <c r="AH1" s="18"/>
-      <c r="AI1" s="18"/>
-      <c r="AJ1" s="18"/>
-      <c r="AK1" s="18"/>
-      <c r="AL1" s="18"/>
-      <c r="AM1" s="18"/>
-      <c r="AN1" s="18"/>
-      <c r="AO1" s="18"/>
-      <c r="AP1" s="18"/>
-      <c r="AQ1" s="18"/>
-      <c r="AR1" s="18"/>
-      <c r="AS1" s="18"/>
-      <c r="AT1" s="18"/>
-      <c r="AU1" s="18"/>
-      <c r="AV1" s="18"/>
-      <c r="AW1" s="18"/>
-      <c r="AX1" s="18"/>
-      <c r="AY1" s="18"/>
-      <c r="AZ1" s="18"/>
-      <c r="BA1" s="18"/>
-      <c r="BB1" s="18"/>
-      <c r="BC1" s="18"/>
-      <c r="BD1" s="19"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
+      <c r="L1" s="27"/>
+      <c r="M1" s="27"/>
+      <c r="N1" s="27"/>
+      <c r="O1" s="27"/>
+      <c r="P1" s="27"/>
+      <c r="Q1" s="27"/>
+      <c r="R1" s="27"/>
+      <c r="S1" s="27"/>
+      <c r="T1" s="27"/>
+      <c r="U1" s="27"/>
+      <c r="V1" s="27"/>
+      <c r="W1" s="27"/>
+      <c r="X1" s="27"/>
+      <c r="Y1" s="27"/>
+      <c r="Z1" s="27"/>
+      <c r="AA1" s="27"/>
+      <c r="AB1" s="27"/>
+      <c r="AC1" s="27"/>
+      <c r="AD1" s="27"/>
+      <c r="AE1" s="27"/>
+      <c r="AF1" s="27"/>
+      <c r="AG1" s="27"/>
+      <c r="AH1" s="27"/>
+      <c r="AI1" s="27"/>
+      <c r="AJ1" s="27"/>
+      <c r="AK1" s="27"/>
+      <c r="AL1" s="27"/>
+      <c r="AM1" s="27"/>
+      <c r="AN1" s="27"/>
+      <c r="AO1" s="27"/>
+      <c r="AP1" s="27"/>
+      <c r="AQ1" s="27"/>
+      <c r="AR1" s="27"/>
+      <c r="AS1" s="27"/>
+      <c r="AT1" s="27"/>
+      <c r="AU1" s="27"/>
+      <c r="AV1" s="27"/>
+      <c r="AW1" s="27"/>
+      <c r="AX1" s="27"/>
+      <c r="AY1" s="27"/>
+      <c r="AZ1" s="27"/>
+      <c r="BA1" s="27"/>
+      <c r="BB1" s="27"/>
+      <c r="BC1" s="27"/>
+      <c r="BD1" s="28"/>
     </row>
     <row r="2" spans="1:56" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="21"/>
-      <c r="K2" s="21"/>
-      <c r="L2" s="21"/>
-      <c r="M2" s="21"/>
-      <c r="N2" s="21"/>
-      <c r="O2" s="21"/>
-      <c r="P2" s="21"/>
-      <c r="Q2" s="21"/>
-      <c r="R2" s="21"/>
-      <c r="S2" s="21"/>
-      <c r="T2" s="21"/>
-      <c r="U2" s="21"/>
-      <c r="V2" s="21"/>
-      <c r="W2" s="21"/>
-      <c r="X2" s="21"/>
-      <c r="Y2" s="21"/>
-      <c r="Z2" s="21"/>
-      <c r="AA2" s="21"/>
-      <c r="AB2" s="21"/>
-      <c r="AC2" s="21"/>
-      <c r="AD2" s="21"/>
-      <c r="AE2" s="21"/>
-      <c r="AF2" s="21"/>
-      <c r="AG2" s="21"/>
-      <c r="AH2" s="21"/>
-      <c r="AI2" s="21"/>
-      <c r="AJ2" s="21"/>
-      <c r="AK2" s="21"/>
-      <c r="AL2" s="21"/>
-      <c r="AM2" s="21"/>
-      <c r="AN2" s="21"/>
-      <c r="AO2" s="21"/>
-      <c r="AP2" s="21"/>
-      <c r="AQ2" s="21"/>
-      <c r="AR2" s="21"/>
-      <c r="AS2" s="21"/>
-      <c r="AT2" s="21"/>
-      <c r="AU2" s="21"/>
-      <c r="AV2" s="21"/>
-      <c r="AW2" s="21"/>
-      <c r="AX2" s="21"/>
-      <c r="AY2" s="21"/>
-      <c r="AZ2" s="21"/>
-      <c r="BA2" s="21"/>
-      <c r="BB2" s="21"/>
-      <c r="BC2" s="21"/>
-      <c r="BD2" s="22"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="30"/>
+      <c r="L2" s="30"/>
+      <c r="M2" s="30"/>
+      <c r="N2" s="30"/>
+      <c r="O2" s="30"/>
+      <c r="P2" s="30"/>
+      <c r="Q2" s="30"/>
+      <c r="R2" s="30"/>
+      <c r="S2" s="30"/>
+      <c r="T2" s="30"/>
+      <c r="U2" s="30"/>
+      <c r="V2" s="30"/>
+      <c r="W2" s="30"/>
+      <c r="X2" s="30"/>
+      <c r="Y2" s="30"/>
+      <c r="Z2" s="30"/>
+      <c r="AA2" s="30"/>
+      <c r="AB2" s="30"/>
+      <c r="AC2" s="30"/>
+      <c r="AD2" s="30"/>
+      <c r="AE2" s="30"/>
+      <c r="AF2" s="30"/>
+      <c r="AG2" s="30"/>
+      <c r="AH2" s="30"/>
+      <c r="AI2" s="30"/>
+      <c r="AJ2" s="30"/>
+      <c r="AK2" s="30"/>
+      <c r="AL2" s="30"/>
+      <c r="AM2" s="30"/>
+      <c r="AN2" s="30"/>
+      <c r="AO2" s="30"/>
+      <c r="AP2" s="30"/>
+      <c r="AQ2" s="30"/>
+      <c r="AR2" s="30"/>
+      <c r="AS2" s="30"/>
+      <c r="AT2" s="30"/>
+      <c r="AU2" s="30"/>
+      <c r="AV2" s="30"/>
+      <c r="AW2" s="30"/>
+      <c r="AX2" s="30"/>
+      <c r="AY2" s="30"/>
+      <c r="AZ2" s="30"/>
+      <c r="BA2" s="30"/>
+      <c r="BB2" s="30"/>
+      <c r="BC2" s="30"/>
+      <c r="BD2" s="31"/>
     </row>
     <row r="3" spans="1:56" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="29"/>
-      <c r="H3" s="29"/>
-      <c r="I3" s="29"/>
-      <c r="J3" s="29"/>
-      <c r="K3" s="29"/>
-      <c r="L3" s="29"/>
-      <c r="M3" s="29"/>
-      <c r="N3" s="29"/>
-      <c r="O3" s="29"/>
-      <c r="P3" s="29"/>
-      <c r="Q3" s="29"/>
-      <c r="R3" s="29"/>
-      <c r="S3" s="29"/>
-      <c r="T3" s="29"/>
-      <c r="U3" s="29"/>
-      <c r="V3" s="29"/>
-      <c r="W3" s="29"/>
-      <c r="X3" s="29"/>
-      <c r="Y3" s="29"/>
-      <c r="Z3" s="29"/>
-      <c r="AA3" s="29"/>
-      <c r="AB3" s="29"/>
-      <c r="AC3" s="29"/>
-      <c r="AD3" s="29"/>
-      <c r="AE3" s="29"/>
-      <c r="AF3" s="29"/>
-      <c r="AG3" s="29"/>
-      <c r="AH3" s="29"/>
-      <c r="AI3" s="29"/>
-      <c r="AJ3" s="29"/>
-      <c r="AK3" s="29"/>
-      <c r="AL3" s="29"/>
-      <c r="AM3" s="29"/>
-      <c r="AN3" s="29"/>
-      <c r="AO3" s="29"/>
-      <c r="AP3" s="29"/>
-      <c r="AQ3" s="29"/>
-      <c r="AR3" s="29"/>
-      <c r="AS3" s="29"/>
-      <c r="AT3" s="29"/>
-      <c r="AU3" s="29"/>
-      <c r="AV3" s="29"/>
-      <c r="AW3" s="29"/>
-      <c r="AX3" s="29"/>
-      <c r="AY3" s="29"/>
-      <c r="AZ3" s="29"/>
-      <c r="BA3" s="29"/>
-      <c r="BB3" s="29"/>
-      <c r="BC3" s="29"/>
-      <c r="BD3" s="30"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="18"/>
+      <c r="L3" s="18"/>
+      <c r="M3" s="18"/>
+      <c r="N3" s="18"/>
+      <c r="O3" s="18"/>
+      <c r="P3" s="18"/>
+      <c r="Q3" s="18"/>
+      <c r="R3" s="18"/>
+      <c r="S3" s="18"/>
+      <c r="T3" s="18"/>
+      <c r="U3" s="18"/>
+      <c r="V3" s="18"/>
+      <c r="W3" s="18"/>
+      <c r="X3" s="18"/>
+      <c r="Y3" s="18"/>
+      <c r="Z3" s="18"/>
+      <c r="AA3" s="18"/>
+      <c r="AB3" s="18"/>
+      <c r="AC3" s="18"/>
+      <c r="AD3" s="18"/>
+      <c r="AE3" s="18"/>
+      <c r="AF3" s="18"/>
+      <c r="AG3" s="18"/>
+      <c r="AH3" s="18"/>
+      <c r="AI3" s="18"/>
+      <c r="AJ3" s="18"/>
+      <c r="AK3" s="18"/>
+      <c r="AL3" s="18"/>
+      <c r="AM3" s="18"/>
+      <c r="AN3" s="18"/>
+      <c r="AO3" s="18"/>
+      <c r="AP3" s="18"/>
+      <c r="AQ3" s="18"/>
+      <c r="AR3" s="18"/>
+      <c r="AS3" s="18"/>
+      <c r="AT3" s="18"/>
+      <c r="AU3" s="18"/>
+      <c r="AV3" s="18"/>
+      <c r="AW3" s="18"/>
+      <c r="AX3" s="18"/>
+      <c r="AY3" s="18"/>
+      <c r="AZ3" s="18"/>
+      <c r="BA3" s="18"/>
+      <c r="BB3" s="18"/>
+      <c r="BC3" s="18"/>
+      <c r="BD3" s="19"/>
     </row>
     <row r="4" spans="1:56" ht="8.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5"/>
@@ -2302,184 +2305,184 @@
       <c r="BD24" s="4"/>
     </row>
     <row r="25" spans="1:56" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="26" t="s">
+      <c r="A25" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B25" s="27"/>
-      <c r="C25" s="27"/>
-      <c r="D25" s="27"/>
-      <c r="E25" s="27"/>
-      <c r="F25" s="27"/>
-      <c r="G25" s="27"/>
-      <c r="H25" s="27"/>
-      <c r="I25" s="27"/>
-      <c r="J25" s="27"/>
-      <c r="K25" s="27"/>
-      <c r="L25" s="27"/>
-      <c r="M25" s="27"/>
-      <c r="N25" s="27"/>
-      <c r="O25" s="27"/>
-      <c r="P25" s="27"/>
-      <c r="Q25" s="27"/>
-      <c r="R25" s="27"/>
-      <c r="S25" s="27"/>
-      <c r="T25" s="27"/>
-      <c r="U25" s="27"/>
-      <c r="V25" s="27"/>
-      <c r="W25" s="27"/>
-      <c r="X25" s="27"/>
-      <c r="Y25" s="27"/>
-      <c r="Z25" s="27"/>
-      <c r="AA25" s="27"/>
-      <c r="AB25" s="27"/>
-      <c r="AC25" s="27"/>
-      <c r="AD25" s="27"/>
-      <c r="AE25" s="27"/>
-      <c r="AF25" s="27"/>
-      <c r="AG25" s="27"/>
-      <c r="AH25" s="27"/>
-      <c r="AI25" s="27"/>
-      <c r="AJ25" s="27"/>
-      <c r="AK25" s="27"/>
-      <c r="AL25" s="27"/>
-      <c r="AM25" s="27"/>
-      <c r="AN25" s="27"/>
-      <c r="AO25" s="27"/>
-      <c r="AP25" s="27"/>
-      <c r="AQ25" s="27"/>
-      <c r="AR25" s="27"/>
-      <c r="AS25" s="27"/>
-      <c r="AT25" s="27"/>
-      <c r="AU25" s="27"/>
-      <c r="AV25" s="27"/>
-      <c r="AW25" s="27"/>
-      <c r="AX25" s="27"/>
-      <c r="AY25" s="27"/>
-      <c r="AZ25" s="27"/>
-      <c r="BA25" s="27"/>
-      <c r="BB25" s="27"/>
-      <c r="BC25" s="27"/>
-      <c r="BD25" s="28"/>
+      <c r="B25" s="15"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="15"/>
+      <c r="H25" s="15"/>
+      <c r="I25" s="15"/>
+      <c r="J25" s="15"/>
+      <c r="K25" s="15"/>
+      <c r="L25" s="15"/>
+      <c r="M25" s="15"/>
+      <c r="N25" s="15"/>
+      <c r="O25" s="15"/>
+      <c r="P25" s="15"/>
+      <c r="Q25" s="15"/>
+      <c r="R25" s="15"/>
+      <c r="S25" s="15"/>
+      <c r="T25" s="15"/>
+      <c r="U25" s="15"/>
+      <c r="V25" s="15"/>
+      <c r="W25" s="15"/>
+      <c r="X25" s="15"/>
+      <c r="Y25" s="15"/>
+      <c r="Z25" s="15"/>
+      <c r="AA25" s="15"/>
+      <c r="AB25" s="15"/>
+      <c r="AC25" s="15"/>
+      <c r="AD25" s="15"/>
+      <c r="AE25" s="15"/>
+      <c r="AF25" s="15"/>
+      <c r="AG25" s="15"/>
+      <c r="AH25" s="15"/>
+      <c r="AI25" s="15"/>
+      <c r="AJ25" s="15"/>
+      <c r="AK25" s="15"/>
+      <c r="AL25" s="15"/>
+      <c r="AM25" s="15"/>
+      <c r="AN25" s="15"/>
+      <c r="AO25" s="15"/>
+      <c r="AP25" s="15"/>
+      <c r="AQ25" s="15"/>
+      <c r="AR25" s="15"/>
+      <c r="AS25" s="15"/>
+      <c r="AT25" s="15"/>
+      <c r="AU25" s="15"/>
+      <c r="AV25" s="15"/>
+      <c r="AW25" s="15"/>
+      <c r="AX25" s="15"/>
+      <c r="AY25" s="15"/>
+      <c r="AZ25" s="15"/>
+      <c r="BA25" s="15"/>
+      <c r="BB25" s="15"/>
+      <c r="BC25" s="15"/>
+      <c r="BD25" s="16"/>
     </row>
     <row r="26" spans="1:56" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="14" t="s">
+      <c r="A26" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B26" s="15"/>
-      <c r="C26" s="15"/>
-      <c r="D26" s="15"/>
-      <c r="E26" s="15"/>
-      <c r="F26" s="15"/>
-      <c r="G26" s="15"/>
-      <c r="H26" s="15"/>
-      <c r="I26" s="15"/>
-      <c r="J26" s="15"/>
-      <c r="K26" s="15"/>
-      <c r="L26" s="15"/>
-      <c r="M26" s="15"/>
-      <c r="N26" s="15"/>
-      <c r="O26" s="15"/>
-      <c r="P26" s="15"/>
-      <c r="Q26" s="15"/>
-      <c r="R26" s="15"/>
-      <c r="S26" s="15"/>
-      <c r="T26" s="15"/>
-      <c r="U26" s="15"/>
-      <c r="V26" s="15"/>
-      <c r="W26" s="15"/>
-      <c r="X26" s="15"/>
-      <c r="Y26" s="15"/>
-      <c r="Z26" s="15"/>
-      <c r="AA26" s="15"/>
-      <c r="AB26" s="15"/>
-      <c r="AC26" s="15"/>
-      <c r="AD26" s="15"/>
-      <c r="AE26" s="15"/>
-      <c r="AF26" s="15"/>
-      <c r="AG26" s="15"/>
-      <c r="AH26" s="15"/>
-      <c r="AI26" s="15"/>
-      <c r="AJ26" s="15"/>
-      <c r="AK26" s="15"/>
-      <c r="AL26" s="15"/>
-      <c r="AM26" s="15"/>
-      <c r="AN26" s="15"/>
-      <c r="AO26" s="15"/>
-      <c r="AP26" s="15"/>
-      <c r="AQ26" s="15"/>
-      <c r="AR26" s="15"/>
-      <c r="AS26" s="15"/>
-      <c r="AT26" s="15"/>
-      <c r="AU26" s="15"/>
-      <c r="AV26" s="15"/>
-      <c r="AW26" s="15"/>
-      <c r="AX26" s="15"/>
-      <c r="AY26" s="15"/>
-      <c r="AZ26" s="15"/>
-      <c r="BA26" s="15"/>
-      <c r="BB26" s="15"/>
-      <c r="BC26" s="15"/>
-      <c r="BD26" s="16"/>
+      <c r="B26" s="24"/>
+      <c r="C26" s="24"/>
+      <c r="D26" s="24"/>
+      <c r="E26" s="24"/>
+      <c r="F26" s="24"/>
+      <c r="G26" s="24"/>
+      <c r="H26" s="24"/>
+      <c r="I26" s="24"/>
+      <c r="J26" s="24"/>
+      <c r="K26" s="24"/>
+      <c r="L26" s="24"/>
+      <c r="M26" s="24"/>
+      <c r="N26" s="24"/>
+      <c r="O26" s="24"/>
+      <c r="P26" s="24"/>
+      <c r="Q26" s="24"/>
+      <c r="R26" s="24"/>
+      <c r="S26" s="24"/>
+      <c r="T26" s="24"/>
+      <c r="U26" s="24"/>
+      <c r="V26" s="24"/>
+      <c r="W26" s="24"/>
+      <c r="X26" s="24"/>
+      <c r="Y26" s="24"/>
+      <c r="Z26" s="24"/>
+      <c r="AA26" s="24"/>
+      <c r="AB26" s="24"/>
+      <c r="AC26" s="24"/>
+      <c r="AD26" s="24"/>
+      <c r="AE26" s="24"/>
+      <c r="AF26" s="24"/>
+      <c r="AG26" s="24"/>
+      <c r="AH26" s="24"/>
+      <c r="AI26" s="24"/>
+      <c r="AJ26" s="24"/>
+      <c r="AK26" s="24"/>
+      <c r="AL26" s="24"/>
+      <c r="AM26" s="24"/>
+      <c r="AN26" s="24"/>
+      <c r="AO26" s="24"/>
+      <c r="AP26" s="24"/>
+      <c r="AQ26" s="24"/>
+      <c r="AR26" s="24"/>
+      <c r="AS26" s="24"/>
+      <c r="AT26" s="24"/>
+      <c r="AU26" s="24"/>
+      <c r="AV26" s="24"/>
+      <c r="AW26" s="24"/>
+      <c r="AX26" s="24"/>
+      <c r="AY26" s="24"/>
+      <c r="AZ26" s="24"/>
+      <c r="BA26" s="24"/>
+      <c r="BB26" s="24"/>
+      <c r="BC26" s="24"/>
+      <c r="BD26" s="25"/>
     </row>
     <row r="27" spans="1:56" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="14" t="s">
+      <c r="A27" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B27" s="15"/>
-      <c r="C27" s="15"/>
-      <c r="D27" s="15"/>
-      <c r="E27" s="15"/>
-      <c r="F27" s="15"/>
-      <c r="G27" s="15"/>
-      <c r="H27" s="15"/>
-      <c r="I27" s="15"/>
-      <c r="J27" s="15"/>
-      <c r="K27" s="15"/>
-      <c r="L27" s="15"/>
-      <c r="M27" s="15"/>
-      <c r="N27" s="15"/>
-      <c r="O27" s="15"/>
-      <c r="P27" s="15"/>
-      <c r="Q27" s="15"/>
-      <c r="R27" s="15"/>
-      <c r="S27" s="15"/>
-      <c r="T27" s="15"/>
-      <c r="U27" s="15"/>
-      <c r="V27" s="15"/>
-      <c r="W27" s="15"/>
-      <c r="X27" s="15"/>
-      <c r="Y27" s="15"/>
-      <c r="Z27" s="15"/>
-      <c r="AA27" s="15"/>
-      <c r="AB27" s="15"/>
-      <c r="AC27" s="15"/>
-      <c r="AD27" s="15"/>
-      <c r="AE27" s="15"/>
-      <c r="AF27" s="15"/>
-      <c r="AG27" s="15"/>
-      <c r="AH27" s="15"/>
-      <c r="AI27" s="15"/>
-      <c r="AJ27" s="15"/>
-      <c r="AK27" s="15"/>
-      <c r="AL27" s="15"/>
-      <c r="AM27" s="15"/>
-      <c r="AN27" s="15"/>
-      <c r="AO27" s="15"/>
-      <c r="AP27" s="15"/>
-      <c r="AQ27" s="15"/>
-      <c r="AR27" s="15"/>
-      <c r="AS27" s="15"/>
-      <c r="AT27" s="15"/>
-      <c r="AU27" s="15"/>
-      <c r="AV27" s="15"/>
-      <c r="AW27" s="15"/>
-      <c r="AX27" s="15"/>
-      <c r="AY27" s="15"/>
-      <c r="AZ27" s="15"/>
-      <c r="BA27" s="15"/>
-      <c r="BB27" s="15"/>
-      <c r="BC27" s="15"/>
-      <c r="BD27" s="16"/>
+      <c r="B27" s="24"/>
+      <c r="C27" s="24"/>
+      <c r="D27" s="24"/>
+      <c r="E27" s="24"/>
+      <c r="F27" s="24"/>
+      <c r="G27" s="24"/>
+      <c r="H27" s="24"/>
+      <c r="I27" s="24"/>
+      <c r="J27" s="24"/>
+      <c r="K27" s="24"/>
+      <c r="L27" s="24"/>
+      <c r="M27" s="24"/>
+      <c r="N27" s="24"/>
+      <c r="O27" s="24"/>
+      <c r="P27" s="24"/>
+      <c r="Q27" s="24"/>
+      <c r="R27" s="24"/>
+      <c r="S27" s="24"/>
+      <c r="T27" s="24"/>
+      <c r="U27" s="24"/>
+      <c r="V27" s="24"/>
+      <c r="W27" s="24"/>
+      <c r="X27" s="24"/>
+      <c r="Y27" s="24"/>
+      <c r="Z27" s="24"/>
+      <c r="AA27" s="24"/>
+      <c r="AB27" s="24"/>
+      <c r="AC27" s="24"/>
+      <c r="AD27" s="24"/>
+      <c r="AE27" s="24"/>
+      <c r="AF27" s="24"/>
+      <c r="AG27" s="24"/>
+      <c r="AH27" s="24"/>
+      <c r="AI27" s="24"/>
+      <c r="AJ27" s="24"/>
+      <c r="AK27" s="24"/>
+      <c r="AL27" s="24"/>
+      <c r="AM27" s="24"/>
+      <c r="AN27" s="24"/>
+      <c r="AO27" s="24"/>
+      <c r="AP27" s="24"/>
+      <c r="AQ27" s="24"/>
+      <c r="AR27" s="24"/>
+      <c r="AS27" s="24"/>
+      <c r="AT27" s="24"/>
+      <c r="AU27" s="24"/>
+      <c r="AV27" s="24"/>
+      <c r="AW27" s="24"/>
+      <c r="AX27" s="24"/>
+      <c r="AY27" s="24"/>
+      <c r="AZ27" s="24"/>
+      <c r="BA27" s="24"/>
+      <c r="BB27" s="24"/>
+      <c r="BC27" s="24"/>
+      <c r="BD27" s="25"/>
     </row>
     <row r="28" spans="1:56" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="5"/>
@@ -3700,377 +3703,387 @@
       <c r="BD48" s="10"/>
     </row>
     <row r="49" spans="1:56" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="26" t="s">
+      <c r="A49" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="B49" s="27"/>
-      <c r="C49" s="27"/>
-      <c r="D49" s="27"/>
-      <c r="E49" s="27"/>
-      <c r="F49" s="27"/>
-      <c r="G49" s="27"/>
-      <c r="H49" s="27"/>
-      <c r="I49" s="27"/>
-      <c r="J49" s="27"/>
-      <c r="K49" s="27"/>
-      <c r="L49" s="27"/>
-      <c r="M49" s="27"/>
-      <c r="N49" s="27"/>
-      <c r="O49" s="27"/>
-      <c r="P49" s="27"/>
-      <c r="Q49" s="27"/>
-      <c r="R49" s="27"/>
-      <c r="S49" s="27"/>
-      <c r="T49" s="27"/>
-      <c r="U49" s="27"/>
-      <c r="V49" s="27"/>
-      <c r="W49" s="27"/>
-      <c r="X49" s="27"/>
-      <c r="Y49" s="27"/>
-      <c r="Z49" s="27"/>
-      <c r="AA49" s="27"/>
-      <c r="AB49" s="28"/>
-      <c r="AC49" s="26" t="s">
+      <c r="B49" s="15"/>
+      <c r="C49" s="15"/>
+      <c r="D49" s="15"/>
+      <c r="E49" s="15"/>
+      <c r="F49" s="15"/>
+      <c r="G49" s="15"/>
+      <c r="H49" s="15"/>
+      <c r="I49" s="15"/>
+      <c r="J49" s="15"/>
+      <c r="K49" s="15"/>
+      <c r="L49" s="15"/>
+      <c r="M49" s="15"/>
+      <c r="N49" s="15"/>
+      <c r="O49" s="15"/>
+      <c r="P49" s="15"/>
+      <c r="Q49" s="15"/>
+      <c r="R49" s="15"/>
+      <c r="S49" s="15"/>
+      <c r="T49" s="15"/>
+      <c r="U49" s="15"/>
+      <c r="V49" s="15"/>
+      <c r="W49" s="15"/>
+      <c r="X49" s="15"/>
+      <c r="Y49" s="15"/>
+      <c r="Z49" s="15"/>
+      <c r="AA49" s="15"/>
+      <c r="AB49" s="16"/>
+      <c r="AC49" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="AD49" s="27"/>
-      <c r="AE49" s="27"/>
-      <c r="AF49" s="27"/>
-      <c r="AG49" s="27"/>
-      <c r="AH49" s="27"/>
-      <c r="AI49" s="27"/>
-      <c r="AJ49" s="27"/>
-      <c r="AK49" s="27"/>
-      <c r="AL49" s="27"/>
-      <c r="AM49" s="27"/>
-      <c r="AN49" s="27"/>
-      <c r="AO49" s="27"/>
-      <c r="AP49" s="27"/>
-      <c r="AQ49" s="27"/>
-      <c r="AR49" s="27"/>
-      <c r="AS49" s="27"/>
-      <c r="AT49" s="27"/>
-      <c r="AU49" s="27"/>
-      <c r="AV49" s="27"/>
-      <c r="AW49" s="27"/>
-      <c r="AX49" s="27"/>
-      <c r="AY49" s="27"/>
-      <c r="AZ49" s="27"/>
-      <c r="BA49" s="27"/>
-      <c r="BB49" s="27"/>
-      <c r="BC49" s="27"/>
-      <c r="BD49" s="28"/>
+      <c r="AD49" s="15"/>
+      <c r="AE49" s="15"/>
+      <c r="AF49" s="15"/>
+      <c r="AG49" s="15"/>
+      <c r="AH49" s="15"/>
+      <c r="AI49" s="15"/>
+      <c r="AJ49" s="15"/>
+      <c r="AK49" s="15"/>
+      <c r="AL49" s="15"/>
+      <c r="AM49" s="15"/>
+      <c r="AN49" s="15"/>
+      <c r="AO49" s="15"/>
+      <c r="AP49" s="15"/>
+      <c r="AQ49" s="15"/>
+      <c r="AR49" s="15"/>
+      <c r="AS49" s="15"/>
+      <c r="AT49" s="15"/>
+      <c r="AU49" s="15"/>
+      <c r="AV49" s="15"/>
+      <c r="AW49" s="15"/>
+      <c r="AX49" s="15"/>
+      <c r="AY49" s="15"/>
+      <c r="AZ49" s="15"/>
+      <c r="BA49" s="15"/>
+      <c r="BB49" s="15"/>
+      <c r="BC49" s="15"/>
+      <c r="BD49" s="16"/>
     </row>
     <row r="50" spans="1:56" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="14" t="s">
+      <c r="A50" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="B50" s="29"/>
-      <c r="C50" s="29"/>
-      <c r="D50" s="29"/>
-      <c r="E50" s="29"/>
-      <c r="F50" s="29"/>
-      <c r="G50" s="29"/>
-      <c r="H50" s="29"/>
-      <c r="I50" s="29"/>
-      <c r="J50" s="29"/>
-      <c r="K50" s="29"/>
-      <c r="L50" s="29"/>
-      <c r="M50" s="29"/>
-      <c r="N50" s="29"/>
-      <c r="O50" s="29"/>
-      <c r="P50" s="29"/>
-      <c r="Q50" s="29"/>
-      <c r="R50" s="29"/>
-      <c r="S50" s="29"/>
-      <c r="T50" s="29"/>
-      <c r="U50" s="29"/>
-      <c r="V50" s="29"/>
-      <c r="W50" s="29"/>
-      <c r="X50" s="29"/>
-      <c r="Y50" s="29"/>
-      <c r="Z50" s="29"/>
-      <c r="AA50" s="29"/>
-      <c r="AB50" s="30"/>
-      <c r="AC50" s="14" t="s">
+      <c r="B50" s="18"/>
+      <c r="C50" s="18"/>
+      <c r="D50" s="18"/>
+      <c r="E50" s="18"/>
+      <c r="F50" s="18"/>
+      <c r="G50" s="18"/>
+      <c r="H50" s="18"/>
+      <c r="I50" s="18"/>
+      <c r="J50" s="18"/>
+      <c r="K50" s="18"/>
+      <c r="L50" s="18"/>
+      <c r="M50" s="18"/>
+      <c r="N50" s="18"/>
+      <c r="O50" s="18"/>
+      <c r="P50" s="18"/>
+      <c r="Q50" s="18"/>
+      <c r="R50" s="18"/>
+      <c r="S50" s="18"/>
+      <c r="T50" s="18"/>
+      <c r="U50" s="18"/>
+      <c r="V50" s="18"/>
+      <c r="W50" s="18"/>
+      <c r="X50" s="18"/>
+      <c r="Y50" s="18"/>
+      <c r="Z50" s="18"/>
+      <c r="AA50" s="18"/>
+      <c r="AB50" s="19"/>
+      <c r="AC50" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="AD50" s="29"/>
-      <c r="AE50" s="29"/>
-      <c r="AF50" s="29"/>
-      <c r="AG50" s="29"/>
-      <c r="AH50" s="29"/>
-      <c r="AI50" s="29"/>
-      <c r="AJ50" s="29"/>
-      <c r="AK50" s="29"/>
-      <c r="AL50" s="29"/>
-      <c r="AM50" s="29"/>
-      <c r="AN50" s="29"/>
-      <c r="AO50" s="29"/>
-      <c r="AP50" s="29"/>
-      <c r="AQ50" s="29"/>
-      <c r="AR50" s="29"/>
-      <c r="AS50" s="29"/>
-      <c r="AT50" s="29"/>
-      <c r="AU50" s="29"/>
-      <c r="AV50" s="29"/>
-      <c r="AW50" s="29"/>
-      <c r="AX50" s="29"/>
-      <c r="AY50" s="29"/>
-      <c r="AZ50" s="29"/>
-      <c r="BA50" s="29"/>
-      <c r="BB50" s="29"/>
-      <c r="BC50" s="29"/>
-      <c r="BD50" s="30"/>
+      <c r="AD50" s="18"/>
+      <c r="AE50" s="18"/>
+      <c r="AF50" s="18"/>
+      <c r="AG50" s="18"/>
+      <c r="AH50" s="18"/>
+      <c r="AI50" s="18"/>
+      <c r="AJ50" s="18"/>
+      <c r="AK50" s="18"/>
+      <c r="AL50" s="18"/>
+      <c r="AM50" s="18"/>
+      <c r="AN50" s="18"/>
+      <c r="AO50" s="18"/>
+      <c r="AP50" s="18"/>
+      <c r="AQ50" s="18"/>
+      <c r="AR50" s="18"/>
+      <c r="AS50" s="18"/>
+      <c r="AT50" s="18"/>
+      <c r="AU50" s="18"/>
+      <c r="AV50" s="18"/>
+      <c r="AW50" s="18"/>
+      <c r="AX50" s="18"/>
+      <c r="AY50" s="18"/>
+      <c r="AZ50" s="18"/>
+      <c r="BA50" s="18"/>
+      <c r="BB50" s="18"/>
+      <c r="BC50" s="18"/>
+      <c r="BD50" s="19"/>
     </row>
     <row r="51" spans="1:56" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="14" t="s">
+      <c r="A51" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="B51" s="29"/>
-      <c r="C51" s="29"/>
-      <c r="D51" s="29"/>
-      <c r="E51" s="29"/>
-      <c r="F51" s="29"/>
-      <c r="G51" s="29"/>
-      <c r="H51" s="29"/>
-      <c r="I51" s="29"/>
-      <c r="J51" s="29"/>
-      <c r="K51" s="29"/>
-      <c r="L51" s="29"/>
-      <c r="M51" s="29"/>
-      <c r="N51" s="29"/>
-      <c r="O51" s="29"/>
-      <c r="P51" s="29"/>
-      <c r="Q51" s="29"/>
-      <c r="R51" s="29"/>
-      <c r="S51" s="29"/>
-      <c r="T51" s="29"/>
-      <c r="U51" s="29"/>
-      <c r="V51" s="29"/>
-      <c r="W51" s="29"/>
-      <c r="X51" s="29"/>
-      <c r="Y51" s="29"/>
-      <c r="Z51" s="29"/>
-      <c r="AA51" s="29"/>
-      <c r="AB51" s="30"/>
-      <c r="AC51" s="14" t="s">
+      <c r="B51" s="18"/>
+      <c r="C51" s="18"/>
+      <c r="D51" s="18"/>
+      <c r="E51" s="18"/>
+      <c r="F51" s="18"/>
+      <c r="G51" s="18"/>
+      <c r="H51" s="18"/>
+      <c r="I51" s="18"/>
+      <c r="J51" s="18"/>
+      <c r="K51" s="18"/>
+      <c r="L51" s="18"/>
+      <c r="M51" s="18"/>
+      <c r="N51" s="18"/>
+      <c r="O51" s="18"/>
+      <c r="P51" s="18"/>
+      <c r="Q51" s="18"/>
+      <c r="R51" s="18"/>
+      <c r="S51" s="18"/>
+      <c r="T51" s="18"/>
+      <c r="U51" s="18"/>
+      <c r="V51" s="18"/>
+      <c r="W51" s="18"/>
+      <c r="X51" s="18"/>
+      <c r="Y51" s="18"/>
+      <c r="Z51" s="18"/>
+      <c r="AA51" s="18"/>
+      <c r="AB51" s="19"/>
+      <c r="AC51" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="AD51" s="29"/>
-      <c r="AE51" s="29"/>
-      <c r="AF51" s="29"/>
-      <c r="AG51" s="29"/>
-      <c r="AH51" s="29"/>
-      <c r="AI51" s="29"/>
-      <c r="AJ51" s="29"/>
-      <c r="AK51" s="29"/>
-      <c r="AL51" s="29"/>
-      <c r="AM51" s="29"/>
-      <c r="AN51" s="29"/>
-      <c r="AO51" s="29"/>
-      <c r="AP51" s="29"/>
-      <c r="AQ51" s="29"/>
-      <c r="AR51" s="29"/>
-      <c r="AS51" s="29"/>
-      <c r="AT51" s="29"/>
-      <c r="AU51" s="29"/>
-      <c r="AV51" s="29"/>
-      <c r="AW51" s="29"/>
-      <c r="AX51" s="29"/>
-      <c r="AY51" s="29"/>
-      <c r="AZ51" s="29"/>
-      <c r="BA51" s="29"/>
-      <c r="BB51" s="29"/>
-      <c r="BC51" s="29"/>
-      <c r="BD51" s="30"/>
+      <c r="AD51" s="18"/>
+      <c r="AE51" s="18"/>
+      <c r="AF51" s="18"/>
+      <c r="AG51" s="18"/>
+      <c r="AH51" s="18"/>
+      <c r="AI51" s="18"/>
+      <c r="AJ51" s="18"/>
+      <c r="AK51" s="18"/>
+      <c r="AL51" s="18"/>
+      <c r="AM51" s="18"/>
+      <c r="AN51" s="18"/>
+      <c r="AO51" s="18"/>
+      <c r="AP51" s="18"/>
+      <c r="AQ51" s="18"/>
+      <c r="AR51" s="18"/>
+      <c r="AS51" s="18"/>
+      <c r="AT51" s="18"/>
+      <c r="AU51" s="18"/>
+      <c r="AV51" s="18"/>
+      <c r="AW51" s="18"/>
+      <c r="AX51" s="18"/>
+      <c r="AY51" s="18"/>
+      <c r="AZ51" s="18"/>
+      <c r="BA51" s="18"/>
+      <c r="BB51" s="18"/>
+      <c r="BC51" s="18"/>
+      <c r="BD51" s="19"/>
     </row>
     <row r="52" spans="1:56" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="11" t="s">
+      <c r="A52" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="B52" s="12"/>
-      <c r="C52" s="12"/>
-      <c r="D52" s="12"/>
-      <c r="E52" s="12"/>
-      <c r="F52" s="12"/>
-      <c r="G52" s="12"/>
-      <c r="H52" s="12"/>
-      <c r="I52" s="12"/>
-      <c r="J52" s="12"/>
-      <c r="K52" s="12"/>
-      <c r="L52" s="12"/>
-      <c r="M52" s="12"/>
-      <c r="N52" s="12"/>
-      <c r="O52" s="12"/>
-      <c r="P52" s="12"/>
-      <c r="Q52" s="12"/>
-      <c r="R52" s="12"/>
-      <c r="S52" s="12"/>
-      <c r="T52" s="12"/>
-      <c r="U52" s="12"/>
-      <c r="V52" s="12"/>
-      <c r="W52" s="12"/>
-      <c r="X52" s="12"/>
-      <c r="Y52" s="12"/>
-      <c r="Z52" s="12"/>
-      <c r="AA52" s="12"/>
-      <c r="AB52" s="13"/>
-      <c r="AC52" s="31" t="s">
+      <c r="B52" s="21"/>
+      <c r="C52" s="21"/>
+      <c r="D52" s="21"/>
+      <c r="E52" s="21"/>
+      <c r="F52" s="21"/>
+      <c r="G52" s="21"/>
+      <c r="H52" s="21"/>
+      <c r="I52" s="21"/>
+      <c r="J52" s="21"/>
+      <c r="K52" s="21"/>
+      <c r="L52" s="21"/>
+      <c r="M52" s="21"/>
+      <c r="N52" s="21"/>
+      <c r="O52" s="21"/>
+      <c r="P52" s="21"/>
+      <c r="Q52" s="21"/>
+      <c r="R52" s="21"/>
+      <c r="S52" s="21"/>
+      <c r="T52" s="21"/>
+      <c r="U52" s="21"/>
+      <c r="V52" s="21"/>
+      <c r="W52" s="21"/>
+      <c r="X52" s="21"/>
+      <c r="Y52" s="21"/>
+      <c r="Z52" s="21"/>
+      <c r="AA52" s="21"/>
+      <c r="AB52" s="22"/>
+      <c r="AC52" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="AD52" s="12"/>
-      <c r="AE52" s="12"/>
-      <c r="AF52" s="12"/>
-      <c r="AG52" s="12"/>
-      <c r="AH52" s="12"/>
-      <c r="AI52" s="12"/>
-      <c r="AJ52" s="12"/>
-      <c r="AK52" s="12"/>
-      <c r="AL52" s="12"/>
-      <c r="AM52" s="12"/>
-      <c r="AN52" s="12"/>
-      <c r="AO52" s="12"/>
-      <c r="AP52" s="12"/>
-      <c r="AQ52" s="12"/>
-      <c r="AR52" s="12"/>
-      <c r="AS52" s="12"/>
-      <c r="AT52" s="12"/>
-      <c r="AU52" s="12"/>
-      <c r="AV52" s="12"/>
-      <c r="AW52" s="12"/>
-      <c r="AX52" s="12"/>
-      <c r="AY52" s="12"/>
-      <c r="AZ52" s="12"/>
-      <c r="BA52" s="12"/>
-      <c r="BB52" s="12"/>
-      <c r="BC52" s="12"/>
-      <c r="BD52" s="13"/>
+      <c r="AD52" s="21"/>
+      <c r="AE52" s="21"/>
+      <c r="AF52" s="21"/>
+      <c r="AG52" s="21"/>
+      <c r="AH52" s="21"/>
+      <c r="AI52" s="21"/>
+      <c r="AJ52" s="21"/>
+      <c r="AK52" s="21"/>
+      <c r="AL52" s="21"/>
+      <c r="AM52" s="21"/>
+      <c r="AN52" s="21"/>
+      <c r="AO52" s="21"/>
+      <c r="AP52" s="21"/>
+      <c r="AQ52" s="21"/>
+      <c r="AR52" s="21"/>
+      <c r="AS52" s="21"/>
+      <c r="AT52" s="21"/>
+      <c r="AU52" s="21"/>
+      <c r="AV52" s="21"/>
+      <c r="AW52" s="21"/>
+      <c r="AX52" s="21"/>
+      <c r="AY52" s="21"/>
+      <c r="AZ52" s="21"/>
+      <c r="BA52" s="21"/>
+      <c r="BB52" s="21"/>
+      <c r="BC52" s="21"/>
+      <c r="BD52" s="22"/>
     </row>
     <row r="53" spans="1:56" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="20" t="s">
+      <c r="A53" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B53" s="21"/>
-      <c r="C53" s="21"/>
-      <c r="D53" s="21"/>
-      <c r="E53" s="21"/>
-      <c r="F53" s="21"/>
-      <c r="G53" s="21"/>
-      <c r="H53" s="21"/>
-      <c r="I53" s="21"/>
-      <c r="J53" s="21"/>
-      <c r="K53" s="21"/>
-      <c r="L53" s="21"/>
-      <c r="M53" s="21"/>
-      <c r="N53" s="21"/>
-      <c r="O53" s="21"/>
-      <c r="P53" s="21"/>
-      <c r="Q53" s="21"/>
-      <c r="R53" s="21"/>
-      <c r="S53" s="21"/>
-      <c r="T53" s="21"/>
-      <c r="U53" s="21"/>
-      <c r="V53" s="21"/>
-      <c r="W53" s="21"/>
-      <c r="X53" s="21"/>
-      <c r="Y53" s="21"/>
-      <c r="Z53" s="21"/>
-      <c r="AA53" s="21"/>
-      <c r="AB53" s="21"/>
-      <c r="AC53" s="21"/>
-      <c r="AD53" s="21"/>
-      <c r="AE53" s="21"/>
-      <c r="AF53" s="21"/>
-      <c r="AG53" s="21"/>
-      <c r="AH53" s="21"/>
-      <c r="AI53" s="21"/>
-      <c r="AJ53" s="21"/>
-      <c r="AK53" s="21"/>
-      <c r="AL53" s="21"/>
-      <c r="AM53" s="21"/>
-      <c r="AN53" s="21"/>
-      <c r="AO53" s="21"/>
-      <c r="AP53" s="21"/>
-      <c r="AQ53" s="21"/>
-      <c r="AR53" s="21"/>
-      <c r="AS53" s="21"/>
-      <c r="AT53" s="21"/>
-      <c r="AU53" s="21"/>
-      <c r="AV53" s="21"/>
-      <c r="AW53" s="21"/>
-      <c r="AX53" s="21"/>
-      <c r="AY53" s="21"/>
-      <c r="AZ53" s="21"/>
-      <c r="BA53" s="21"/>
-      <c r="BB53" s="21"/>
-      <c r="BC53" s="21"/>
-      <c r="BD53" s="22"/>
+      <c r="B53" s="30"/>
+      <c r="C53" s="30"/>
+      <c r="D53" s="30"/>
+      <c r="E53" s="30"/>
+      <c r="F53" s="30"/>
+      <c r="G53" s="30"/>
+      <c r="H53" s="30"/>
+      <c r="I53" s="30"/>
+      <c r="J53" s="30"/>
+      <c r="K53" s="30"/>
+      <c r="L53" s="30"/>
+      <c r="M53" s="30"/>
+      <c r="N53" s="30"/>
+      <c r="O53" s="30"/>
+      <c r="P53" s="30"/>
+      <c r="Q53" s="30"/>
+      <c r="R53" s="30"/>
+      <c r="S53" s="30"/>
+      <c r="T53" s="30"/>
+      <c r="U53" s="30"/>
+      <c r="V53" s="30"/>
+      <c r="W53" s="30"/>
+      <c r="X53" s="30"/>
+      <c r="Y53" s="30"/>
+      <c r="Z53" s="30"/>
+      <c r="AA53" s="30"/>
+      <c r="AB53" s="30"/>
+      <c r="AC53" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="AD53" s="30"/>
+      <c r="AE53" s="30"/>
+      <c r="AF53" s="30"/>
+      <c r="AG53" s="30"/>
+      <c r="AH53" s="30"/>
+      <c r="AI53" s="30"/>
+      <c r="AJ53" s="30"/>
+      <c r="AK53" s="30"/>
+      <c r="AL53" s="30"/>
+      <c r="AM53" s="30"/>
+      <c r="AN53" s="30"/>
+      <c r="AO53" s="30"/>
+      <c r="AP53" s="30"/>
+      <c r="AQ53" s="30"/>
+      <c r="AR53" s="30"/>
+      <c r="AS53" s="30"/>
+      <c r="AT53" s="30"/>
+      <c r="AU53" s="30"/>
+      <c r="AV53" s="30"/>
+      <c r="AW53" s="30"/>
+      <c r="AX53" s="30"/>
+      <c r="AY53" s="30"/>
+      <c r="AZ53" s="30"/>
+      <c r="BA53" s="30"/>
+      <c r="BB53" s="30"/>
+      <c r="BC53" s="30"/>
+      <c r="BD53" s="31"/>
     </row>
     <row r="54" spans="1:56" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="23" t="s">
+      <c r="A54" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="B54" s="24"/>
-      <c r="C54" s="24"/>
-      <c r="D54" s="24"/>
-      <c r="E54" s="24"/>
-      <c r="F54" s="24"/>
-      <c r="G54" s="24"/>
-      <c r="H54" s="24"/>
-      <c r="I54" s="24"/>
-      <c r="J54" s="24"/>
-      <c r="K54" s="24"/>
-      <c r="L54" s="24"/>
-      <c r="M54" s="24"/>
-      <c r="N54" s="24"/>
-      <c r="O54" s="24"/>
-      <c r="P54" s="24"/>
-      <c r="Q54" s="24"/>
-      <c r="R54" s="24"/>
-      <c r="S54" s="24"/>
-      <c r="T54" s="24"/>
-      <c r="U54" s="24"/>
-      <c r="V54" s="24"/>
-      <c r="W54" s="24"/>
-      <c r="X54" s="24"/>
-      <c r="Y54" s="24"/>
-      <c r="Z54" s="24"/>
-      <c r="AA54" s="24"/>
-      <c r="AB54" s="24"/>
-      <c r="AC54" s="24" t="s">
+      <c r="B54" s="12"/>
+      <c r="C54" s="12"/>
+      <c r="D54" s="12"/>
+      <c r="E54" s="12"/>
+      <c r="F54" s="12"/>
+      <c r="G54" s="12"/>
+      <c r="H54" s="12"/>
+      <c r="I54" s="12"/>
+      <c r="J54" s="12"/>
+      <c r="K54" s="12"/>
+      <c r="L54" s="12"/>
+      <c r="M54" s="12"/>
+      <c r="N54" s="12"/>
+      <c r="O54" s="12"/>
+      <c r="P54" s="12"/>
+      <c r="Q54" s="12"/>
+      <c r="R54" s="12"/>
+      <c r="S54" s="12"/>
+      <c r="T54" s="12"/>
+      <c r="U54" s="12"/>
+      <c r="V54" s="12"/>
+      <c r="W54" s="12"/>
+      <c r="X54" s="12"/>
+      <c r="Y54" s="12"/>
+      <c r="Z54" s="12"/>
+      <c r="AA54" s="12"/>
+      <c r="AB54" s="12"/>
+      <c r="AC54" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="AD54" s="24"/>
-      <c r="AE54" s="24"/>
-      <c r="AF54" s="24"/>
-      <c r="AG54" s="24"/>
-      <c r="AH54" s="24"/>
-      <c r="AI54" s="24"/>
-      <c r="AJ54" s="24"/>
-      <c r="AK54" s="24"/>
-      <c r="AL54" s="24"/>
-      <c r="AM54" s="24"/>
-      <c r="AN54" s="24"/>
-      <c r="AO54" s="24"/>
-      <c r="AP54" s="24"/>
-      <c r="AQ54" s="24"/>
-      <c r="AR54" s="24"/>
-      <c r="AS54" s="24"/>
-      <c r="AT54" s="24"/>
-      <c r="AU54" s="24"/>
-      <c r="AV54" s="24"/>
-      <c r="AW54" s="24"/>
-      <c r="AX54" s="24"/>
-      <c r="AY54" s="24"/>
-      <c r="AZ54" s="24"/>
-      <c r="BA54" s="24"/>
-      <c r="BB54" s="24"/>
-      <c r="BC54" s="24"/>
-      <c r="BD54" s="25"/>
+      <c r="AD54" s="12"/>
+      <c r="AE54" s="12"/>
+      <c r="AF54" s="12"/>
+      <c r="AG54" s="12"/>
+      <c r="AH54" s="12"/>
+      <c r="AI54" s="12"/>
+      <c r="AJ54" s="12"/>
+      <c r="AK54" s="12"/>
+      <c r="AL54" s="12"/>
+      <c r="AM54" s="12"/>
+      <c r="AN54" s="12"/>
+      <c r="AO54" s="12"/>
+      <c r="AP54" s="12"/>
+      <c r="AQ54" s="12"/>
+      <c r="AR54" s="12"/>
+      <c r="AS54" s="12"/>
+      <c r="AT54" s="12"/>
+      <c r="AU54" s="12"/>
+      <c r="AV54" s="12"/>
+      <c r="AW54" s="12"/>
+      <c r="AX54" s="12"/>
+      <c r="AY54" s="12"/>
+      <c r="AZ54" s="12"/>
+      <c r="BA54" s="12"/>
+      <c r="BB54" s="12"/>
+      <c r="BC54" s="12"/>
+      <c r="BD54" s="13"/>
     </row>
   </sheetData>
-  <mergeCells count="17">
+  <mergeCells count="18">
+    <mergeCell ref="A26:BD26"/>
+    <mergeCell ref="A27:BD27"/>
+    <mergeCell ref="A1:BD1"/>
+    <mergeCell ref="A25:BD25"/>
+    <mergeCell ref="A2:BD2"/>
+    <mergeCell ref="A3:BD3"/>
+    <mergeCell ref="A53:AB53"/>
+    <mergeCell ref="AC53:BD53"/>
     <mergeCell ref="A54:AB54"/>
     <mergeCell ref="AC54:BD54"/>
     <mergeCell ref="AC49:BD49"/>
@@ -4081,13 +4094,6 @@
     <mergeCell ref="A50:AB50"/>
     <mergeCell ref="A51:AB51"/>
     <mergeCell ref="A52:AB52"/>
-    <mergeCell ref="A26:BD26"/>
-    <mergeCell ref="A27:BD27"/>
-    <mergeCell ref="A1:BD1"/>
-    <mergeCell ref="A53:BD53"/>
-    <mergeCell ref="A25:BD25"/>
-    <mergeCell ref="A2:BD2"/>
-    <mergeCell ref="A3:BD3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Quest.xlsx
+++ b/Quest.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/aff98139d4bac41f/文件/DL/dragalia-data-track/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="39" documentId="8_{5481D2AA-BE39-4D5C-836A-7D24C3EF9124}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{15851184-AA55-43E4-B3F4-0AC8A42B2272}"/>
+  <xr:revisionPtr revIDLastSave="43" documentId="8_{5481D2AA-BE39-4D5C-836A-7D24C3EF9124}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{08AF62C7-0D7C-4312-B1B3-78F0217147E8}"/>
   <bookViews>
-    <workbookView xWindow="33795" yWindow="2010" windowWidth="20190" windowHeight="13560" xr2:uid="{5ACD922F-E2B9-468A-8DAF-19A1C97D580A}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="24585" windowHeight="15765" xr2:uid="{5ACD922F-E2B9-468A-8DAF-19A1C97D580A}"/>
   </bookViews>
   <sheets>
     <sheet name="Agito A&amp;O" sheetId="1" r:id="rId1"/>
@@ -62,9 +62,6 @@
     <t>- P2: 紫圈變龍 &gt; 拉牢 &gt; (王靠中) &gt; S1 &gt; FS &gt; S3 &gt; S4</t>
   </si>
   <si>
-    <t>影片參考: https://youtu.be/2vLxB4hdzao</t>
-  </si>
-  <si>
     <t>打法大量參考NGA上第一種速刷法</t>
   </si>
   <si>
@@ -87,6 +84,53 @@
   </si>
   <si>
     <r>
+      <t xml:space="preserve">影片參考: </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>https://youtu.be/2vLxB4hdzao</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (馬24+3葉) </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>https://youtu.be/CxLXB2hwYqU</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (馬24 + 德菲)</t>
+    </r>
+  </si>
+  <si>
+    <r>
       <rPr>
         <sz val="18"/>
         <color rgb="FFFF0000"/>
@@ -104,7 +148,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> Oasis of the Maniacs - 2020/06/26 2:51 PM CDT</t>
+      <t xml:space="preserve"> Oasis of the Maniacs - 2020/06/26 10:52 PM CDT</t>
     </r>
   </si>
 </sst>
@@ -112,7 +156,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -130,6 +174,14 @@
     <font>
       <sz val="18"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -310,43 +362,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -364,6 +380,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -372,6 +397,33 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -897,8 +949,8 @@
   </sheetPr>
   <dimension ref="A1:BD54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:BD1"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection sqref="A1:BD54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.85546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -907,184 +959,184 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:56" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
-      <c r="J1" s="27"/>
-      <c r="K1" s="27"/>
-      <c r="L1" s="27"/>
-      <c r="M1" s="27"/>
-      <c r="N1" s="27"/>
-      <c r="O1" s="27"/>
-      <c r="P1" s="27"/>
-      <c r="Q1" s="27"/>
-      <c r="R1" s="27"/>
-      <c r="S1" s="27"/>
-      <c r="T1" s="27"/>
-      <c r="U1" s="27"/>
-      <c r="V1" s="27"/>
-      <c r="W1" s="27"/>
-      <c r="X1" s="27"/>
-      <c r="Y1" s="27"/>
-      <c r="Z1" s="27"/>
-      <c r="AA1" s="27"/>
-      <c r="AB1" s="27"/>
-      <c r="AC1" s="27"/>
-      <c r="AD1" s="27"/>
-      <c r="AE1" s="27"/>
-      <c r="AF1" s="27"/>
-      <c r="AG1" s="27"/>
-      <c r="AH1" s="27"/>
-      <c r="AI1" s="27"/>
-      <c r="AJ1" s="27"/>
-      <c r="AK1" s="27"/>
-      <c r="AL1" s="27"/>
-      <c r="AM1" s="27"/>
-      <c r="AN1" s="27"/>
-      <c r="AO1" s="27"/>
-      <c r="AP1" s="27"/>
-      <c r="AQ1" s="27"/>
-      <c r="AR1" s="27"/>
-      <c r="AS1" s="27"/>
-      <c r="AT1" s="27"/>
-      <c r="AU1" s="27"/>
-      <c r="AV1" s="27"/>
-      <c r="AW1" s="27"/>
-      <c r="AX1" s="27"/>
-      <c r="AY1" s="27"/>
-      <c r="AZ1" s="27"/>
-      <c r="BA1" s="27"/>
-      <c r="BB1" s="27"/>
-      <c r="BC1" s="27"/>
-      <c r="BD1" s="28"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
+      <c r="N1" s="15"/>
+      <c r="O1" s="15"/>
+      <c r="P1" s="15"/>
+      <c r="Q1" s="15"/>
+      <c r="R1" s="15"/>
+      <c r="S1" s="15"/>
+      <c r="T1" s="15"/>
+      <c r="U1" s="15"/>
+      <c r="V1" s="15"/>
+      <c r="W1" s="15"/>
+      <c r="X1" s="15"/>
+      <c r="Y1" s="15"/>
+      <c r="Z1" s="15"/>
+      <c r="AA1" s="15"/>
+      <c r="AB1" s="15"/>
+      <c r="AC1" s="15"/>
+      <c r="AD1" s="15"/>
+      <c r="AE1" s="15"/>
+      <c r="AF1" s="15"/>
+      <c r="AG1" s="15"/>
+      <c r="AH1" s="15"/>
+      <c r="AI1" s="15"/>
+      <c r="AJ1" s="15"/>
+      <c r="AK1" s="15"/>
+      <c r="AL1" s="15"/>
+      <c r="AM1" s="15"/>
+      <c r="AN1" s="15"/>
+      <c r="AO1" s="15"/>
+      <c r="AP1" s="15"/>
+      <c r="AQ1" s="15"/>
+      <c r="AR1" s="15"/>
+      <c r="AS1" s="15"/>
+      <c r="AT1" s="15"/>
+      <c r="AU1" s="15"/>
+      <c r="AV1" s="15"/>
+      <c r="AW1" s="15"/>
+      <c r="AX1" s="15"/>
+      <c r="AY1" s="15"/>
+      <c r="AZ1" s="15"/>
+      <c r="BA1" s="15"/>
+      <c r="BB1" s="15"/>
+      <c r="BC1" s="15"/>
+      <c r="BD1" s="16"/>
     </row>
     <row r="2" spans="1:56" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="30"/>
-      <c r="L2" s="30"/>
-      <c r="M2" s="30"/>
-      <c r="N2" s="30"/>
-      <c r="O2" s="30"/>
-      <c r="P2" s="30"/>
-      <c r="Q2" s="30"/>
-      <c r="R2" s="30"/>
-      <c r="S2" s="30"/>
-      <c r="T2" s="30"/>
-      <c r="U2" s="30"/>
-      <c r="V2" s="30"/>
-      <c r="W2" s="30"/>
-      <c r="X2" s="30"/>
-      <c r="Y2" s="30"/>
-      <c r="Z2" s="30"/>
-      <c r="AA2" s="30"/>
-      <c r="AB2" s="30"/>
-      <c r="AC2" s="30"/>
-      <c r="AD2" s="30"/>
-      <c r="AE2" s="30"/>
-      <c r="AF2" s="30"/>
-      <c r="AG2" s="30"/>
-      <c r="AH2" s="30"/>
-      <c r="AI2" s="30"/>
-      <c r="AJ2" s="30"/>
-      <c r="AK2" s="30"/>
-      <c r="AL2" s="30"/>
-      <c r="AM2" s="30"/>
-      <c r="AN2" s="30"/>
-      <c r="AO2" s="30"/>
-      <c r="AP2" s="30"/>
-      <c r="AQ2" s="30"/>
-      <c r="AR2" s="30"/>
-      <c r="AS2" s="30"/>
-      <c r="AT2" s="30"/>
-      <c r="AU2" s="30"/>
-      <c r="AV2" s="30"/>
-      <c r="AW2" s="30"/>
-      <c r="AX2" s="30"/>
-      <c r="AY2" s="30"/>
-      <c r="AZ2" s="30"/>
-      <c r="BA2" s="30"/>
-      <c r="BB2" s="30"/>
-      <c r="BC2" s="30"/>
-      <c r="BD2" s="31"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="21"/>
+      <c r="M2" s="21"/>
+      <c r="N2" s="21"/>
+      <c r="O2" s="21"/>
+      <c r="P2" s="21"/>
+      <c r="Q2" s="21"/>
+      <c r="R2" s="21"/>
+      <c r="S2" s="21"/>
+      <c r="T2" s="21"/>
+      <c r="U2" s="21"/>
+      <c r="V2" s="21"/>
+      <c r="W2" s="21"/>
+      <c r="X2" s="21"/>
+      <c r="Y2" s="21"/>
+      <c r="Z2" s="21"/>
+      <c r="AA2" s="21"/>
+      <c r="AB2" s="21"/>
+      <c r="AC2" s="21"/>
+      <c r="AD2" s="21"/>
+      <c r="AE2" s="21"/>
+      <c r="AF2" s="21"/>
+      <c r="AG2" s="21"/>
+      <c r="AH2" s="21"/>
+      <c r="AI2" s="21"/>
+      <c r="AJ2" s="21"/>
+      <c r="AK2" s="21"/>
+      <c r="AL2" s="21"/>
+      <c r="AM2" s="21"/>
+      <c r="AN2" s="21"/>
+      <c r="AO2" s="21"/>
+      <c r="AP2" s="21"/>
+      <c r="AQ2" s="21"/>
+      <c r="AR2" s="21"/>
+      <c r="AS2" s="21"/>
+      <c r="AT2" s="21"/>
+      <c r="AU2" s="21"/>
+      <c r="AV2" s="21"/>
+      <c r="AW2" s="21"/>
+      <c r="AX2" s="21"/>
+      <c r="AY2" s="21"/>
+      <c r="AZ2" s="21"/>
+      <c r="BA2" s="21"/>
+      <c r="BB2" s="21"/>
+      <c r="BC2" s="21"/>
+      <c r="BD2" s="22"/>
     </row>
     <row r="3" spans="1:56" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18"/>
-      <c r="K3" s="18"/>
-      <c r="L3" s="18"/>
-      <c r="M3" s="18"/>
-      <c r="N3" s="18"/>
-      <c r="O3" s="18"/>
-      <c r="P3" s="18"/>
-      <c r="Q3" s="18"/>
-      <c r="R3" s="18"/>
-      <c r="S3" s="18"/>
-      <c r="T3" s="18"/>
-      <c r="U3" s="18"/>
-      <c r="V3" s="18"/>
-      <c r="W3" s="18"/>
-      <c r="X3" s="18"/>
-      <c r="Y3" s="18"/>
-      <c r="Z3" s="18"/>
-      <c r="AA3" s="18"/>
-      <c r="AB3" s="18"/>
-      <c r="AC3" s="18"/>
-      <c r="AD3" s="18"/>
-      <c r="AE3" s="18"/>
-      <c r="AF3" s="18"/>
-      <c r="AG3" s="18"/>
-      <c r="AH3" s="18"/>
-      <c r="AI3" s="18"/>
-      <c r="AJ3" s="18"/>
-      <c r="AK3" s="18"/>
-      <c r="AL3" s="18"/>
-      <c r="AM3" s="18"/>
-      <c r="AN3" s="18"/>
-      <c r="AO3" s="18"/>
-      <c r="AP3" s="18"/>
-      <c r="AQ3" s="18"/>
-      <c r="AR3" s="18"/>
-      <c r="AS3" s="18"/>
-      <c r="AT3" s="18"/>
-      <c r="AU3" s="18"/>
-      <c r="AV3" s="18"/>
-      <c r="AW3" s="18"/>
-      <c r="AX3" s="18"/>
-      <c r="AY3" s="18"/>
-      <c r="AZ3" s="18"/>
-      <c r="BA3" s="18"/>
-      <c r="BB3" s="18"/>
-      <c r="BC3" s="18"/>
-      <c r="BD3" s="19"/>
+      <c r="B3" s="23"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="23"/>
+      <c r="J3" s="23"/>
+      <c r="K3" s="23"/>
+      <c r="L3" s="23"/>
+      <c r="M3" s="23"/>
+      <c r="N3" s="23"/>
+      <c r="O3" s="23"/>
+      <c r="P3" s="23"/>
+      <c r="Q3" s="23"/>
+      <c r="R3" s="23"/>
+      <c r="S3" s="23"/>
+      <c r="T3" s="23"/>
+      <c r="U3" s="23"/>
+      <c r="V3" s="23"/>
+      <c r="W3" s="23"/>
+      <c r="X3" s="23"/>
+      <c r="Y3" s="23"/>
+      <c r="Z3" s="23"/>
+      <c r="AA3" s="23"/>
+      <c r="AB3" s="23"/>
+      <c r="AC3" s="23"/>
+      <c r="AD3" s="23"/>
+      <c r="AE3" s="23"/>
+      <c r="AF3" s="23"/>
+      <c r="AG3" s="23"/>
+      <c r="AH3" s="23"/>
+      <c r="AI3" s="23"/>
+      <c r="AJ3" s="23"/>
+      <c r="AK3" s="23"/>
+      <c r="AL3" s="23"/>
+      <c r="AM3" s="23"/>
+      <c r="AN3" s="23"/>
+      <c r="AO3" s="23"/>
+      <c r="AP3" s="23"/>
+      <c r="AQ3" s="23"/>
+      <c r="AR3" s="23"/>
+      <c r="AS3" s="23"/>
+      <c r="AT3" s="23"/>
+      <c r="AU3" s="23"/>
+      <c r="AV3" s="23"/>
+      <c r="AW3" s="23"/>
+      <c r="AX3" s="23"/>
+      <c r="AY3" s="23"/>
+      <c r="AZ3" s="23"/>
+      <c r="BA3" s="23"/>
+      <c r="BB3" s="23"/>
+      <c r="BC3" s="23"/>
+      <c r="BD3" s="24"/>
     </row>
     <row r="4" spans="1:56" ht="8.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5"/>
@@ -2305,184 +2357,184 @@
       <c r="BD24" s="4"/>
     </row>
     <row r="25" spans="1:56" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="14" t="s">
+      <c r="A25" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="B25" s="15"/>
-      <c r="C25" s="15"/>
-      <c r="D25" s="15"/>
-      <c r="E25" s="15"/>
-      <c r="F25" s="15"/>
-      <c r="G25" s="15"/>
-      <c r="H25" s="15"/>
-      <c r="I25" s="15"/>
-      <c r="J25" s="15"/>
-      <c r="K25" s="15"/>
-      <c r="L25" s="15"/>
-      <c r="M25" s="15"/>
-      <c r="N25" s="15"/>
-      <c r="O25" s="15"/>
-      <c r="P25" s="15"/>
-      <c r="Q25" s="15"/>
-      <c r="R25" s="15"/>
-      <c r="S25" s="15"/>
-      <c r="T25" s="15"/>
-      <c r="U25" s="15"/>
-      <c r="V25" s="15"/>
-      <c r="W25" s="15"/>
-      <c r="X25" s="15"/>
-      <c r="Y25" s="15"/>
-      <c r="Z25" s="15"/>
-      <c r="AA25" s="15"/>
-      <c r="AB25" s="15"/>
-      <c r="AC25" s="15"/>
-      <c r="AD25" s="15"/>
-      <c r="AE25" s="15"/>
-      <c r="AF25" s="15"/>
-      <c r="AG25" s="15"/>
-      <c r="AH25" s="15"/>
-      <c r="AI25" s="15"/>
-      <c r="AJ25" s="15"/>
-      <c r="AK25" s="15"/>
-      <c r="AL25" s="15"/>
-      <c r="AM25" s="15"/>
-      <c r="AN25" s="15"/>
-      <c r="AO25" s="15"/>
-      <c r="AP25" s="15"/>
-      <c r="AQ25" s="15"/>
-      <c r="AR25" s="15"/>
-      <c r="AS25" s="15"/>
-      <c r="AT25" s="15"/>
-      <c r="AU25" s="15"/>
-      <c r="AV25" s="15"/>
-      <c r="AW25" s="15"/>
-      <c r="AX25" s="15"/>
-      <c r="AY25" s="15"/>
-      <c r="AZ25" s="15"/>
-      <c r="BA25" s="15"/>
-      <c r="BB25" s="15"/>
-      <c r="BC25" s="15"/>
-      <c r="BD25" s="16"/>
+      <c r="B25" s="18"/>
+      <c r="C25" s="18"/>
+      <c r="D25" s="18"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="18"/>
+      <c r="G25" s="18"/>
+      <c r="H25" s="18"/>
+      <c r="I25" s="18"/>
+      <c r="J25" s="18"/>
+      <c r="K25" s="18"/>
+      <c r="L25" s="18"/>
+      <c r="M25" s="18"/>
+      <c r="N25" s="18"/>
+      <c r="O25" s="18"/>
+      <c r="P25" s="18"/>
+      <c r="Q25" s="18"/>
+      <c r="R25" s="18"/>
+      <c r="S25" s="18"/>
+      <c r="T25" s="18"/>
+      <c r="U25" s="18"/>
+      <c r="V25" s="18"/>
+      <c r="W25" s="18"/>
+      <c r="X25" s="18"/>
+      <c r="Y25" s="18"/>
+      <c r="Z25" s="18"/>
+      <c r="AA25" s="18"/>
+      <c r="AB25" s="18"/>
+      <c r="AC25" s="18"/>
+      <c r="AD25" s="18"/>
+      <c r="AE25" s="18"/>
+      <c r="AF25" s="18"/>
+      <c r="AG25" s="18"/>
+      <c r="AH25" s="18"/>
+      <c r="AI25" s="18"/>
+      <c r="AJ25" s="18"/>
+      <c r="AK25" s="18"/>
+      <c r="AL25" s="18"/>
+      <c r="AM25" s="18"/>
+      <c r="AN25" s="18"/>
+      <c r="AO25" s="18"/>
+      <c r="AP25" s="18"/>
+      <c r="AQ25" s="18"/>
+      <c r="AR25" s="18"/>
+      <c r="AS25" s="18"/>
+      <c r="AT25" s="18"/>
+      <c r="AU25" s="18"/>
+      <c r="AV25" s="18"/>
+      <c r="AW25" s="18"/>
+      <c r="AX25" s="18"/>
+      <c r="AY25" s="18"/>
+      <c r="AZ25" s="18"/>
+      <c r="BA25" s="18"/>
+      <c r="BB25" s="18"/>
+      <c r="BC25" s="18"/>
+      <c r="BD25" s="19"/>
     </row>
     <row r="26" spans="1:56" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="17" t="s">
+      <c r="A26" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B26" s="24"/>
-      <c r="C26" s="24"/>
-      <c r="D26" s="24"/>
-      <c r="E26" s="24"/>
-      <c r="F26" s="24"/>
-      <c r="G26" s="24"/>
-      <c r="H26" s="24"/>
-      <c r="I26" s="24"/>
-      <c r="J26" s="24"/>
-      <c r="K26" s="24"/>
-      <c r="L26" s="24"/>
-      <c r="M26" s="24"/>
-      <c r="N26" s="24"/>
-      <c r="O26" s="24"/>
-      <c r="P26" s="24"/>
-      <c r="Q26" s="24"/>
-      <c r="R26" s="24"/>
-      <c r="S26" s="24"/>
-      <c r="T26" s="24"/>
-      <c r="U26" s="24"/>
-      <c r="V26" s="24"/>
-      <c r="W26" s="24"/>
-      <c r="X26" s="24"/>
-      <c r="Y26" s="24"/>
-      <c r="Z26" s="24"/>
-      <c r="AA26" s="24"/>
-      <c r="AB26" s="24"/>
-      <c r="AC26" s="24"/>
-      <c r="AD26" s="24"/>
-      <c r="AE26" s="24"/>
-      <c r="AF26" s="24"/>
-      <c r="AG26" s="24"/>
-      <c r="AH26" s="24"/>
-      <c r="AI26" s="24"/>
-      <c r="AJ26" s="24"/>
-      <c r="AK26" s="24"/>
-      <c r="AL26" s="24"/>
-      <c r="AM26" s="24"/>
-      <c r="AN26" s="24"/>
-      <c r="AO26" s="24"/>
-      <c r="AP26" s="24"/>
-      <c r="AQ26" s="24"/>
-      <c r="AR26" s="24"/>
-      <c r="AS26" s="24"/>
-      <c r="AT26" s="24"/>
-      <c r="AU26" s="24"/>
-      <c r="AV26" s="24"/>
-      <c r="AW26" s="24"/>
-      <c r="AX26" s="24"/>
-      <c r="AY26" s="24"/>
-      <c r="AZ26" s="24"/>
-      <c r="BA26" s="24"/>
-      <c r="BB26" s="24"/>
-      <c r="BC26" s="24"/>
-      <c r="BD26" s="25"/>
+      <c r="B26" s="12"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="12"/>
+      <c r="H26" s="12"/>
+      <c r="I26" s="12"/>
+      <c r="J26" s="12"/>
+      <c r="K26" s="12"/>
+      <c r="L26" s="12"/>
+      <c r="M26" s="12"/>
+      <c r="N26" s="12"/>
+      <c r="O26" s="12"/>
+      <c r="P26" s="12"/>
+      <c r="Q26" s="12"/>
+      <c r="R26" s="12"/>
+      <c r="S26" s="12"/>
+      <c r="T26" s="12"/>
+      <c r="U26" s="12"/>
+      <c r="V26" s="12"/>
+      <c r="W26" s="12"/>
+      <c r="X26" s="12"/>
+      <c r="Y26" s="12"/>
+      <c r="Z26" s="12"/>
+      <c r="AA26" s="12"/>
+      <c r="AB26" s="12"/>
+      <c r="AC26" s="12"/>
+      <c r="AD26" s="12"/>
+      <c r="AE26" s="12"/>
+      <c r="AF26" s="12"/>
+      <c r="AG26" s="12"/>
+      <c r="AH26" s="12"/>
+      <c r="AI26" s="12"/>
+      <c r="AJ26" s="12"/>
+      <c r="AK26" s="12"/>
+      <c r="AL26" s="12"/>
+      <c r="AM26" s="12"/>
+      <c r="AN26" s="12"/>
+      <c r="AO26" s="12"/>
+      <c r="AP26" s="12"/>
+      <c r="AQ26" s="12"/>
+      <c r="AR26" s="12"/>
+      <c r="AS26" s="12"/>
+      <c r="AT26" s="12"/>
+      <c r="AU26" s="12"/>
+      <c r="AV26" s="12"/>
+      <c r="AW26" s="12"/>
+      <c r="AX26" s="12"/>
+      <c r="AY26" s="12"/>
+      <c r="AZ26" s="12"/>
+      <c r="BA26" s="12"/>
+      <c r="BB26" s="12"/>
+      <c r="BC26" s="12"/>
+      <c r="BD26" s="13"/>
     </row>
     <row r="27" spans="1:56" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="17" t="s">
+      <c r="A27" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B27" s="24"/>
-      <c r="C27" s="24"/>
-      <c r="D27" s="24"/>
-      <c r="E27" s="24"/>
-      <c r="F27" s="24"/>
-      <c r="G27" s="24"/>
-      <c r="H27" s="24"/>
-      <c r="I27" s="24"/>
-      <c r="J27" s="24"/>
-      <c r="K27" s="24"/>
-      <c r="L27" s="24"/>
-      <c r="M27" s="24"/>
-      <c r="N27" s="24"/>
-      <c r="O27" s="24"/>
-      <c r="P27" s="24"/>
-      <c r="Q27" s="24"/>
-      <c r="R27" s="24"/>
-      <c r="S27" s="24"/>
-      <c r="T27" s="24"/>
-      <c r="U27" s="24"/>
-      <c r="V27" s="24"/>
-      <c r="W27" s="24"/>
-      <c r="X27" s="24"/>
-      <c r="Y27" s="24"/>
-      <c r="Z27" s="24"/>
-      <c r="AA27" s="24"/>
-      <c r="AB27" s="24"/>
-      <c r="AC27" s="24"/>
-      <c r="AD27" s="24"/>
-      <c r="AE27" s="24"/>
-      <c r="AF27" s="24"/>
-      <c r="AG27" s="24"/>
-      <c r="AH27" s="24"/>
-      <c r="AI27" s="24"/>
-      <c r="AJ27" s="24"/>
-      <c r="AK27" s="24"/>
-      <c r="AL27" s="24"/>
-      <c r="AM27" s="24"/>
-      <c r="AN27" s="24"/>
-      <c r="AO27" s="24"/>
-      <c r="AP27" s="24"/>
-      <c r="AQ27" s="24"/>
-      <c r="AR27" s="24"/>
-      <c r="AS27" s="24"/>
-      <c r="AT27" s="24"/>
-      <c r="AU27" s="24"/>
-      <c r="AV27" s="24"/>
-      <c r="AW27" s="24"/>
-      <c r="AX27" s="24"/>
-      <c r="AY27" s="24"/>
-      <c r="AZ27" s="24"/>
-      <c r="BA27" s="24"/>
-      <c r="BB27" s="24"/>
-      <c r="BC27" s="24"/>
-      <c r="BD27" s="25"/>
+      <c r="B27" s="12"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="12"/>
+      <c r="H27" s="12"/>
+      <c r="I27" s="12"/>
+      <c r="J27" s="12"/>
+      <c r="K27" s="12"/>
+      <c r="L27" s="12"/>
+      <c r="M27" s="12"/>
+      <c r="N27" s="12"/>
+      <c r="O27" s="12"/>
+      <c r="P27" s="12"/>
+      <c r="Q27" s="12"/>
+      <c r="R27" s="12"/>
+      <c r="S27" s="12"/>
+      <c r="T27" s="12"/>
+      <c r="U27" s="12"/>
+      <c r="V27" s="12"/>
+      <c r="W27" s="12"/>
+      <c r="X27" s="12"/>
+      <c r="Y27" s="12"/>
+      <c r="Z27" s="12"/>
+      <c r="AA27" s="12"/>
+      <c r="AB27" s="12"/>
+      <c r="AC27" s="12"/>
+      <c r="AD27" s="12"/>
+      <c r="AE27" s="12"/>
+      <c r="AF27" s="12"/>
+      <c r="AG27" s="12"/>
+      <c r="AH27" s="12"/>
+      <c r="AI27" s="12"/>
+      <c r="AJ27" s="12"/>
+      <c r="AK27" s="12"/>
+      <c r="AL27" s="12"/>
+      <c r="AM27" s="12"/>
+      <c r="AN27" s="12"/>
+      <c r="AO27" s="12"/>
+      <c r="AP27" s="12"/>
+      <c r="AQ27" s="12"/>
+      <c r="AR27" s="12"/>
+      <c r="AS27" s="12"/>
+      <c r="AT27" s="12"/>
+      <c r="AU27" s="12"/>
+      <c r="AV27" s="12"/>
+      <c r="AW27" s="12"/>
+      <c r="AX27" s="12"/>
+      <c r="AY27" s="12"/>
+      <c r="AZ27" s="12"/>
+      <c r="BA27" s="12"/>
+      <c r="BB27" s="12"/>
+      <c r="BC27" s="12"/>
+      <c r="BD27" s="13"/>
     </row>
     <row r="28" spans="1:56" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="5"/>
@@ -3703,385 +3755,379 @@
       <c r="BD48" s="10"/>
     </row>
     <row r="49" spans="1:56" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="14" t="s">
+      <c r="A49" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="B49" s="18"/>
+      <c r="C49" s="18"/>
+      <c r="D49" s="18"/>
+      <c r="E49" s="18"/>
+      <c r="F49" s="18"/>
+      <c r="G49" s="18"/>
+      <c r="H49" s="18"/>
+      <c r="I49" s="18"/>
+      <c r="J49" s="18"/>
+      <c r="K49" s="18"/>
+      <c r="L49" s="18"/>
+      <c r="M49" s="18"/>
+      <c r="N49" s="18"/>
+      <c r="O49" s="18"/>
+      <c r="P49" s="18"/>
+      <c r="Q49" s="18"/>
+      <c r="R49" s="18"/>
+      <c r="S49" s="18"/>
+      <c r="T49" s="18"/>
+      <c r="U49" s="18"/>
+      <c r="V49" s="18"/>
+      <c r="W49" s="18"/>
+      <c r="X49" s="18"/>
+      <c r="Y49" s="18"/>
+      <c r="Z49" s="18"/>
+      <c r="AA49" s="18"/>
+      <c r="AB49" s="19"/>
+      <c r="AC49" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="AD49" s="18"/>
+      <c r="AE49" s="18"/>
+      <c r="AF49" s="18"/>
+      <c r="AG49" s="18"/>
+      <c r="AH49" s="18"/>
+      <c r="AI49" s="18"/>
+      <c r="AJ49" s="18"/>
+      <c r="AK49" s="18"/>
+      <c r="AL49" s="18"/>
+      <c r="AM49" s="18"/>
+      <c r="AN49" s="18"/>
+      <c r="AO49" s="18"/>
+      <c r="AP49" s="18"/>
+      <c r="AQ49" s="18"/>
+      <c r="AR49" s="18"/>
+      <c r="AS49" s="18"/>
+      <c r="AT49" s="18"/>
+      <c r="AU49" s="18"/>
+      <c r="AV49" s="18"/>
+      <c r="AW49" s="18"/>
+      <c r="AX49" s="18"/>
+      <c r="AY49" s="18"/>
+      <c r="AZ49" s="18"/>
+      <c r="BA49" s="18"/>
+      <c r="BB49" s="18"/>
+      <c r="BC49" s="18"/>
+      <c r="BD49" s="19"/>
+    </row>
+    <row r="50" spans="1:56" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="B49" s="15"/>
-      <c r="C49" s="15"/>
-      <c r="D49" s="15"/>
-      <c r="E49" s="15"/>
-      <c r="F49" s="15"/>
-      <c r="G49" s="15"/>
-      <c r="H49" s="15"/>
-      <c r="I49" s="15"/>
-      <c r="J49" s="15"/>
-      <c r="K49" s="15"/>
-      <c r="L49" s="15"/>
-      <c r="M49" s="15"/>
-      <c r="N49" s="15"/>
-      <c r="O49" s="15"/>
-      <c r="P49" s="15"/>
-      <c r="Q49" s="15"/>
-      <c r="R49" s="15"/>
-      <c r="S49" s="15"/>
-      <c r="T49" s="15"/>
-      <c r="U49" s="15"/>
-      <c r="V49" s="15"/>
-      <c r="W49" s="15"/>
-      <c r="X49" s="15"/>
-      <c r="Y49" s="15"/>
-      <c r="Z49" s="15"/>
-      <c r="AA49" s="15"/>
-      <c r="AB49" s="16"/>
-      <c r="AC49" s="14" t="s">
-        <v>6</v>
+      <c r="B50" s="23"/>
+      <c r="C50" s="23"/>
+      <c r="D50" s="23"/>
+      <c r="E50" s="23"/>
+      <c r="F50" s="23"/>
+      <c r="G50" s="23"/>
+      <c r="H50" s="23"/>
+      <c r="I50" s="23"/>
+      <c r="J50" s="23"/>
+      <c r="K50" s="23"/>
+      <c r="L50" s="23"/>
+      <c r="M50" s="23"/>
+      <c r="N50" s="23"/>
+      <c r="O50" s="23"/>
+      <c r="P50" s="23"/>
+      <c r="Q50" s="23"/>
+      <c r="R50" s="23"/>
+      <c r="S50" s="23"/>
+      <c r="T50" s="23"/>
+      <c r="U50" s="23"/>
+      <c r="V50" s="23"/>
+      <c r="W50" s="23"/>
+      <c r="X50" s="23"/>
+      <c r="Y50" s="23"/>
+      <c r="Z50" s="23"/>
+      <c r="AA50" s="23"/>
+      <c r="AB50" s="24"/>
+      <c r="AC50" s="11" t="s">
+        <v>7</v>
       </c>
-      <c r="AD49" s="15"/>
-      <c r="AE49" s="15"/>
-      <c r="AF49" s="15"/>
-      <c r="AG49" s="15"/>
-      <c r="AH49" s="15"/>
-      <c r="AI49" s="15"/>
-      <c r="AJ49" s="15"/>
-      <c r="AK49" s="15"/>
-      <c r="AL49" s="15"/>
-      <c r="AM49" s="15"/>
-      <c r="AN49" s="15"/>
-      <c r="AO49" s="15"/>
-      <c r="AP49" s="15"/>
-      <c r="AQ49" s="15"/>
-      <c r="AR49" s="15"/>
-      <c r="AS49" s="15"/>
-      <c r="AT49" s="15"/>
-      <c r="AU49" s="15"/>
-      <c r="AV49" s="15"/>
-      <c r="AW49" s="15"/>
-      <c r="AX49" s="15"/>
-      <c r="AY49" s="15"/>
-      <c r="AZ49" s="15"/>
-      <c r="BA49" s="15"/>
-      <c r="BB49" s="15"/>
-      <c r="BC49" s="15"/>
-      <c r="BD49" s="16"/>
-    </row>
-    <row r="50" spans="1:56" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="17" t="s">
+      <c r="AD50" s="23"/>
+      <c r="AE50" s="23"/>
+      <c r="AF50" s="23"/>
+      <c r="AG50" s="23"/>
+      <c r="AH50" s="23"/>
+      <c r="AI50" s="23"/>
+      <c r="AJ50" s="23"/>
+      <c r="AK50" s="23"/>
+      <c r="AL50" s="23"/>
+      <c r="AM50" s="23"/>
+      <c r="AN50" s="23"/>
+      <c r="AO50" s="23"/>
+      <c r="AP50" s="23"/>
+      <c r="AQ50" s="23"/>
+      <c r="AR50" s="23"/>
+      <c r="AS50" s="23"/>
+      <c r="AT50" s="23"/>
+      <c r="AU50" s="23"/>
+      <c r="AV50" s="23"/>
+      <c r="AW50" s="23"/>
+      <c r="AX50" s="23"/>
+      <c r="AY50" s="23"/>
+      <c r="AZ50" s="23"/>
+      <c r="BA50" s="23"/>
+      <c r="BB50" s="23"/>
+      <c r="BC50" s="23"/>
+      <c r="BD50" s="24"/>
+    </row>
+    <row r="51" spans="1:56" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B51" s="23"/>
+      <c r="C51" s="23"/>
+      <c r="D51" s="23"/>
+      <c r="E51" s="23"/>
+      <c r="F51" s="23"/>
+      <c r="G51" s="23"/>
+      <c r="H51" s="23"/>
+      <c r="I51" s="23"/>
+      <c r="J51" s="23"/>
+      <c r="K51" s="23"/>
+      <c r="L51" s="23"/>
+      <c r="M51" s="23"/>
+      <c r="N51" s="23"/>
+      <c r="O51" s="23"/>
+      <c r="P51" s="23"/>
+      <c r="Q51" s="23"/>
+      <c r="R51" s="23"/>
+      <c r="S51" s="23"/>
+      <c r="T51" s="23"/>
+      <c r="U51" s="23"/>
+      <c r="V51" s="23"/>
+      <c r="W51" s="23"/>
+      <c r="X51" s="23"/>
+      <c r="Y51" s="23"/>
+      <c r="Z51" s="23"/>
+      <c r="AA51" s="23"/>
+      <c r="AB51" s="24"/>
+      <c r="AC51" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD51" s="23"/>
+      <c r="AE51" s="23"/>
+      <c r="AF51" s="23"/>
+      <c r="AG51" s="23"/>
+      <c r="AH51" s="23"/>
+      <c r="AI51" s="23"/>
+      <c r="AJ51" s="23"/>
+      <c r="AK51" s="23"/>
+      <c r="AL51" s="23"/>
+      <c r="AM51" s="23"/>
+      <c r="AN51" s="23"/>
+      <c r="AO51" s="23"/>
+      <c r="AP51" s="23"/>
+      <c r="AQ51" s="23"/>
+      <c r="AR51" s="23"/>
+      <c r="AS51" s="23"/>
+      <c r="AT51" s="23"/>
+      <c r="AU51" s="23"/>
+      <c r="AV51" s="23"/>
+      <c r="AW51" s="23"/>
+      <c r="AX51" s="23"/>
+      <c r="AY51" s="23"/>
+      <c r="AZ51" s="23"/>
+      <c r="BA51" s="23"/>
+      <c r="BB51" s="23"/>
+      <c r="BC51" s="23"/>
+      <c r="BD51" s="24"/>
+    </row>
+    <row r="52" spans="1:56" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="B50" s="18"/>
-      <c r="C50" s="18"/>
-      <c r="D50" s="18"/>
-      <c r="E50" s="18"/>
-      <c r="F50" s="18"/>
-      <c r="G50" s="18"/>
-      <c r="H50" s="18"/>
-      <c r="I50" s="18"/>
-      <c r="J50" s="18"/>
-      <c r="K50" s="18"/>
-      <c r="L50" s="18"/>
-      <c r="M50" s="18"/>
-      <c r="N50" s="18"/>
-      <c r="O50" s="18"/>
-      <c r="P50" s="18"/>
-      <c r="Q50" s="18"/>
-      <c r="R50" s="18"/>
-      <c r="S50" s="18"/>
-      <c r="T50" s="18"/>
-      <c r="U50" s="18"/>
-      <c r="V50" s="18"/>
-      <c r="W50" s="18"/>
-      <c r="X50" s="18"/>
-      <c r="Y50" s="18"/>
-      <c r="Z50" s="18"/>
-      <c r="AA50" s="18"/>
-      <c r="AB50" s="19"/>
-      <c r="AC50" s="17" t="s">
-        <v>7</v>
+      <c r="B52" s="29"/>
+      <c r="C52" s="29"/>
+      <c r="D52" s="29"/>
+      <c r="E52" s="29"/>
+      <c r="F52" s="29"/>
+      <c r="G52" s="29"/>
+      <c r="H52" s="29"/>
+      <c r="I52" s="29"/>
+      <c r="J52" s="29"/>
+      <c r="K52" s="29"/>
+      <c r="L52" s="29"/>
+      <c r="M52" s="29"/>
+      <c r="N52" s="29"/>
+      <c r="O52" s="29"/>
+      <c r="P52" s="29"/>
+      <c r="Q52" s="29"/>
+      <c r="R52" s="29"/>
+      <c r="S52" s="29"/>
+      <c r="T52" s="29"/>
+      <c r="U52" s="29"/>
+      <c r="V52" s="29"/>
+      <c r="W52" s="29"/>
+      <c r="X52" s="29"/>
+      <c r="Y52" s="29"/>
+      <c r="Z52" s="29"/>
+      <c r="AA52" s="29"/>
+      <c r="AB52" s="30"/>
+      <c r="AC52" s="28" t="s">
+        <v>11</v>
       </c>
-      <c r="AD50" s="18"/>
-      <c r="AE50" s="18"/>
-      <c r="AF50" s="18"/>
-      <c r="AG50" s="18"/>
-      <c r="AH50" s="18"/>
-      <c r="AI50" s="18"/>
-      <c r="AJ50" s="18"/>
-      <c r="AK50" s="18"/>
-      <c r="AL50" s="18"/>
-      <c r="AM50" s="18"/>
-      <c r="AN50" s="18"/>
-      <c r="AO50" s="18"/>
-      <c r="AP50" s="18"/>
-      <c r="AQ50" s="18"/>
-      <c r="AR50" s="18"/>
-      <c r="AS50" s="18"/>
-      <c r="AT50" s="18"/>
-      <c r="AU50" s="18"/>
-      <c r="AV50" s="18"/>
-      <c r="AW50" s="18"/>
-      <c r="AX50" s="18"/>
-      <c r="AY50" s="18"/>
-      <c r="AZ50" s="18"/>
-      <c r="BA50" s="18"/>
-      <c r="BB50" s="18"/>
-      <c r="BC50" s="18"/>
-      <c r="BD50" s="19"/>
-    </row>
-    <row r="51" spans="1:56" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="17" t="s">
-        <v>5</v>
+      <c r="AD52" s="29"/>
+      <c r="AE52" s="29"/>
+      <c r="AF52" s="29"/>
+      <c r="AG52" s="29"/>
+      <c r="AH52" s="29"/>
+      <c r="AI52" s="29"/>
+      <c r="AJ52" s="29"/>
+      <c r="AK52" s="29"/>
+      <c r="AL52" s="29"/>
+      <c r="AM52" s="29"/>
+      <c r="AN52" s="29"/>
+      <c r="AO52" s="29"/>
+      <c r="AP52" s="29"/>
+      <c r="AQ52" s="29"/>
+      <c r="AR52" s="29"/>
+      <c r="AS52" s="29"/>
+      <c r="AT52" s="29"/>
+      <c r="AU52" s="29"/>
+      <c r="AV52" s="29"/>
+      <c r="AW52" s="29"/>
+      <c r="AX52" s="29"/>
+      <c r="AY52" s="29"/>
+      <c r="AZ52" s="29"/>
+      <c r="BA52" s="29"/>
+      <c r="BB52" s="29"/>
+      <c r="BC52" s="29"/>
+      <c r="BD52" s="30"/>
+    </row>
+    <row r="53" spans="1:56" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="20" t="s">
+        <v>16</v>
       </c>
-      <c r="B51" s="18"/>
-      <c r="C51" s="18"/>
-      <c r="D51" s="18"/>
-      <c r="E51" s="18"/>
-      <c r="F51" s="18"/>
-      <c r="G51" s="18"/>
-      <c r="H51" s="18"/>
-      <c r="I51" s="18"/>
-      <c r="J51" s="18"/>
-      <c r="K51" s="18"/>
-      <c r="L51" s="18"/>
-      <c r="M51" s="18"/>
-      <c r="N51" s="18"/>
-      <c r="O51" s="18"/>
-      <c r="P51" s="18"/>
-      <c r="Q51" s="18"/>
-      <c r="R51" s="18"/>
-      <c r="S51" s="18"/>
-      <c r="T51" s="18"/>
-      <c r="U51" s="18"/>
-      <c r="V51" s="18"/>
-      <c r="W51" s="18"/>
-      <c r="X51" s="18"/>
-      <c r="Y51" s="18"/>
-      <c r="Z51" s="18"/>
-      <c r="AA51" s="18"/>
-      <c r="AB51" s="19"/>
-      <c r="AC51" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="AD51" s="18"/>
-      <c r="AE51" s="18"/>
-      <c r="AF51" s="18"/>
-      <c r="AG51" s="18"/>
-      <c r="AH51" s="18"/>
-      <c r="AI51" s="18"/>
-      <c r="AJ51" s="18"/>
-      <c r="AK51" s="18"/>
-      <c r="AL51" s="18"/>
-      <c r="AM51" s="18"/>
-      <c r="AN51" s="18"/>
-      <c r="AO51" s="18"/>
-      <c r="AP51" s="18"/>
-      <c r="AQ51" s="18"/>
-      <c r="AR51" s="18"/>
-      <c r="AS51" s="18"/>
-      <c r="AT51" s="18"/>
-      <c r="AU51" s="18"/>
-      <c r="AV51" s="18"/>
-      <c r="AW51" s="18"/>
-      <c r="AX51" s="18"/>
-      <c r="AY51" s="18"/>
-      <c r="AZ51" s="18"/>
-      <c r="BA51" s="18"/>
-      <c r="BB51" s="18"/>
-      <c r="BC51" s="18"/>
-      <c r="BD51" s="19"/>
-    </row>
-    <row r="52" spans="1:56" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="23" t="s">
+      <c r="B53" s="21"/>
+      <c r="C53" s="21"/>
+      <c r="D53" s="21"/>
+      <c r="E53" s="21"/>
+      <c r="F53" s="21"/>
+      <c r="G53" s="21"/>
+      <c r="H53" s="21"/>
+      <c r="I53" s="21"/>
+      <c r="J53" s="21"/>
+      <c r="K53" s="21"/>
+      <c r="L53" s="21"/>
+      <c r="M53" s="21"/>
+      <c r="N53" s="21"/>
+      <c r="O53" s="21"/>
+      <c r="P53" s="21"/>
+      <c r="Q53" s="21"/>
+      <c r="R53" s="21"/>
+      <c r="S53" s="21"/>
+      <c r="T53" s="21"/>
+      <c r="U53" s="21"/>
+      <c r="V53" s="21"/>
+      <c r="W53" s="21"/>
+      <c r="X53" s="21"/>
+      <c r="Y53" s="21"/>
+      <c r="Z53" s="21"/>
+      <c r="AA53" s="21"/>
+      <c r="AB53" s="21"/>
+      <c r="AC53" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="B52" s="21"/>
-      <c r="C52" s="21"/>
-      <c r="D52" s="21"/>
-      <c r="E52" s="21"/>
-      <c r="F52" s="21"/>
-      <c r="G52" s="21"/>
-      <c r="H52" s="21"/>
-      <c r="I52" s="21"/>
-      <c r="J52" s="21"/>
-      <c r="K52" s="21"/>
-      <c r="L52" s="21"/>
-      <c r="M52" s="21"/>
-      <c r="N52" s="21"/>
-      <c r="O52" s="21"/>
-      <c r="P52" s="21"/>
-      <c r="Q52" s="21"/>
-      <c r="R52" s="21"/>
-      <c r="S52" s="21"/>
-      <c r="T52" s="21"/>
-      <c r="U52" s="21"/>
-      <c r="V52" s="21"/>
-      <c r="W52" s="21"/>
-      <c r="X52" s="21"/>
-      <c r="Y52" s="21"/>
-      <c r="Z52" s="21"/>
-      <c r="AA52" s="21"/>
-      <c r="AB52" s="22"/>
-      <c r="AC52" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="AD52" s="21"/>
-      <c r="AE52" s="21"/>
-      <c r="AF52" s="21"/>
-      <c r="AG52" s="21"/>
-      <c r="AH52" s="21"/>
-      <c r="AI52" s="21"/>
-      <c r="AJ52" s="21"/>
-      <c r="AK52" s="21"/>
-      <c r="AL52" s="21"/>
-      <c r="AM52" s="21"/>
-      <c r="AN52" s="21"/>
-      <c r="AO52" s="21"/>
-      <c r="AP52" s="21"/>
-      <c r="AQ52" s="21"/>
-      <c r="AR52" s="21"/>
-      <c r="AS52" s="21"/>
-      <c r="AT52" s="21"/>
-      <c r="AU52" s="21"/>
-      <c r="AV52" s="21"/>
-      <c r="AW52" s="21"/>
-      <c r="AX52" s="21"/>
-      <c r="AY52" s="21"/>
-      <c r="AZ52" s="21"/>
-      <c r="BA52" s="21"/>
-      <c r="BB52" s="21"/>
-      <c r="BC52" s="21"/>
-      <c r="BD52" s="22"/>
-    </row>
-    <row r="53" spans="1:56" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="29" t="s">
+      <c r="AD53" s="21"/>
+      <c r="AE53" s="21"/>
+      <c r="AF53" s="21"/>
+      <c r="AG53" s="21"/>
+      <c r="AH53" s="21"/>
+      <c r="AI53" s="21"/>
+      <c r="AJ53" s="21"/>
+      <c r="AK53" s="21"/>
+      <c r="AL53" s="21"/>
+      <c r="AM53" s="21"/>
+      <c r="AN53" s="21"/>
+      <c r="AO53" s="21"/>
+      <c r="AP53" s="21"/>
+      <c r="AQ53" s="21"/>
+      <c r="AR53" s="21"/>
+      <c r="AS53" s="21"/>
+      <c r="AT53" s="21"/>
+      <c r="AU53" s="21"/>
+      <c r="AV53" s="21"/>
+      <c r="AW53" s="21"/>
+      <c r="AX53" s="21"/>
+      <c r="AY53" s="21"/>
+      <c r="AZ53" s="21"/>
+      <c r="BA53" s="21"/>
+      <c r="BB53" s="21"/>
+      <c r="BC53" s="21"/>
+      <c r="BD53" s="22"/>
+    </row>
+    <row r="54" spans="1:56" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="B53" s="30"/>
-      <c r="C53" s="30"/>
-      <c r="D53" s="30"/>
-      <c r="E53" s="30"/>
-      <c r="F53" s="30"/>
-      <c r="G53" s="30"/>
-      <c r="H53" s="30"/>
-      <c r="I53" s="30"/>
-      <c r="J53" s="30"/>
-      <c r="K53" s="30"/>
-      <c r="L53" s="30"/>
-      <c r="M53" s="30"/>
-      <c r="N53" s="30"/>
-      <c r="O53" s="30"/>
-      <c r="P53" s="30"/>
-      <c r="Q53" s="30"/>
-      <c r="R53" s="30"/>
-      <c r="S53" s="30"/>
-      <c r="T53" s="30"/>
-      <c r="U53" s="30"/>
-      <c r="V53" s="30"/>
-      <c r="W53" s="30"/>
-      <c r="X53" s="30"/>
-      <c r="Y53" s="30"/>
-      <c r="Z53" s="30"/>
-      <c r="AA53" s="30"/>
-      <c r="AB53" s="30"/>
-      <c r="AC53" s="30" t="s">
-        <v>16</v>
-      </c>
-      <c r="AD53" s="30"/>
-      <c r="AE53" s="30"/>
-      <c r="AF53" s="30"/>
-      <c r="AG53" s="30"/>
-      <c r="AH53" s="30"/>
-      <c r="AI53" s="30"/>
-      <c r="AJ53" s="30"/>
-      <c r="AK53" s="30"/>
-      <c r="AL53" s="30"/>
-      <c r="AM53" s="30"/>
-      <c r="AN53" s="30"/>
-      <c r="AO53" s="30"/>
-      <c r="AP53" s="30"/>
-      <c r="AQ53" s="30"/>
-      <c r="AR53" s="30"/>
-      <c r="AS53" s="30"/>
-      <c r="AT53" s="30"/>
-      <c r="AU53" s="30"/>
-      <c r="AV53" s="30"/>
-      <c r="AW53" s="30"/>
-      <c r="AX53" s="30"/>
-      <c r="AY53" s="30"/>
-      <c r="AZ53" s="30"/>
-      <c r="BA53" s="30"/>
-      <c r="BB53" s="30"/>
-      <c r="BC53" s="30"/>
-      <c r="BD53" s="31"/>
-    </row>
-    <row r="54" spans="1:56" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="11" t="s">
+      <c r="B54" s="26"/>
+      <c r="C54" s="26"/>
+      <c r="D54" s="26"/>
+      <c r="E54" s="26"/>
+      <c r="F54" s="26"/>
+      <c r="G54" s="26"/>
+      <c r="H54" s="26"/>
+      <c r="I54" s="26"/>
+      <c r="J54" s="26"/>
+      <c r="K54" s="26"/>
+      <c r="L54" s="26"/>
+      <c r="M54" s="26"/>
+      <c r="N54" s="26"/>
+      <c r="O54" s="26"/>
+      <c r="P54" s="26"/>
+      <c r="Q54" s="26"/>
+      <c r="R54" s="26"/>
+      <c r="S54" s="26"/>
+      <c r="T54" s="26"/>
+      <c r="U54" s="26"/>
+      <c r="V54" s="26"/>
+      <c r="W54" s="26"/>
+      <c r="X54" s="26"/>
+      <c r="Y54" s="26"/>
+      <c r="Z54" s="26"/>
+      <c r="AA54" s="26"/>
+      <c r="AB54" s="26"/>
+      <c r="AC54" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="B54" s="12"/>
-      <c r="C54" s="12"/>
-      <c r="D54" s="12"/>
-      <c r="E54" s="12"/>
-      <c r="F54" s="12"/>
-      <c r="G54" s="12"/>
-      <c r="H54" s="12"/>
-      <c r="I54" s="12"/>
-      <c r="J54" s="12"/>
-      <c r="K54" s="12"/>
-      <c r="L54" s="12"/>
-      <c r="M54" s="12"/>
-      <c r="N54" s="12"/>
-      <c r="O54" s="12"/>
-      <c r="P54" s="12"/>
-      <c r="Q54" s="12"/>
-      <c r="R54" s="12"/>
-      <c r="S54" s="12"/>
-      <c r="T54" s="12"/>
-      <c r="U54" s="12"/>
-      <c r="V54" s="12"/>
-      <c r="W54" s="12"/>
-      <c r="X54" s="12"/>
-      <c r="Y54" s="12"/>
-      <c r="Z54" s="12"/>
-      <c r="AA54" s="12"/>
-      <c r="AB54" s="12"/>
-      <c r="AC54" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="AD54" s="12"/>
-      <c r="AE54" s="12"/>
-      <c r="AF54" s="12"/>
-      <c r="AG54" s="12"/>
-      <c r="AH54" s="12"/>
-      <c r="AI54" s="12"/>
-      <c r="AJ54" s="12"/>
-      <c r="AK54" s="12"/>
-      <c r="AL54" s="12"/>
-      <c r="AM54" s="12"/>
-      <c r="AN54" s="12"/>
-      <c r="AO54" s="12"/>
-      <c r="AP54" s="12"/>
-      <c r="AQ54" s="12"/>
-      <c r="AR54" s="12"/>
-      <c r="AS54" s="12"/>
-      <c r="AT54" s="12"/>
-      <c r="AU54" s="12"/>
-      <c r="AV54" s="12"/>
-      <c r="AW54" s="12"/>
-      <c r="AX54" s="12"/>
-      <c r="AY54" s="12"/>
-      <c r="AZ54" s="12"/>
-      <c r="BA54" s="12"/>
-      <c r="BB54" s="12"/>
-      <c r="BC54" s="12"/>
-      <c r="BD54" s="13"/>
+      <c r="AD54" s="26"/>
+      <c r="AE54" s="26"/>
+      <c r="AF54" s="26"/>
+      <c r="AG54" s="26"/>
+      <c r="AH54" s="26"/>
+      <c r="AI54" s="26"/>
+      <c r="AJ54" s="26"/>
+      <c r="AK54" s="26"/>
+      <c r="AL54" s="26"/>
+      <c r="AM54" s="26"/>
+      <c r="AN54" s="26"/>
+      <c r="AO54" s="26"/>
+      <c r="AP54" s="26"/>
+      <c r="AQ54" s="26"/>
+      <c r="AR54" s="26"/>
+      <c r="AS54" s="26"/>
+      <c r="AT54" s="26"/>
+      <c r="AU54" s="26"/>
+      <c r="AV54" s="26"/>
+      <c r="AW54" s="26"/>
+      <c r="AX54" s="26"/>
+      <c r="AY54" s="26"/>
+      <c r="AZ54" s="26"/>
+      <c r="BA54" s="26"/>
+      <c r="BB54" s="26"/>
+      <c r="BC54" s="26"/>
+      <c r="BD54" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A26:BD26"/>
-    <mergeCell ref="A27:BD27"/>
-    <mergeCell ref="A1:BD1"/>
-    <mergeCell ref="A25:BD25"/>
-    <mergeCell ref="A2:BD2"/>
-    <mergeCell ref="A3:BD3"/>
     <mergeCell ref="A53:AB53"/>
     <mergeCell ref="AC53:BD53"/>
     <mergeCell ref="A54:AB54"/>
@@ -4094,6 +4140,12 @@
     <mergeCell ref="A50:AB50"/>
     <mergeCell ref="A51:AB51"/>
     <mergeCell ref="A52:AB52"/>
+    <mergeCell ref="A26:BD26"/>
+    <mergeCell ref="A27:BD27"/>
+    <mergeCell ref="A1:BD1"/>
+    <mergeCell ref="A25:BD25"/>
+    <mergeCell ref="A2:BD2"/>
+    <mergeCell ref="A3:BD3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Quest.xlsx
+++ b/Quest.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/aff98139d4bac41f/文件/DL/dragalia-data-track/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="43" documentId="8_{5481D2AA-BE39-4D5C-836A-7D24C3EF9124}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{08AF62C7-0D7C-4312-B1B3-78F0217147E8}"/>
+  <xr:revisionPtr revIDLastSave="79" documentId="8_{5481D2AA-BE39-4D5C-836A-7D24C3EF9124}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{BFA4DC96-1834-4064-90AB-67FAC6EE40C8}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="24585" windowHeight="15765" xr2:uid="{5ACD922F-E2B9-468A-8DAF-19A1C97D580A}"/>
+    <workbookView xWindow="31350" yWindow="1530" windowWidth="21525" windowHeight="13500" xr2:uid="{5ACD922F-E2B9-468A-8DAF-19A1C97D580A}"/>
   </bookViews>
   <sheets>
     <sheet name="Agito A&amp;O" sheetId="1" r:id="rId1"/>
@@ -33,21 +33,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>- SS 皇女可換庫豹，用皇女的開場要吃衝，庫豹不用</t>
-  </si>
-  <si>
-    <t>- 注意燒、毒、濕、降防、靈感滿後放SS (因為網路延遲問題，看隊友放招為準)</t>
   </si>
   <si>
     <t>三葉要點</t>
   </si>
   <si>
     <t>全員要點</t>
-  </si>
-  <si>
-    <t>- 開場後退或不動，讓王衝刺的時候比較緊密，SS才有辦法一次兩隻</t>
   </si>
   <si>
     <t>- 轉P看到紫圈後變龍(本體要被打) &gt; 龍大後立刻躲牢 &gt; 普5下放龍大II &gt; 把龍弄掉 &gt;</t>
@@ -130,6 +124,21 @@
     </r>
   </si>
   <si>
+    <t>- SS 皇女 &gt; 庫豹</t>
+  </si>
+  <si>
+    <t>- P1 P2 如果沒毒，補上以後再放濕(S3)，對於打手來說，濕(S3)是信號</t>
+  </si>
+  <si>
+    <t>- 打出15C(疾風怒濤)以後再放SS</t>
+  </si>
+  <si>
+    <t>- 注意燒、毒、濕、降防、靈感滿後再放SS (因為網路延遲問題，建議看教官SS3為準)</t>
+  </si>
+  <si>
+    <t>- 開場不動，讓王衝刺的時候比較緊密，SS才有辦法一次兩隻</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="18"/>
@@ -148,8 +157,14 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> Oasis of the Maniacs - 2020/06/26 10:52 PM CDT</t>
+      <t xml:space="preserve"> Oasis of the Maniacs - 2020/06/28 8:37 AM CDT</t>
     </r>
+  </si>
+  <si>
+    <t>- 在雙子靠近時打進轉P，高機率把王的變身卡在下面</t>
+  </si>
+  <si>
+    <t>- 兩個三葉SS可以錯開的話，錯開放可以快1~2秒</t>
   </si>
 </sst>
 </file>
@@ -330,7 +345,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -365,6 +380,57 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -381,48 +447,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -448,13 +472,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>27</xdr:col>
       <xdr:colOff>188279</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -498,13 +522,13 @@
     <xdr:from>
       <xdr:col>28</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>55</xdr:col>
       <xdr:colOff>188278</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -548,13 +572,13 @@
     <xdr:from>
       <xdr:col>28</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>55</xdr:col>
       <xdr:colOff>188278</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -598,13 +622,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>27</xdr:col>
       <xdr:colOff>188278</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -947,10 +971,10 @@
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:BD54"/>
+  <dimension ref="A1:BD58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection sqref="A1:BD54"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="AC27" sqref="AC27:BD29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.85546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -959,128 +983,128 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:56" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
-        <v>17</v>
+      <c r="A1" s="31" t="s">
+        <v>20</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
-      <c r="L1" s="15"/>
-      <c r="M1" s="15"/>
-      <c r="N1" s="15"/>
-      <c r="O1" s="15"/>
-      <c r="P1" s="15"/>
-      <c r="Q1" s="15"/>
-      <c r="R1" s="15"/>
-      <c r="S1" s="15"/>
-      <c r="T1" s="15"/>
-      <c r="U1" s="15"/>
-      <c r="V1" s="15"/>
-      <c r="W1" s="15"/>
-      <c r="X1" s="15"/>
-      <c r="Y1" s="15"/>
-      <c r="Z1" s="15"/>
-      <c r="AA1" s="15"/>
-      <c r="AB1" s="15"/>
-      <c r="AC1" s="15"/>
-      <c r="AD1" s="15"/>
-      <c r="AE1" s="15"/>
-      <c r="AF1" s="15"/>
-      <c r="AG1" s="15"/>
-      <c r="AH1" s="15"/>
-      <c r="AI1" s="15"/>
-      <c r="AJ1" s="15"/>
-      <c r="AK1" s="15"/>
-      <c r="AL1" s="15"/>
-      <c r="AM1" s="15"/>
-      <c r="AN1" s="15"/>
-      <c r="AO1" s="15"/>
-      <c r="AP1" s="15"/>
-      <c r="AQ1" s="15"/>
-      <c r="AR1" s="15"/>
-      <c r="AS1" s="15"/>
-      <c r="AT1" s="15"/>
-      <c r="AU1" s="15"/>
-      <c r="AV1" s="15"/>
-      <c r="AW1" s="15"/>
-      <c r="AX1" s="15"/>
-      <c r="AY1" s="15"/>
-      <c r="AZ1" s="15"/>
-      <c r="BA1" s="15"/>
-      <c r="BB1" s="15"/>
-      <c r="BC1" s="15"/>
-      <c r="BD1" s="16"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="32"/>
+      <c r="K1" s="32"/>
+      <c r="L1" s="32"/>
+      <c r="M1" s="32"/>
+      <c r="N1" s="32"/>
+      <c r="O1" s="32"/>
+      <c r="P1" s="32"/>
+      <c r="Q1" s="32"/>
+      <c r="R1" s="32"/>
+      <c r="S1" s="32"/>
+      <c r="T1" s="32"/>
+      <c r="U1" s="32"/>
+      <c r="V1" s="32"/>
+      <c r="W1" s="32"/>
+      <c r="X1" s="32"/>
+      <c r="Y1" s="32"/>
+      <c r="Z1" s="32"/>
+      <c r="AA1" s="32"/>
+      <c r="AB1" s="32"/>
+      <c r="AC1" s="32"/>
+      <c r="AD1" s="32"/>
+      <c r="AE1" s="32"/>
+      <c r="AF1" s="32"/>
+      <c r="AG1" s="32"/>
+      <c r="AH1" s="32"/>
+      <c r="AI1" s="32"/>
+      <c r="AJ1" s="32"/>
+      <c r="AK1" s="32"/>
+      <c r="AL1" s="32"/>
+      <c r="AM1" s="32"/>
+      <c r="AN1" s="32"/>
+      <c r="AO1" s="32"/>
+      <c r="AP1" s="32"/>
+      <c r="AQ1" s="32"/>
+      <c r="AR1" s="32"/>
+      <c r="AS1" s="32"/>
+      <c r="AT1" s="32"/>
+      <c r="AU1" s="32"/>
+      <c r="AV1" s="32"/>
+      <c r="AW1" s="32"/>
+      <c r="AX1" s="32"/>
+      <c r="AY1" s="32"/>
+      <c r="AZ1" s="32"/>
+      <c r="BA1" s="32"/>
+      <c r="BB1" s="32"/>
+      <c r="BC1" s="32"/>
+      <c r="BD1" s="33"/>
     </row>
     <row r="2" spans="1:56" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="20" t="s">
-        <v>3</v>
+      <c r="A2" s="13" t="s">
+        <v>2</v>
       </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="21"/>
-      <c r="K2" s="21"/>
-      <c r="L2" s="21"/>
-      <c r="M2" s="21"/>
-      <c r="N2" s="21"/>
-      <c r="O2" s="21"/>
-      <c r="P2" s="21"/>
-      <c r="Q2" s="21"/>
-      <c r="R2" s="21"/>
-      <c r="S2" s="21"/>
-      <c r="T2" s="21"/>
-      <c r="U2" s="21"/>
-      <c r="V2" s="21"/>
-      <c r="W2" s="21"/>
-      <c r="X2" s="21"/>
-      <c r="Y2" s="21"/>
-      <c r="Z2" s="21"/>
-      <c r="AA2" s="21"/>
-      <c r="AB2" s="21"/>
-      <c r="AC2" s="21"/>
-      <c r="AD2" s="21"/>
-      <c r="AE2" s="21"/>
-      <c r="AF2" s="21"/>
-      <c r="AG2" s="21"/>
-      <c r="AH2" s="21"/>
-      <c r="AI2" s="21"/>
-      <c r="AJ2" s="21"/>
-      <c r="AK2" s="21"/>
-      <c r="AL2" s="21"/>
-      <c r="AM2" s="21"/>
-      <c r="AN2" s="21"/>
-      <c r="AO2" s="21"/>
-      <c r="AP2" s="21"/>
-      <c r="AQ2" s="21"/>
-      <c r="AR2" s="21"/>
-      <c r="AS2" s="21"/>
-      <c r="AT2" s="21"/>
-      <c r="AU2" s="21"/>
-      <c r="AV2" s="21"/>
-      <c r="AW2" s="21"/>
-      <c r="AX2" s="21"/>
-      <c r="AY2" s="21"/>
-      <c r="AZ2" s="21"/>
-      <c r="BA2" s="21"/>
-      <c r="BB2" s="21"/>
-      <c r="BC2" s="21"/>
-      <c r="BD2" s="22"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="14"/>
+      <c r="M2" s="14"/>
+      <c r="N2" s="14"/>
+      <c r="O2" s="14"/>
+      <c r="P2" s="14"/>
+      <c r="Q2" s="14"/>
+      <c r="R2" s="14"/>
+      <c r="S2" s="14"/>
+      <c r="T2" s="14"/>
+      <c r="U2" s="14"/>
+      <c r="V2" s="14"/>
+      <c r="W2" s="14"/>
+      <c r="X2" s="14"/>
+      <c r="Y2" s="14"/>
+      <c r="Z2" s="14"/>
+      <c r="AA2" s="14"/>
+      <c r="AB2" s="14"/>
+      <c r="AC2" s="14"/>
+      <c r="AD2" s="14"/>
+      <c r="AE2" s="14"/>
+      <c r="AF2" s="14"/>
+      <c r="AG2" s="14"/>
+      <c r="AH2" s="14"/>
+      <c r="AI2" s="14"/>
+      <c r="AJ2" s="14"/>
+      <c r="AK2" s="14"/>
+      <c r="AL2" s="14"/>
+      <c r="AM2" s="14"/>
+      <c r="AN2" s="14"/>
+      <c r="AO2" s="14"/>
+      <c r="AP2" s="14"/>
+      <c r="AQ2" s="14"/>
+      <c r="AR2" s="14"/>
+      <c r="AS2" s="14"/>
+      <c r="AT2" s="14"/>
+      <c r="AU2" s="14"/>
+      <c r="AV2" s="14"/>
+      <c r="AW2" s="14"/>
+      <c r="AX2" s="14"/>
+      <c r="AY2" s="14"/>
+      <c r="AZ2" s="14"/>
+      <c r="BA2" s="14"/>
+      <c r="BB2" s="14"/>
+      <c r="BC2" s="14"/>
+      <c r="BD2" s="15"/>
     </row>
     <row r="3" spans="1:56" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
-        <v>4</v>
+      <c r="A3" s="22" t="s">
+        <v>19</v>
       </c>
       <c r="B3" s="23"/>
       <c r="C3" s="23"/>
@@ -1138,66 +1162,68 @@
       <c r="BC3" s="23"/>
       <c r="BD3" s="24"/>
     </row>
-    <row r="4" spans="1:56" ht="8.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="5"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
-      <c r="O4" s="3"/>
-      <c r="P4" s="3"/>
-      <c r="Q4" s="3"/>
-      <c r="R4" s="3"/>
-      <c r="S4" s="3"/>
-      <c r="T4" s="3"/>
-      <c r="U4" s="3"/>
-      <c r="V4" s="3"/>
-      <c r="W4" s="3"/>
-      <c r="X4" s="3"/>
-      <c r="Y4" s="3"/>
-      <c r="Z4" s="3"/>
-      <c r="AA4" s="3"/>
-      <c r="AB4" s="3"/>
-      <c r="AC4" s="3"/>
-      <c r="AD4" s="3"/>
-      <c r="AE4" s="3"/>
-      <c r="AF4" s="3"/>
-      <c r="AG4" s="3"/>
-      <c r="AH4" s="3"/>
-      <c r="AI4" s="3"/>
-      <c r="AJ4" s="3"/>
-      <c r="AK4" s="3"/>
-      <c r="AL4" s="3"/>
-      <c r="AM4" s="3"/>
-      <c r="AN4" s="3"/>
-      <c r="AO4" s="3"/>
-      <c r="AP4" s="3"/>
-      <c r="AQ4" s="3"/>
-      <c r="AR4" s="3"/>
-      <c r="AS4" s="3"/>
-      <c r="AT4" s="3"/>
-      <c r="AU4" s="3"/>
-      <c r="AV4" s="3"/>
-      <c r="AW4" s="3"/>
-      <c r="AX4" s="3"/>
-      <c r="AY4" s="3"/>
-      <c r="AZ4" s="3"/>
-      <c r="BA4" s="3"/>
-      <c r="BB4" s="3"/>
-      <c r="BC4" s="3"/>
-      <c r="BD4" s="4"/>
-    </row>
-    <row r="5" spans="1:56" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
+    <row r="4" spans="1:56" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="23"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="23"/>
+      <c r="H4" s="23"/>
+      <c r="I4" s="23"/>
+      <c r="J4" s="23"/>
+      <c r="K4" s="23"/>
+      <c r="L4" s="23"/>
+      <c r="M4" s="23"/>
+      <c r="N4" s="23"/>
+      <c r="O4" s="23"/>
+      <c r="P4" s="23"/>
+      <c r="Q4" s="23"/>
+      <c r="R4" s="23"/>
+      <c r="S4" s="23"/>
+      <c r="T4" s="23"/>
+      <c r="U4" s="23"/>
+      <c r="V4" s="23"/>
+      <c r="W4" s="23"/>
+      <c r="X4" s="23"/>
+      <c r="Y4" s="23"/>
+      <c r="Z4" s="23"/>
+      <c r="AA4" s="23"/>
+      <c r="AB4" s="23"/>
+      <c r="AC4" s="23"/>
+      <c r="AD4" s="23"/>
+      <c r="AE4" s="23"/>
+      <c r="AF4" s="23"/>
+      <c r="AG4" s="23"/>
+      <c r="AH4" s="23"/>
+      <c r="AI4" s="23"/>
+      <c r="AJ4" s="23"/>
+      <c r="AK4" s="23"/>
+      <c r="AL4" s="23"/>
+      <c r="AM4" s="23"/>
+      <c r="AN4" s="23"/>
+      <c r="AO4" s="23"/>
+      <c r="AP4" s="23"/>
+      <c r="AQ4" s="23"/>
+      <c r="AR4" s="23"/>
+      <c r="AS4" s="23"/>
+      <c r="AT4" s="23"/>
+      <c r="AU4" s="23"/>
+      <c r="AV4" s="23"/>
+      <c r="AW4" s="23"/>
+      <c r="AX4" s="23"/>
+      <c r="AY4" s="23"/>
+      <c r="AZ4" s="23"/>
+      <c r="BA4" s="23"/>
+      <c r="BB4" s="23"/>
+      <c r="BC4" s="23"/>
+      <c r="BD4" s="24"/>
+    </row>
+    <row r="5" spans="1:56" ht="8.85" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="5"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
@@ -2298,7 +2324,7 @@
       <c r="BC23" s="3"/>
       <c r="BD23" s="4"/>
     </row>
-    <row r="24" spans="1:56" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:56" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -2356,359 +2382,365 @@
       <c r="BC24" s="3"/>
       <c r="BD24" s="4"/>
     </row>
-    <row r="25" spans="1:56" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="17" t="s">
-        <v>2</v>
+    <row r="25" spans="1:56" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="2"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="K25" s="3"/>
+      <c r="L25" s="3"/>
+      <c r="M25" s="3"/>
+      <c r="N25" s="3"/>
+      <c r="O25" s="3"/>
+      <c r="P25" s="3"/>
+      <c r="Q25" s="3"/>
+      <c r="R25" s="3"/>
+      <c r="S25" s="3"/>
+      <c r="T25" s="3"/>
+      <c r="U25" s="3"/>
+      <c r="V25" s="3"/>
+      <c r="W25" s="3"/>
+      <c r="X25" s="3"/>
+      <c r="Y25" s="3"/>
+      <c r="Z25" s="3"/>
+      <c r="AA25" s="3"/>
+      <c r="AB25" s="3"/>
+      <c r="AC25" s="3"/>
+      <c r="AD25" s="3"/>
+      <c r="AE25" s="3"/>
+      <c r="AF25" s="3"/>
+      <c r="AG25" s="3"/>
+      <c r="AH25" s="3"/>
+      <c r="AI25" s="3"/>
+      <c r="AJ25" s="3"/>
+      <c r="AK25" s="3"/>
+      <c r="AL25" s="3"/>
+      <c r="AM25" s="3"/>
+      <c r="AN25" s="3"/>
+      <c r="AO25" s="3"/>
+      <c r="AP25" s="3"/>
+      <c r="AQ25" s="3"/>
+      <c r="AR25" s="3"/>
+      <c r="AS25" s="3"/>
+      <c r="AT25" s="3"/>
+      <c r="AU25" s="3"/>
+      <c r="AV25" s="3"/>
+      <c r="AW25" s="3"/>
+      <c r="AX25" s="3"/>
+      <c r="AY25" s="3"/>
+      <c r="AZ25" s="3"/>
+      <c r="BA25" s="3"/>
+      <c r="BB25" s="3"/>
+      <c r="BC25" s="3"/>
+      <c r="BD25" s="4"/>
+    </row>
+    <row r="26" spans="1:56" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="20" t="s">
+        <v>1</v>
       </c>
-      <c r="B25" s="18"/>
-      <c r="C25" s="18"/>
-      <c r="D25" s="18"/>
-      <c r="E25" s="18"/>
-      <c r="F25" s="18"/>
-      <c r="G25" s="18"/>
-      <c r="H25" s="18"/>
-      <c r="I25" s="18"/>
-      <c r="J25" s="18"/>
-      <c r="K25" s="18"/>
-      <c r="L25" s="18"/>
-      <c r="M25" s="18"/>
-      <c r="N25" s="18"/>
-      <c r="O25" s="18"/>
-      <c r="P25" s="18"/>
-      <c r="Q25" s="18"/>
-      <c r="R25" s="18"/>
-      <c r="S25" s="18"/>
-      <c r="T25" s="18"/>
-      <c r="U25" s="18"/>
-      <c r="V25" s="18"/>
-      <c r="W25" s="18"/>
-      <c r="X25" s="18"/>
-      <c r="Y25" s="18"/>
-      <c r="Z25" s="18"/>
-      <c r="AA25" s="18"/>
-      <c r="AB25" s="18"/>
-      <c r="AC25" s="18"/>
-      <c r="AD25" s="18"/>
-      <c r="AE25" s="18"/>
-      <c r="AF25" s="18"/>
-      <c r="AG25" s="18"/>
-      <c r="AH25" s="18"/>
-      <c r="AI25" s="18"/>
-      <c r="AJ25" s="18"/>
-      <c r="AK25" s="18"/>
-      <c r="AL25" s="18"/>
-      <c r="AM25" s="18"/>
-      <c r="AN25" s="18"/>
-      <c r="AO25" s="18"/>
-      <c r="AP25" s="18"/>
-      <c r="AQ25" s="18"/>
-      <c r="AR25" s="18"/>
-      <c r="AS25" s="18"/>
-      <c r="AT25" s="18"/>
-      <c r="AU25" s="18"/>
-      <c r="AV25" s="18"/>
-      <c r="AW25" s="18"/>
-      <c r="AX25" s="18"/>
-      <c r="AY25" s="18"/>
-      <c r="AZ25" s="18"/>
-      <c r="BA25" s="18"/>
-      <c r="BB25" s="18"/>
-      <c r="BC25" s="18"/>
-      <c r="BD25" s="19"/>
-    </row>
-    <row r="26" spans="1:56" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="11" t="s">
+      <c r="B26" s="20"/>
+      <c r="C26" s="20"/>
+      <c r="D26" s="20"/>
+      <c r="E26" s="20"/>
+      <c r="F26" s="20"/>
+      <c r="G26" s="20"/>
+      <c r="H26" s="20"/>
+      <c r="I26" s="20"/>
+      <c r="J26" s="20"/>
+      <c r="K26" s="20"/>
+      <c r="L26" s="20"/>
+      <c r="M26" s="20"/>
+      <c r="N26" s="20"/>
+      <c r="O26" s="20"/>
+      <c r="P26" s="20"/>
+      <c r="Q26" s="20"/>
+      <c r="R26" s="20"/>
+      <c r="S26" s="20"/>
+      <c r="T26" s="20"/>
+      <c r="U26" s="20"/>
+      <c r="V26" s="20"/>
+      <c r="W26" s="20"/>
+      <c r="X26" s="20"/>
+      <c r="Y26" s="20"/>
+      <c r="Z26" s="20"/>
+      <c r="AA26" s="20"/>
+      <c r="AB26" s="20"/>
+      <c r="AC26" s="20"/>
+      <c r="AD26" s="20"/>
+      <c r="AE26" s="20"/>
+      <c r="AF26" s="20"/>
+      <c r="AG26" s="20"/>
+      <c r="AH26" s="20"/>
+      <c r="AI26" s="20"/>
+      <c r="AJ26" s="20"/>
+      <c r="AK26" s="20"/>
+      <c r="AL26" s="20"/>
+      <c r="AM26" s="20"/>
+      <c r="AN26" s="20"/>
+      <c r="AO26" s="20"/>
+      <c r="AP26" s="20"/>
+      <c r="AQ26" s="20"/>
+      <c r="AR26" s="20"/>
+      <c r="AS26" s="20"/>
+      <c r="AT26" s="20"/>
+      <c r="AU26" s="20"/>
+      <c r="AV26" s="20"/>
+      <c r="AW26" s="20"/>
+      <c r="AX26" s="20"/>
+      <c r="AY26" s="20"/>
+      <c r="AZ26" s="20"/>
+      <c r="BA26" s="20"/>
+      <c r="BB26" s="20"/>
+      <c r="BC26" s="20"/>
+      <c r="BD26" s="21"/>
+    </row>
+    <row r="27" spans="1:56" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B26" s="12"/>
-      <c r="C26" s="12"/>
-      <c r="D26" s="12"/>
-      <c r="E26" s="12"/>
-      <c r="F26" s="12"/>
-      <c r="G26" s="12"/>
-      <c r="H26" s="12"/>
-      <c r="I26" s="12"/>
-      <c r="J26" s="12"/>
-      <c r="K26" s="12"/>
-      <c r="L26" s="12"/>
-      <c r="M26" s="12"/>
-      <c r="N26" s="12"/>
-      <c r="O26" s="12"/>
-      <c r="P26" s="12"/>
-      <c r="Q26" s="12"/>
-      <c r="R26" s="12"/>
-      <c r="S26" s="12"/>
-      <c r="T26" s="12"/>
-      <c r="U26" s="12"/>
-      <c r="V26" s="12"/>
-      <c r="W26" s="12"/>
-      <c r="X26" s="12"/>
-      <c r="Y26" s="12"/>
-      <c r="Z26" s="12"/>
-      <c r="AA26" s="12"/>
-      <c r="AB26" s="12"/>
-      <c r="AC26" s="12"/>
-      <c r="AD26" s="12"/>
-      <c r="AE26" s="12"/>
-      <c r="AF26" s="12"/>
-      <c r="AG26" s="12"/>
-      <c r="AH26" s="12"/>
-      <c r="AI26" s="12"/>
-      <c r="AJ26" s="12"/>
-      <c r="AK26" s="12"/>
-      <c r="AL26" s="12"/>
-      <c r="AM26" s="12"/>
-      <c r="AN26" s="12"/>
-      <c r="AO26" s="12"/>
-      <c r="AP26" s="12"/>
-      <c r="AQ26" s="12"/>
-      <c r="AR26" s="12"/>
-      <c r="AS26" s="12"/>
-      <c r="AT26" s="12"/>
-      <c r="AU26" s="12"/>
-      <c r="AV26" s="12"/>
-      <c r="AW26" s="12"/>
-      <c r="AX26" s="12"/>
-      <c r="AY26" s="12"/>
-      <c r="AZ26" s="12"/>
-      <c r="BA26" s="12"/>
-      <c r="BB26" s="12"/>
-      <c r="BC26" s="12"/>
-      <c r="BD26" s="13"/>
-    </row>
-    <row r="27" spans="1:56" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="11" t="s">
-        <v>1</v>
+      <c r="B27" s="29"/>
+      <c r="C27" s="29"/>
+      <c r="D27" s="29"/>
+      <c r="E27" s="29"/>
+      <c r="F27" s="29"/>
+      <c r="G27" s="29"/>
+      <c r="H27" s="29"/>
+      <c r="I27" s="29"/>
+      <c r="J27" s="29"/>
+      <c r="K27" s="29"/>
+      <c r="L27" s="29"/>
+      <c r="M27" s="29"/>
+      <c r="N27" s="29"/>
+      <c r="O27" s="29"/>
+      <c r="P27" s="29"/>
+      <c r="Q27" s="29"/>
+      <c r="R27" s="29"/>
+      <c r="S27" s="29"/>
+      <c r="T27" s="29"/>
+      <c r="U27" s="29"/>
+      <c r="V27" s="29"/>
+      <c r="W27" s="29"/>
+      <c r="X27" s="29"/>
+      <c r="Y27" s="29"/>
+      <c r="Z27" s="29"/>
+      <c r="AA27" s="29"/>
+      <c r="AB27" s="29"/>
+      <c r="AC27" s="29" t="s">
+        <v>18</v>
       </c>
-      <c r="B27" s="12"/>
-      <c r="C27" s="12"/>
-      <c r="D27" s="12"/>
-      <c r="E27" s="12"/>
-      <c r="F27" s="12"/>
-      <c r="G27" s="12"/>
-      <c r="H27" s="12"/>
-      <c r="I27" s="12"/>
-      <c r="J27" s="12"/>
-      <c r="K27" s="12"/>
-      <c r="L27" s="12"/>
-      <c r="M27" s="12"/>
-      <c r="N27" s="12"/>
-      <c r="O27" s="12"/>
-      <c r="P27" s="12"/>
-      <c r="Q27" s="12"/>
-      <c r="R27" s="12"/>
-      <c r="S27" s="12"/>
-      <c r="T27" s="12"/>
-      <c r="U27" s="12"/>
-      <c r="V27" s="12"/>
-      <c r="W27" s="12"/>
-      <c r="X27" s="12"/>
-      <c r="Y27" s="12"/>
-      <c r="Z27" s="12"/>
-      <c r="AA27" s="12"/>
-      <c r="AB27" s="12"/>
-      <c r="AC27" s="12"/>
-      <c r="AD27" s="12"/>
-      <c r="AE27" s="12"/>
-      <c r="AF27" s="12"/>
-      <c r="AG27" s="12"/>
-      <c r="AH27" s="12"/>
-      <c r="AI27" s="12"/>
-      <c r="AJ27" s="12"/>
-      <c r="AK27" s="12"/>
-      <c r="AL27" s="12"/>
-      <c r="AM27" s="12"/>
-      <c r="AN27" s="12"/>
-      <c r="AO27" s="12"/>
-      <c r="AP27" s="12"/>
-      <c r="AQ27" s="12"/>
-      <c r="AR27" s="12"/>
-      <c r="AS27" s="12"/>
-      <c r="AT27" s="12"/>
-      <c r="AU27" s="12"/>
-      <c r="AV27" s="12"/>
-      <c r="AW27" s="12"/>
-      <c r="AX27" s="12"/>
-      <c r="AY27" s="12"/>
-      <c r="AZ27" s="12"/>
-      <c r="BA27" s="12"/>
-      <c r="BB27" s="12"/>
-      <c r="BC27" s="12"/>
-      <c r="BD27" s="13"/>
+      <c r="AD27" s="29"/>
+      <c r="AE27" s="29"/>
+      <c r="AF27" s="29"/>
+      <c r="AG27" s="29"/>
+      <c r="AH27" s="29"/>
+      <c r="AI27" s="29"/>
+      <c r="AJ27" s="29"/>
+      <c r="AK27" s="29"/>
+      <c r="AL27" s="29"/>
+      <c r="AM27" s="29"/>
+      <c r="AN27" s="29"/>
+      <c r="AO27" s="29"/>
+      <c r="AP27" s="29"/>
+      <c r="AQ27" s="29"/>
+      <c r="AR27" s="29"/>
+      <c r="AS27" s="29"/>
+      <c r="AT27" s="29"/>
+      <c r="AU27" s="29"/>
+      <c r="AV27" s="29"/>
+      <c r="AW27" s="29"/>
+      <c r="AX27" s="29"/>
+      <c r="AY27" s="29"/>
+      <c r="AZ27" s="29"/>
+      <c r="BA27" s="29"/>
+      <c r="BB27" s="29"/>
+      <c r="BC27" s="29"/>
+      <c r="BD27" s="30"/>
     </row>
     <row r="28" spans="1:56" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="5"/>
-      <c r="B28" s="6"/>
-      <c r="C28" s="6"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="6"/>
-      <c r="F28" s="6"/>
-      <c r="G28" s="6"/>
-      <c r="H28" s="6"/>
-      <c r="I28" s="6"/>
-      <c r="J28" s="6"/>
-      <c r="K28" s="6"/>
-      <c r="L28" s="6"/>
-      <c r="M28" s="6"/>
-      <c r="N28" s="6"/>
-      <c r="O28" s="6"/>
-      <c r="P28" s="6"/>
-      <c r="Q28" s="6"/>
-      <c r="R28" s="6"/>
-      <c r="S28" s="6"/>
-      <c r="T28" s="6"/>
-      <c r="U28" s="6"/>
-      <c r="V28" s="6"/>
-      <c r="W28" s="6"/>
-      <c r="X28" s="6"/>
-      <c r="Y28" s="6"/>
-      <c r="Z28" s="6"/>
-      <c r="AA28" s="6"/>
-      <c r="AB28" s="6"/>
-      <c r="AC28" s="6"/>
-      <c r="AD28" s="6"/>
-      <c r="AE28" s="6"/>
-      <c r="AF28" s="6"/>
-      <c r="AG28" s="6"/>
-      <c r="AH28" s="6"/>
-      <c r="AI28" s="6"/>
-      <c r="AJ28" s="6"/>
-      <c r="AK28" s="6"/>
-      <c r="AL28" s="6"/>
-      <c r="AM28" s="6"/>
-      <c r="AN28" s="6"/>
-      <c r="AO28" s="6"/>
-      <c r="AP28" s="6"/>
-      <c r="AQ28" s="6"/>
-      <c r="AR28" s="6"/>
-      <c r="AS28" s="6"/>
-      <c r="AT28" s="6"/>
-      <c r="AU28" s="6"/>
-      <c r="AV28" s="6"/>
-      <c r="AW28" s="6"/>
-      <c r="AX28" s="6"/>
-      <c r="AY28" s="6"/>
-      <c r="AZ28" s="6"/>
-      <c r="BA28" s="6"/>
-      <c r="BB28" s="6"/>
-      <c r="BC28" s="6"/>
-      <c r="BD28" s="7"/>
+      <c r="A28" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="B28" s="29"/>
+      <c r="C28" s="29"/>
+      <c r="D28" s="29"/>
+      <c r="E28" s="29"/>
+      <c r="F28" s="29"/>
+      <c r="G28" s="29"/>
+      <c r="H28" s="29"/>
+      <c r="I28" s="29"/>
+      <c r="J28" s="29"/>
+      <c r="K28" s="29"/>
+      <c r="L28" s="29"/>
+      <c r="M28" s="29"/>
+      <c r="N28" s="29"/>
+      <c r="O28" s="29"/>
+      <c r="P28" s="29"/>
+      <c r="Q28" s="29"/>
+      <c r="R28" s="29"/>
+      <c r="S28" s="29"/>
+      <c r="T28" s="29"/>
+      <c r="U28" s="29"/>
+      <c r="V28" s="29"/>
+      <c r="W28" s="29"/>
+      <c r="X28" s="29"/>
+      <c r="Y28" s="29"/>
+      <c r="Z28" s="29"/>
+      <c r="AA28" s="29"/>
+      <c r="AB28" s="29"/>
+      <c r="AC28" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="AD28" s="29"/>
+      <c r="AE28" s="29"/>
+      <c r="AF28" s="29"/>
+      <c r="AG28" s="29"/>
+      <c r="AH28" s="29"/>
+      <c r="AI28" s="29"/>
+      <c r="AJ28" s="29"/>
+      <c r="AK28" s="29"/>
+      <c r="AL28" s="29"/>
+      <c r="AM28" s="29"/>
+      <c r="AN28" s="29"/>
+      <c r="AO28" s="29"/>
+      <c r="AP28" s="29"/>
+      <c r="AQ28" s="29"/>
+      <c r="AR28" s="29"/>
+      <c r="AS28" s="29"/>
+      <c r="AT28" s="29"/>
+      <c r="AU28" s="29"/>
+      <c r="AV28" s="29"/>
+      <c r="AW28" s="29"/>
+      <c r="AX28" s="29"/>
+      <c r="AY28" s="29"/>
+      <c r="AZ28" s="29"/>
+      <c r="BA28" s="29"/>
+      <c r="BB28" s="29"/>
+      <c r="BC28" s="29"/>
+      <c r="BD28" s="30"/>
     </row>
     <row r="29" spans="1:56" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="2"/>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
-      <c r="J29" s="3"/>
-      <c r="K29" s="3"/>
-      <c r="L29" s="3"/>
-      <c r="M29" s="3"/>
-      <c r="N29" s="3"/>
-      <c r="O29" s="3"/>
-      <c r="P29" s="3"/>
-      <c r="Q29" s="3"/>
-      <c r="R29" s="3"/>
-      <c r="S29" s="3"/>
-      <c r="T29" s="3"/>
-      <c r="U29" s="3"/>
-      <c r="V29" s="3"/>
-      <c r="W29" s="3"/>
-      <c r="X29" s="3"/>
-      <c r="Y29" s="3"/>
-      <c r="Z29" s="3"/>
-      <c r="AA29" s="3"/>
-      <c r="AB29" s="3"/>
-      <c r="AC29" s="3"/>
-      <c r="AD29" s="3"/>
-      <c r="AE29" s="3"/>
-      <c r="AF29" s="3"/>
-      <c r="AG29" s="3"/>
-      <c r="AH29" s="3"/>
-      <c r="AI29" s="3"/>
-      <c r="AJ29" s="3"/>
-      <c r="AK29" s="3"/>
-      <c r="AL29" s="3"/>
-      <c r="AM29" s="3"/>
-      <c r="AN29" s="3"/>
-      <c r="AO29" s="3"/>
-      <c r="AP29" s="3"/>
-      <c r="AQ29" s="3"/>
-      <c r="AR29" s="3"/>
-      <c r="AS29" s="3"/>
-      <c r="AT29" s="3"/>
-      <c r="AU29" s="3"/>
-      <c r="AV29" s="3"/>
-      <c r="AW29" s="3"/>
-      <c r="AX29" s="3"/>
-      <c r="AY29" s="3"/>
-      <c r="AZ29" s="3"/>
-      <c r="BA29" s="3"/>
-      <c r="BB29" s="3"/>
-      <c r="BC29" s="3"/>
-      <c r="BD29" s="4"/>
+      <c r="A29" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="B29" s="29"/>
+      <c r="C29" s="29"/>
+      <c r="D29" s="29"/>
+      <c r="E29" s="29"/>
+      <c r="F29" s="29"/>
+      <c r="G29" s="29"/>
+      <c r="H29" s="29"/>
+      <c r="I29" s="29"/>
+      <c r="J29" s="29"/>
+      <c r="K29" s="29"/>
+      <c r="L29" s="29"/>
+      <c r="M29" s="29"/>
+      <c r="N29" s="29"/>
+      <c r="O29" s="29"/>
+      <c r="P29" s="29"/>
+      <c r="Q29" s="29"/>
+      <c r="R29" s="29"/>
+      <c r="S29" s="29"/>
+      <c r="T29" s="29"/>
+      <c r="U29" s="29"/>
+      <c r="V29" s="29"/>
+      <c r="W29" s="29"/>
+      <c r="X29" s="29"/>
+      <c r="Y29" s="29"/>
+      <c r="Z29" s="29"/>
+      <c r="AA29" s="29"/>
+      <c r="AB29" s="29"/>
+      <c r="AC29" s="29"/>
+      <c r="AD29" s="29"/>
+      <c r="AE29" s="29"/>
+      <c r="AF29" s="29"/>
+      <c r="AG29" s="29"/>
+      <c r="AH29" s="29"/>
+      <c r="AI29" s="29"/>
+      <c r="AJ29" s="29"/>
+      <c r="AK29" s="29"/>
+      <c r="AL29" s="29"/>
+      <c r="AM29" s="29"/>
+      <c r="AN29" s="29"/>
+      <c r="AO29" s="29"/>
+      <c r="AP29" s="29"/>
+      <c r="AQ29" s="29"/>
+      <c r="AR29" s="29"/>
+      <c r="AS29" s="29"/>
+      <c r="AT29" s="29"/>
+      <c r="AU29" s="29"/>
+      <c r="AV29" s="29"/>
+      <c r="AW29" s="29"/>
+      <c r="AX29" s="29"/>
+      <c r="AY29" s="29"/>
+      <c r="AZ29" s="29"/>
+      <c r="BA29" s="29"/>
+      <c r="BB29" s="29"/>
+      <c r="BC29" s="29"/>
+      <c r="BD29" s="30"/>
     </row>
     <row r="30" spans="1:56" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="2"/>
-      <c r="B30" s="3"/>
-      <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="3"/>
-      <c r="G30" s="3"/>
-      <c r="H30" s="3"/>
-      <c r="I30" s="3"/>
-      <c r="J30" s="3"/>
-      <c r="K30" s="3"/>
-      <c r="L30" s="3"/>
-      <c r="M30" s="3"/>
-      <c r="N30" s="3"/>
-      <c r="O30" s="3"/>
-      <c r="P30" s="3"/>
-      <c r="Q30" s="3"/>
-      <c r="R30" s="3"/>
-      <c r="S30" s="3"/>
-      <c r="T30" s="3"/>
-      <c r="U30" s="3"/>
-      <c r="V30" s="3"/>
-      <c r="W30" s="3"/>
-      <c r="X30" s="3"/>
-      <c r="Y30" s="3"/>
-      <c r="Z30" s="3"/>
-      <c r="AA30" s="3"/>
-      <c r="AB30" s="3"/>
-      <c r="AC30" s="3"/>
-      <c r="AD30" s="3"/>
-      <c r="AE30" s="3"/>
-      <c r="AF30" s="3"/>
-      <c r="AG30" s="3"/>
-      <c r="AH30" s="3"/>
-      <c r="AI30" s="3"/>
-      <c r="AJ30" s="3"/>
-      <c r="AK30" s="3"/>
-      <c r="AL30" s="3"/>
-      <c r="AM30" s="3"/>
-      <c r="AN30" s="3"/>
-      <c r="AO30" s="3"/>
-      <c r="AP30" s="3"/>
-      <c r="AQ30" s="3"/>
-      <c r="AR30" s="3"/>
-      <c r="AS30" s="3"/>
-      <c r="AT30" s="3"/>
-      <c r="AU30" s="3"/>
-      <c r="AV30" s="3"/>
-      <c r="AW30" s="3"/>
-      <c r="AX30" s="3"/>
-      <c r="AY30" s="3"/>
-      <c r="AZ30" s="3"/>
-      <c r="BA30" s="3"/>
-      <c r="BB30" s="3"/>
-      <c r="BC30" s="3"/>
-      <c r="BD30" s="4"/>
+      <c r="A30" s="5"/>
+      <c r="B30" s="6"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="6"/>
+      <c r="H30" s="6"/>
+      <c r="I30" s="6"/>
+      <c r="J30" s="6"/>
+      <c r="K30" s="6"/>
+      <c r="L30" s="6"/>
+      <c r="M30" s="6"/>
+      <c r="N30" s="6"/>
+      <c r="O30" s="6"/>
+      <c r="P30" s="6"/>
+      <c r="Q30" s="6"/>
+      <c r="R30" s="6"/>
+      <c r="S30" s="6"/>
+      <c r="T30" s="6"/>
+      <c r="U30" s="6"/>
+      <c r="V30" s="6"/>
+      <c r="W30" s="6"/>
+      <c r="X30" s="6"/>
+      <c r="Y30" s="6"/>
+      <c r="Z30" s="6"/>
+      <c r="AA30" s="6"/>
+      <c r="AB30" s="6"/>
+      <c r="AC30" s="6"/>
+      <c r="AD30" s="6"/>
+      <c r="AE30" s="6"/>
+      <c r="AF30" s="6"/>
+      <c r="AG30" s="6"/>
+      <c r="AH30" s="6"/>
+      <c r="AI30" s="6"/>
+      <c r="AJ30" s="6"/>
+      <c r="AK30" s="6"/>
+      <c r="AL30" s="6"/>
+      <c r="AM30" s="6"/>
+      <c r="AN30" s="6"/>
+      <c r="AO30" s="6"/>
+      <c r="AP30" s="6"/>
+      <c r="AQ30" s="6"/>
+      <c r="AR30" s="6"/>
+      <c r="AS30" s="6"/>
+      <c r="AT30" s="6"/>
+      <c r="AU30" s="6"/>
+      <c r="AV30" s="6"/>
+      <c r="AW30" s="6"/>
+      <c r="AX30" s="6"/>
+      <c r="AY30" s="6"/>
+      <c r="AZ30" s="6"/>
+      <c r="BA30" s="6"/>
+      <c r="BB30" s="6"/>
+      <c r="BC30" s="6"/>
+      <c r="BD30" s="7"/>
     </row>
     <row r="31" spans="1:56" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2"/>
@@ -3696,456 +3728,698 @@
       <c r="BC47" s="3"/>
       <c r="BD47" s="4"/>
     </row>
-    <row r="48" spans="1:56" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="8"/>
-      <c r="B48" s="9"/>
-      <c r="C48" s="9"/>
-      <c r="D48" s="9"/>
-      <c r="E48" s="9"/>
-      <c r="F48" s="9"/>
-      <c r="G48" s="9"/>
-      <c r="H48" s="9"/>
-      <c r="I48" s="9"/>
-      <c r="J48" s="9"/>
-      <c r="K48" s="9"/>
-      <c r="L48" s="9"/>
-      <c r="M48" s="9"/>
-      <c r="N48" s="9"/>
-      <c r="O48" s="9"/>
-      <c r="P48" s="9"/>
-      <c r="Q48" s="9"/>
-      <c r="R48" s="9"/>
-      <c r="S48" s="9"/>
-      <c r="T48" s="9"/>
-      <c r="U48" s="9"/>
-      <c r="V48" s="9"/>
-      <c r="W48" s="9"/>
-      <c r="X48" s="9"/>
-      <c r="Y48" s="9"/>
-      <c r="Z48" s="9"/>
-      <c r="AA48" s="9"/>
-      <c r="AB48" s="10"/>
-      <c r="AC48" s="8"/>
-      <c r="AD48" s="9"/>
-      <c r="AE48" s="9"/>
-      <c r="AF48" s="9"/>
-      <c r="AG48" s="9"/>
-      <c r="AH48" s="9"/>
-      <c r="AI48" s="9"/>
-      <c r="AJ48" s="9"/>
-      <c r="AK48" s="9"/>
-      <c r="AL48" s="9"/>
-      <c r="AM48" s="9"/>
-      <c r="AN48" s="9"/>
-      <c r="AO48" s="9"/>
-      <c r="AP48" s="9"/>
-      <c r="AQ48" s="9"/>
-      <c r="AR48" s="9"/>
-      <c r="AS48" s="9"/>
-      <c r="AT48" s="9"/>
-      <c r="AU48" s="9"/>
-      <c r="AV48" s="9"/>
-      <c r="AW48" s="9"/>
-      <c r="AX48" s="9"/>
-      <c r="AY48" s="9"/>
-      <c r="AZ48" s="9"/>
-      <c r="BA48" s="9"/>
-      <c r="BB48" s="9"/>
-      <c r="BC48" s="9"/>
-      <c r="BD48" s="10"/>
+    <row r="48" spans="1:56" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="2"/>
+      <c r="B48" s="3"/>
+      <c r="C48" s="3"/>
+      <c r="D48" s="3"/>
+      <c r="E48" s="3"/>
+      <c r="F48" s="3"/>
+      <c r="G48" s="3"/>
+      <c r="H48" s="3"/>
+      <c r="I48" s="3"/>
+      <c r="J48" s="3"/>
+      <c r="K48" s="3"/>
+      <c r="L48" s="3"/>
+      <c r="M48" s="3"/>
+      <c r="N48" s="3"/>
+      <c r="O48" s="3"/>
+      <c r="P48" s="3"/>
+      <c r="Q48" s="3"/>
+      <c r="R48" s="3"/>
+      <c r="S48" s="3"/>
+      <c r="T48" s="3"/>
+      <c r="U48" s="3"/>
+      <c r="V48" s="3"/>
+      <c r="W48" s="3"/>
+      <c r="X48" s="3"/>
+      <c r="Y48" s="3"/>
+      <c r="Z48" s="3"/>
+      <c r="AA48" s="3"/>
+      <c r="AB48" s="3"/>
+      <c r="AC48" s="3"/>
+      <c r="AD48" s="3"/>
+      <c r="AE48" s="3"/>
+      <c r="AF48" s="3"/>
+      <c r="AG48" s="3"/>
+      <c r="AH48" s="3"/>
+      <c r="AI48" s="3"/>
+      <c r="AJ48" s="3"/>
+      <c r="AK48" s="3"/>
+      <c r="AL48" s="3"/>
+      <c r="AM48" s="3"/>
+      <c r="AN48" s="3"/>
+      <c r="AO48" s="3"/>
+      <c r="AP48" s="3"/>
+      <c r="AQ48" s="3"/>
+      <c r="AR48" s="3"/>
+      <c r="AS48" s="3"/>
+      <c r="AT48" s="3"/>
+      <c r="AU48" s="3"/>
+      <c r="AV48" s="3"/>
+      <c r="AW48" s="3"/>
+      <c r="AX48" s="3"/>
+      <c r="AY48" s="3"/>
+      <c r="AZ48" s="3"/>
+      <c r="BA48" s="3"/>
+      <c r="BB48" s="3"/>
+      <c r="BC48" s="3"/>
+      <c r="BD48" s="4"/>
     </row>
     <row r="49" spans="1:56" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="17" t="s">
+      <c r="A49" s="2"/>
+      <c r="B49" s="3"/>
+      <c r="C49" s="3"/>
+      <c r="D49" s="3"/>
+      <c r="E49" s="3"/>
+      <c r="F49" s="3"/>
+      <c r="G49" s="3"/>
+      <c r="H49" s="3"/>
+      <c r="I49" s="3"/>
+      <c r="J49" s="3"/>
+      <c r="K49" s="3"/>
+      <c r="L49" s="3"/>
+      <c r="M49" s="3"/>
+      <c r="N49" s="3"/>
+      <c r="O49" s="3"/>
+      <c r="P49" s="3"/>
+      <c r="Q49" s="3"/>
+      <c r="R49" s="3"/>
+      <c r="S49" s="3"/>
+      <c r="T49" s="3"/>
+      <c r="U49" s="3"/>
+      <c r="V49" s="3"/>
+      <c r="W49" s="3"/>
+      <c r="X49" s="3"/>
+      <c r="Y49" s="3"/>
+      <c r="Z49" s="3"/>
+      <c r="AA49" s="3"/>
+      <c r="AB49" s="3"/>
+      <c r="AC49" s="3"/>
+      <c r="AD49" s="3"/>
+      <c r="AE49" s="3"/>
+      <c r="AF49" s="3"/>
+      <c r="AG49" s="3"/>
+      <c r="AH49" s="3"/>
+      <c r="AI49" s="3"/>
+      <c r="AJ49" s="3"/>
+      <c r="AK49" s="3"/>
+      <c r="AL49" s="3"/>
+      <c r="AM49" s="3"/>
+      <c r="AN49" s="3"/>
+      <c r="AO49" s="3"/>
+      <c r="AP49" s="3"/>
+      <c r="AQ49" s="3"/>
+      <c r="AR49" s="3"/>
+      <c r="AS49" s="3"/>
+      <c r="AT49" s="3"/>
+      <c r="AU49" s="3"/>
+      <c r="AV49" s="3"/>
+      <c r="AW49" s="3"/>
+      <c r="AX49" s="3"/>
+      <c r="AY49" s="3"/>
+      <c r="AZ49" s="3"/>
+      <c r="BA49" s="3"/>
+      <c r="BB49" s="3"/>
+      <c r="BC49" s="3"/>
+      <c r="BD49" s="4"/>
+    </row>
+    <row r="50" spans="1:56" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="8"/>
+      <c r="B50" s="9"/>
+      <c r="C50" s="9"/>
+      <c r="D50" s="9"/>
+      <c r="E50" s="9"/>
+      <c r="F50" s="9"/>
+      <c r="G50" s="9"/>
+      <c r="H50" s="9"/>
+      <c r="I50" s="9"/>
+      <c r="J50" s="9"/>
+      <c r="K50" s="9"/>
+      <c r="L50" s="9"/>
+      <c r="M50" s="9"/>
+      <c r="N50" s="9"/>
+      <c r="O50" s="9"/>
+      <c r="P50" s="9"/>
+      <c r="Q50" s="9"/>
+      <c r="R50" s="9"/>
+      <c r="S50" s="9"/>
+      <c r="T50" s="9"/>
+      <c r="U50" s="9"/>
+      <c r="V50" s="9"/>
+      <c r="W50" s="9"/>
+      <c r="X50" s="9"/>
+      <c r="Y50" s="9"/>
+      <c r="Z50" s="9"/>
+      <c r="AA50" s="9"/>
+      <c r="AB50" s="9"/>
+      <c r="AC50" s="8"/>
+      <c r="AD50" s="9"/>
+      <c r="AE50" s="9"/>
+      <c r="AF50" s="9"/>
+      <c r="AG50" s="9"/>
+      <c r="AH50" s="9"/>
+      <c r="AI50" s="9"/>
+      <c r="AJ50" s="9"/>
+      <c r="AK50" s="9"/>
+      <c r="AL50" s="9"/>
+      <c r="AM50" s="9"/>
+      <c r="AN50" s="9"/>
+      <c r="AO50" s="9"/>
+      <c r="AP50" s="9"/>
+      <c r="AQ50" s="9"/>
+      <c r="AR50" s="9"/>
+      <c r="AS50" s="9"/>
+      <c r="AT50" s="9"/>
+      <c r="AU50" s="9"/>
+      <c r="AV50" s="9"/>
+      <c r="AW50" s="9"/>
+      <c r="AX50" s="9"/>
+      <c r="AY50" s="9"/>
+      <c r="AZ50" s="9"/>
+      <c r="BA50" s="9"/>
+      <c r="BB50" s="9"/>
+      <c r="BC50" s="9"/>
+      <c r="BD50" s="10"/>
+    </row>
+    <row r="51" spans="1:56" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="B51" s="20"/>
+      <c r="C51" s="20"/>
+      <c r="D51" s="20"/>
+      <c r="E51" s="20"/>
+      <c r="F51" s="20"/>
+      <c r="G51" s="20"/>
+      <c r="H51" s="20"/>
+      <c r="I51" s="20"/>
+      <c r="J51" s="20"/>
+      <c r="K51" s="20"/>
+      <c r="L51" s="20"/>
+      <c r="M51" s="20"/>
+      <c r="N51" s="20"/>
+      <c r="O51" s="20"/>
+      <c r="P51" s="20"/>
+      <c r="Q51" s="20"/>
+      <c r="R51" s="20"/>
+      <c r="S51" s="20"/>
+      <c r="T51" s="20"/>
+      <c r="U51" s="20"/>
+      <c r="V51" s="20"/>
+      <c r="W51" s="20"/>
+      <c r="X51" s="20"/>
+      <c r="Y51" s="20"/>
+      <c r="Z51" s="20"/>
+      <c r="AA51" s="20"/>
+      <c r="AB51" s="20"/>
+      <c r="AC51" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD51" s="20"/>
+      <c r="AE51" s="20"/>
+      <c r="AF51" s="20"/>
+      <c r="AG51" s="20"/>
+      <c r="AH51" s="20"/>
+      <c r="AI51" s="20"/>
+      <c r="AJ51" s="20"/>
+      <c r="AK51" s="20"/>
+      <c r="AL51" s="20"/>
+      <c r="AM51" s="20"/>
+      <c r="AN51" s="20"/>
+      <c r="AO51" s="20"/>
+      <c r="AP51" s="20"/>
+      <c r="AQ51" s="20"/>
+      <c r="AR51" s="20"/>
+      <c r="AS51" s="20"/>
+      <c r="AT51" s="20"/>
+      <c r="AU51" s="20"/>
+      <c r="AV51" s="20"/>
+      <c r="AW51" s="20"/>
+      <c r="AX51" s="20"/>
+      <c r="AY51" s="20"/>
+      <c r="AZ51" s="20"/>
+      <c r="BA51" s="20"/>
+      <c r="BB51" s="20"/>
+      <c r="BC51" s="20"/>
+      <c r="BD51" s="21"/>
+    </row>
+    <row r="52" spans="1:56" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="B52" s="23"/>
+      <c r="C52" s="23"/>
+      <c r="D52" s="23"/>
+      <c r="E52" s="23"/>
+      <c r="F52" s="23"/>
+      <c r="G52" s="23"/>
+      <c r="H52" s="23"/>
+      <c r="I52" s="23"/>
+      <c r="J52" s="23"/>
+      <c r="K52" s="23"/>
+      <c r="L52" s="23"/>
+      <c r="M52" s="23"/>
+      <c r="N52" s="23"/>
+      <c r="O52" s="23"/>
+      <c r="P52" s="23"/>
+      <c r="Q52" s="23"/>
+      <c r="R52" s="23"/>
+      <c r="S52" s="23"/>
+      <c r="T52" s="23"/>
+      <c r="U52" s="23"/>
+      <c r="V52" s="23"/>
+      <c r="W52" s="23"/>
+      <c r="X52" s="23"/>
+      <c r="Y52" s="23"/>
+      <c r="Z52" s="23"/>
+      <c r="AA52" s="23"/>
+      <c r="AB52" s="23"/>
+      <c r="AC52" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD52" s="23"/>
+      <c r="AE52" s="23"/>
+      <c r="AF52" s="23"/>
+      <c r="AG52" s="23"/>
+      <c r="AH52" s="23"/>
+      <c r="AI52" s="23"/>
+      <c r="AJ52" s="23"/>
+      <c r="AK52" s="23"/>
+      <c r="AL52" s="23"/>
+      <c r="AM52" s="23"/>
+      <c r="AN52" s="23"/>
+      <c r="AO52" s="23"/>
+      <c r="AP52" s="23"/>
+      <c r="AQ52" s="23"/>
+      <c r="AR52" s="23"/>
+      <c r="AS52" s="23"/>
+      <c r="AT52" s="23"/>
+      <c r="AU52" s="23"/>
+      <c r="AV52" s="23"/>
+      <c r="AW52" s="23"/>
+      <c r="AX52" s="23"/>
+      <c r="AY52" s="23"/>
+      <c r="AZ52" s="23"/>
+      <c r="BA52" s="23"/>
+      <c r="BB52" s="23"/>
+      <c r="BC52" s="23"/>
+      <c r="BD52" s="24"/>
+    </row>
+    <row r="53" spans="1:56" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="B53" s="23"/>
+      <c r="C53" s="23"/>
+      <c r="D53" s="23"/>
+      <c r="E53" s="23"/>
+      <c r="F53" s="23"/>
+      <c r="G53" s="23"/>
+      <c r="H53" s="23"/>
+      <c r="I53" s="23"/>
+      <c r="J53" s="23"/>
+      <c r="K53" s="23"/>
+      <c r="L53" s="23"/>
+      <c r="M53" s="23"/>
+      <c r="N53" s="23"/>
+      <c r="O53" s="23"/>
+      <c r="P53" s="23"/>
+      <c r="Q53" s="23"/>
+      <c r="R53" s="23"/>
+      <c r="S53" s="23"/>
+      <c r="T53" s="23"/>
+      <c r="U53" s="23"/>
+      <c r="V53" s="23"/>
+      <c r="W53" s="23"/>
+      <c r="X53" s="23"/>
+      <c r="Y53" s="23"/>
+      <c r="Z53" s="23"/>
+      <c r="AA53" s="23"/>
+      <c r="AB53" s="23"/>
+      <c r="AC53" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="AD53" s="23"/>
+      <c r="AE53" s="23"/>
+      <c r="AF53" s="23"/>
+      <c r="AG53" s="23"/>
+      <c r="AH53" s="23"/>
+      <c r="AI53" s="23"/>
+      <c r="AJ53" s="23"/>
+      <c r="AK53" s="23"/>
+      <c r="AL53" s="23"/>
+      <c r="AM53" s="23"/>
+      <c r="AN53" s="23"/>
+      <c r="AO53" s="23"/>
+      <c r="AP53" s="23"/>
+      <c r="AQ53" s="23"/>
+      <c r="AR53" s="23"/>
+      <c r="AS53" s="23"/>
+      <c r="AT53" s="23"/>
+      <c r="AU53" s="23"/>
+      <c r="AV53" s="23"/>
+      <c r="AW53" s="23"/>
+      <c r="AX53" s="23"/>
+      <c r="AY53" s="23"/>
+      <c r="AZ53" s="23"/>
+      <c r="BA53" s="23"/>
+      <c r="BB53" s="23"/>
+      <c r="BC53" s="23"/>
+      <c r="BD53" s="24"/>
+    </row>
+    <row r="54" spans="1:56" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="B49" s="18"/>
-      <c r="C49" s="18"/>
-      <c r="D49" s="18"/>
-      <c r="E49" s="18"/>
-      <c r="F49" s="18"/>
-      <c r="G49" s="18"/>
-      <c r="H49" s="18"/>
-      <c r="I49" s="18"/>
-      <c r="J49" s="18"/>
-      <c r="K49" s="18"/>
-      <c r="L49" s="18"/>
-      <c r="M49" s="18"/>
-      <c r="N49" s="18"/>
-      <c r="O49" s="18"/>
-      <c r="P49" s="18"/>
-      <c r="Q49" s="18"/>
-      <c r="R49" s="18"/>
-      <c r="S49" s="18"/>
-      <c r="T49" s="18"/>
-      <c r="U49" s="18"/>
-      <c r="V49" s="18"/>
-      <c r="W49" s="18"/>
-      <c r="X49" s="18"/>
-      <c r="Y49" s="18"/>
-      <c r="Z49" s="18"/>
-      <c r="AA49" s="18"/>
-      <c r="AB49" s="19"/>
-      <c r="AC49" s="17" t="s">
-        <v>6</v>
+      <c r="B54" s="23"/>
+      <c r="C54" s="23"/>
+      <c r="D54" s="23"/>
+      <c r="E54" s="23"/>
+      <c r="F54" s="23"/>
+      <c r="G54" s="23"/>
+      <c r="H54" s="23"/>
+      <c r="I54" s="23"/>
+      <c r="J54" s="23"/>
+      <c r="K54" s="23"/>
+      <c r="L54" s="23"/>
+      <c r="M54" s="23"/>
+      <c r="N54" s="23"/>
+      <c r="O54" s="23"/>
+      <c r="P54" s="23"/>
+      <c r="Q54" s="23"/>
+      <c r="R54" s="23"/>
+      <c r="S54" s="23"/>
+      <c r="T54" s="23"/>
+      <c r="U54" s="23"/>
+      <c r="V54" s="23"/>
+      <c r="W54" s="23"/>
+      <c r="X54" s="23"/>
+      <c r="Y54" s="23"/>
+      <c r="Z54" s="23"/>
+      <c r="AA54" s="23"/>
+      <c r="AB54" s="23"/>
+      <c r="AC54" s="22" t="s">
+        <v>9</v>
       </c>
-      <c r="AD49" s="18"/>
-      <c r="AE49" s="18"/>
-      <c r="AF49" s="18"/>
-      <c r="AG49" s="18"/>
-      <c r="AH49" s="18"/>
-      <c r="AI49" s="18"/>
-      <c r="AJ49" s="18"/>
-      <c r="AK49" s="18"/>
-      <c r="AL49" s="18"/>
-      <c r="AM49" s="18"/>
-      <c r="AN49" s="18"/>
-      <c r="AO49" s="18"/>
-      <c r="AP49" s="18"/>
-      <c r="AQ49" s="18"/>
-      <c r="AR49" s="18"/>
-      <c r="AS49" s="18"/>
-      <c r="AT49" s="18"/>
-      <c r="AU49" s="18"/>
-      <c r="AV49" s="18"/>
-      <c r="AW49" s="18"/>
-      <c r="AX49" s="18"/>
-      <c r="AY49" s="18"/>
-      <c r="AZ49" s="18"/>
-      <c r="BA49" s="18"/>
-      <c r="BB49" s="18"/>
-      <c r="BC49" s="18"/>
-      <c r="BD49" s="19"/>
-    </row>
-    <row r="50" spans="1:56" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="11" t="s">
+      <c r="AD54" s="23"/>
+      <c r="AE54" s="23"/>
+      <c r="AF54" s="23"/>
+      <c r="AG54" s="23"/>
+      <c r="AH54" s="23"/>
+      <c r="AI54" s="23"/>
+      <c r="AJ54" s="23"/>
+      <c r="AK54" s="23"/>
+      <c r="AL54" s="23"/>
+      <c r="AM54" s="23"/>
+      <c r="AN54" s="23"/>
+      <c r="AO54" s="23"/>
+      <c r="AP54" s="23"/>
+      <c r="AQ54" s="23"/>
+      <c r="AR54" s="23"/>
+      <c r="AS54" s="23"/>
+      <c r="AT54" s="23"/>
+      <c r="AU54" s="23"/>
+      <c r="AV54" s="23"/>
+      <c r="AW54" s="23"/>
+      <c r="AX54" s="23"/>
+      <c r="AY54" s="23"/>
+      <c r="AZ54" s="23"/>
+      <c r="BA54" s="23"/>
+      <c r="BB54" s="23"/>
+      <c r="BC54" s="23"/>
+      <c r="BD54" s="24"/>
+    </row>
+    <row r="55" spans="1:56" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="11"/>
+      <c r="B55" s="12"/>
+      <c r="C55" s="12"/>
+      <c r="D55" s="12"/>
+      <c r="E55" s="12"/>
+      <c r="F55" s="12"/>
+      <c r="G55" s="12"/>
+      <c r="H55" s="12"/>
+      <c r="I55" s="12"/>
+      <c r="J55" s="12"/>
+      <c r="K55" s="12"/>
+      <c r="L55" s="12"/>
+      <c r="M55" s="12"/>
+      <c r="N55" s="12"/>
+      <c r="O55" s="12"/>
+      <c r="P55" s="12"/>
+      <c r="Q55" s="12"/>
+      <c r="R55" s="12"/>
+      <c r="S55" s="12"/>
+      <c r="T55" s="12"/>
+      <c r="U55" s="12"/>
+      <c r="V55" s="12"/>
+      <c r="W55" s="12"/>
+      <c r="X55" s="12"/>
+      <c r="Y55" s="12"/>
+      <c r="Z55" s="12"/>
+      <c r="AA55" s="12"/>
+      <c r="AB55" s="12"/>
+      <c r="AC55" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="AD55" s="23"/>
+      <c r="AE55" s="23"/>
+      <c r="AF55" s="23"/>
+      <c r="AG55" s="23"/>
+      <c r="AH55" s="23"/>
+      <c r="AI55" s="23"/>
+      <c r="AJ55" s="23"/>
+      <c r="AK55" s="23"/>
+      <c r="AL55" s="23"/>
+      <c r="AM55" s="23"/>
+      <c r="AN55" s="23"/>
+      <c r="AO55" s="23"/>
+      <c r="AP55" s="23"/>
+      <c r="AQ55" s="23"/>
+      <c r="AR55" s="23"/>
+      <c r="AS55" s="23"/>
+      <c r="AT55" s="23"/>
+      <c r="AU55" s="23"/>
+      <c r="AV55" s="23"/>
+      <c r="AW55" s="23"/>
+      <c r="AX55" s="23"/>
+      <c r="AY55" s="23"/>
+      <c r="AZ55" s="23"/>
+      <c r="BA55" s="23"/>
+      <c r="BB55" s="23"/>
+      <c r="BC55" s="23"/>
+      <c r="BD55" s="24"/>
+    </row>
+    <row r="56" spans="1:56" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="28"/>
+      <c r="B56" s="26"/>
+      <c r="C56" s="26"/>
+      <c r="D56" s="26"/>
+      <c r="E56" s="26"/>
+      <c r="F56" s="26"/>
+      <c r="G56" s="26"/>
+      <c r="H56" s="26"/>
+      <c r="I56" s="26"/>
+      <c r="J56" s="26"/>
+      <c r="K56" s="26"/>
+      <c r="L56" s="26"/>
+      <c r="M56" s="26"/>
+      <c r="N56" s="26"/>
+      <c r="O56" s="26"/>
+      <c r="P56" s="26"/>
+      <c r="Q56" s="26"/>
+      <c r="R56" s="26"/>
+      <c r="S56" s="26"/>
+      <c r="T56" s="26"/>
+      <c r="U56" s="26"/>
+      <c r="V56" s="26"/>
+      <c r="W56" s="26"/>
+      <c r="X56" s="26"/>
+      <c r="Y56" s="26"/>
+      <c r="Z56" s="26"/>
+      <c r="AA56" s="26"/>
+      <c r="AB56" s="26"/>
+      <c r="AC56" s="25"/>
+      <c r="AD56" s="26"/>
+      <c r="AE56" s="26"/>
+      <c r="AF56" s="26"/>
+      <c r="AG56" s="26"/>
+      <c r="AH56" s="26"/>
+      <c r="AI56" s="26"/>
+      <c r="AJ56" s="26"/>
+      <c r="AK56" s="26"/>
+      <c r="AL56" s="26"/>
+      <c r="AM56" s="26"/>
+      <c r="AN56" s="26"/>
+      <c r="AO56" s="26"/>
+      <c r="AP56" s="26"/>
+      <c r="AQ56" s="26"/>
+      <c r="AR56" s="26"/>
+      <c r="AS56" s="26"/>
+      <c r="AT56" s="26"/>
+      <c r="AU56" s="26"/>
+      <c r="AV56" s="26"/>
+      <c r="AW56" s="26"/>
+      <c r="AX56" s="26"/>
+      <c r="AY56" s="26"/>
+      <c r="AZ56" s="26"/>
+      <c r="BA56" s="26"/>
+      <c r="BB56" s="26"/>
+      <c r="BC56" s="26"/>
+      <c r="BD56" s="27"/>
+    </row>
+    <row r="57" spans="1:56" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="B57" s="20"/>
+      <c r="C57" s="20"/>
+      <c r="D57" s="20"/>
+      <c r="E57" s="20"/>
+      <c r="F57" s="20"/>
+      <c r="G57" s="20"/>
+      <c r="H57" s="20"/>
+      <c r="I57" s="20"/>
+      <c r="J57" s="20"/>
+      <c r="K57" s="20"/>
+      <c r="L57" s="20"/>
+      <c r="M57" s="20"/>
+      <c r="N57" s="20"/>
+      <c r="O57" s="20"/>
+      <c r="P57" s="20"/>
+      <c r="Q57" s="20"/>
+      <c r="R57" s="20"/>
+      <c r="S57" s="20"/>
+      <c r="T57" s="20"/>
+      <c r="U57" s="20"/>
+      <c r="V57" s="20"/>
+      <c r="W57" s="20"/>
+      <c r="X57" s="20"/>
+      <c r="Y57" s="20"/>
+      <c r="Z57" s="20"/>
+      <c r="AA57" s="20"/>
+      <c r="AB57" s="20"/>
+      <c r="AC57" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B50" s="23"/>
-      <c r="C50" s="23"/>
-      <c r="D50" s="23"/>
-      <c r="E50" s="23"/>
-      <c r="F50" s="23"/>
-      <c r="G50" s="23"/>
-      <c r="H50" s="23"/>
-      <c r="I50" s="23"/>
-      <c r="J50" s="23"/>
-      <c r="K50" s="23"/>
-      <c r="L50" s="23"/>
-      <c r="M50" s="23"/>
-      <c r="N50" s="23"/>
-      <c r="O50" s="23"/>
-      <c r="P50" s="23"/>
-      <c r="Q50" s="23"/>
-      <c r="R50" s="23"/>
-      <c r="S50" s="23"/>
-      <c r="T50" s="23"/>
-      <c r="U50" s="23"/>
-      <c r="V50" s="23"/>
-      <c r="W50" s="23"/>
-      <c r="X50" s="23"/>
-      <c r="Y50" s="23"/>
-      <c r="Z50" s="23"/>
-      <c r="AA50" s="23"/>
-      <c r="AB50" s="24"/>
-      <c r="AC50" s="11" t="s">
+      <c r="AD57" s="20"/>
+      <c r="AE57" s="20"/>
+      <c r="AF57" s="20"/>
+      <c r="AG57" s="20"/>
+      <c r="AH57" s="20"/>
+      <c r="AI57" s="20"/>
+      <c r="AJ57" s="20"/>
+      <c r="AK57" s="20"/>
+      <c r="AL57" s="20"/>
+      <c r="AM57" s="20"/>
+      <c r="AN57" s="20"/>
+      <c r="AO57" s="20"/>
+      <c r="AP57" s="20"/>
+      <c r="AQ57" s="20"/>
+      <c r="AR57" s="20"/>
+      <c r="AS57" s="20"/>
+      <c r="AT57" s="20"/>
+      <c r="AU57" s="20"/>
+      <c r="AV57" s="20"/>
+      <c r="AW57" s="20"/>
+      <c r="AX57" s="20"/>
+      <c r="AY57" s="20"/>
+      <c r="AZ57" s="20"/>
+      <c r="BA57" s="20"/>
+      <c r="BB57" s="20"/>
+      <c r="BC57" s="20"/>
+      <c r="BD57" s="21"/>
+    </row>
+    <row r="58" spans="1:56" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="AD50" s="23"/>
-      <c r="AE50" s="23"/>
-      <c r="AF50" s="23"/>
-      <c r="AG50" s="23"/>
-      <c r="AH50" s="23"/>
-      <c r="AI50" s="23"/>
-      <c r="AJ50" s="23"/>
-      <c r="AK50" s="23"/>
-      <c r="AL50" s="23"/>
-      <c r="AM50" s="23"/>
-      <c r="AN50" s="23"/>
-      <c r="AO50" s="23"/>
-      <c r="AP50" s="23"/>
-      <c r="AQ50" s="23"/>
-      <c r="AR50" s="23"/>
-      <c r="AS50" s="23"/>
-      <c r="AT50" s="23"/>
-      <c r="AU50" s="23"/>
-      <c r="AV50" s="23"/>
-      <c r="AW50" s="23"/>
-      <c r="AX50" s="23"/>
-      <c r="AY50" s="23"/>
-      <c r="AZ50" s="23"/>
-      <c r="BA50" s="23"/>
-      <c r="BB50" s="23"/>
-      <c r="BC50" s="23"/>
-      <c r="BD50" s="24"/>
-    </row>
-    <row r="51" spans="1:56" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="B51" s="23"/>
-      <c r="C51" s="23"/>
-      <c r="D51" s="23"/>
-      <c r="E51" s="23"/>
-      <c r="F51" s="23"/>
-      <c r="G51" s="23"/>
-      <c r="H51" s="23"/>
-      <c r="I51" s="23"/>
-      <c r="J51" s="23"/>
-      <c r="K51" s="23"/>
-      <c r="L51" s="23"/>
-      <c r="M51" s="23"/>
-      <c r="N51" s="23"/>
-      <c r="O51" s="23"/>
-      <c r="P51" s="23"/>
-      <c r="Q51" s="23"/>
-      <c r="R51" s="23"/>
-      <c r="S51" s="23"/>
-      <c r="T51" s="23"/>
-      <c r="U51" s="23"/>
-      <c r="V51" s="23"/>
-      <c r="W51" s="23"/>
-      <c r="X51" s="23"/>
-      <c r="Y51" s="23"/>
-      <c r="Z51" s="23"/>
-      <c r="AA51" s="23"/>
-      <c r="AB51" s="24"/>
-      <c r="AC51" s="11" t="s">
+      <c r="B58" s="17"/>
+      <c r="C58" s="17"/>
+      <c r="D58" s="17"/>
+      <c r="E58" s="17"/>
+      <c r="F58" s="17"/>
+      <c r="G58" s="17"/>
+      <c r="H58" s="17"/>
+      <c r="I58" s="17"/>
+      <c r="J58" s="17"/>
+      <c r="K58" s="17"/>
+      <c r="L58" s="17"/>
+      <c r="M58" s="17"/>
+      <c r="N58" s="17"/>
+      <c r="O58" s="17"/>
+      <c r="P58" s="17"/>
+      <c r="Q58" s="17"/>
+      <c r="R58" s="17"/>
+      <c r="S58" s="17"/>
+      <c r="T58" s="17"/>
+      <c r="U58" s="17"/>
+      <c r="V58" s="17"/>
+      <c r="W58" s="17"/>
+      <c r="X58" s="17"/>
+      <c r="Y58" s="17"/>
+      <c r="Z58" s="17"/>
+      <c r="AA58" s="17"/>
+      <c r="AB58" s="17"/>
+      <c r="AC58" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="AD51" s="23"/>
-      <c r="AE51" s="23"/>
-      <c r="AF51" s="23"/>
-      <c r="AG51" s="23"/>
-      <c r="AH51" s="23"/>
-      <c r="AI51" s="23"/>
-      <c r="AJ51" s="23"/>
-      <c r="AK51" s="23"/>
-      <c r="AL51" s="23"/>
-      <c r="AM51" s="23"/>
-      <c r="AN51" s="23"/>
-      <c r="AO51" s="23"/>
-      <c r="AP51" s="23"/>
-      <c r="AQ51" s="23"/>
-      <c r="AR51" s="23"/>
-      <c r="AS51" s="23"/>
-      <c r="AT51" s="23"/>
-      <c r="AU51" s="23"/>
-      <c r="AV51" s="23"/>
-      <c r="AW51" s="23"/>
-      <c r="AX51" s="23"/>
-      <c r="AY51" s="23"/>
-      <c r="AZ51" s="23"/>
-      <c r="BA51" s="23"/>
-      <c r="BB51" s="23"/>
-      <c r="BC51" s="23"/>
-      <c r="BD51" s="24"/>
-    </row>
-    <row r="52" spans="1:56" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="31" t="s">
-        <v>14</v>
-      </c>
-      <c r="B52" s="29"/>
-      <c r="C52" s="29"/>
-      <c r="D52" s="29"/>
-      <c r="E52" s="29"/>
-      <c r="F52" s="29"/>
-      <c r="G52" s="29"/>
-      <c r="H52" s="29"/>
-      <c r="I52" s="29"/>
-      <c r="J52" s="29"/>
-      <c r="K52" s="29"/>
-      <c r="L52" s="29"/>
-      <c r="M52" s="29"/>
-      <c r="N52" s="29"/>
-      <c r="O52" s="29"/>
-      <c r="P52" s="29"/>
-      <c r="Q52" s="29"/>
-      <c r="R52" s="29"/>
-      <c r="S52" s="29"/>
-      <c r="T52" s="29"/>
-      <c r="U52" s="29"/>
-      <c r="V52" s="29"/>
-      <c r="W52" s="29"/>
-      <c r="X52" s="29"/>
-      <c r="Y52" s="29"/>
-      <c r="Z52" s="29"/>
-      <c r="AA52" s="29"/>
-      <c r="AB52" s="30"/>
-      <c r="AC52" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="AD52" s="29"/>
-      <c r="AE52" s="29"/>
-      <c r="AF52" s="29"/>
-      <c r="AG52" s="29"/>
-      <c r="AH52" s="29"/>
-      <c r="AI52" s="29"/>
-      <c r="AJ52" s="29"/>
-      <c r="AK52" s="29"/>
-      <c r="AL52" s="29"/>
-      <c r="AM52" s="29"/>
-      <c r="AN52" s="29"/>
-      <c r="AO52" s="29"/>
-      <c r="AP52" s="29"/>
-      <c r="AQ52" s="29"/>
-      <c r="AR52" s="29"/>
-      <c r="AS52" s="29"/>
-      <c r="AT52" s="29"/>
-      <c r="AU52" s="29"/>
-      <c r="AV52" s="29"/>
-      <c r="AW52" s="29"/>
-      <c r="AX52" s="29"/>
-      <c r="AY52" s="29"/>
-      <c r="AZ52" s="29"/>
-      <c r="BA52" s="29"/>
-      <c r="BB52" s="29"/>
-      <c r="BC52" s="29"/>
-      <c r="BD52" s="30"/>
-    </row>
-    <row r="53" spans="1:56" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="B53" s="21"/>
-      <c r="C53" s="21"/>
-      <c r="D53" s="21"/>
-      <c r="E53" s="21"/>
-      <c r="F53" s="21"/>
-      <c r="G53" s="21"/>
-      <c r="H53" s="21"/>
-      <c r="I53" s="21"/>
-      <c r="J53" s="21"/>
-      <c r="K53" s="21"/>
-      <c r="L53" s="21"/>
-      <c r="M53" s="21"/>
-      <c r="N53" s="21"/>
-      <c r="O53" s="21"/>
-      <c r="P53" s="21"/>
-      <c r="Q53" s="21"/>
-      <c r="R53" s="21"/>
-      <c r="S53" s="21"/>
-      <c r="T53" s="21"/>
-      <c r="U53" s="21"/>
-      <c r="V53" s="21"/>
-      <c r="W53" s="21"/>
-      <c r="X53" s="21"/>
-      <c r="Y53" s="21"/>
-      <c r="Z53" s="21"/>
-      <c r="AA53" s="21"/>
-      <c r="AB53" s="21"/>
-      <c r="AC53" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="AD53" s="21"/>
-      <c r="AE53" s="21"/>
-      <c r="AF53" s="21"/>
-      <c r="AG53" s="21"/>
-      <c r="AH53" s="21"/>
-      <c r="AI53" s="21"/>
-      <c r="AJ53" s="21"/>
-      <c r="AK53" s="21"/>
-      <c r="AL53" s="21"/>
-      <c r="AM53" s="21"/>
-      <c r="AN53" s="21"/>
-      <c r="AO53" s="21"/>
-      <c r="AP53" s="21"/>
-      <c r="AQ53" s="21"/>
-      <c r="AR53" s="21"/>
-      <c r="AS53" s="21"/>
-      <c r="AT53" s="21"/>
-      <c r="AU53" s="21"/>
-      <c r="AV53" s="21"/>
-      <c r="AW53" s="21"/>
-      <c r="AX53" s="21"/>
-      <c r="AY53" s="21"/>
-      <c r="AZ53" s="21"/>
-      <c r="BA53" s="21"/>
-      <c r="BB53" s="21"/>
-      <c r="BC53" s="21"/>
-      <c r="BD53" s="22"/>
-    </row>
-    <row r="54" spans="1:56" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="B54" s="26"/>
-      <c r="C54" s="26"/>
-      <c r="D54" s="26"/>
-      <c r="E54" s="26"/>
-      <c r="F54" s="26"/>
-      <c r="G54" s="26"/>
-      <c r="H54" s="26"/>
-      <c r="I54" s="26"/>
-      <c r="J54" s="26"/>
-      <c r="K54" s="26"/>
-      <c r="L54" s="26"/>
-      <c r="M54" s="26"/>
-      <c r="N54" s="26"/>
-      <c r="O54" s="26"/>
-      <c r="P54" s="26"/>
-      <c r="Q54" s="26"/>
-      <c r="R54" s="26"/>
-      <c r="S54" s="26"/>
-      <c r="T54" s="26"/>
-      <c r="U54" s="26"/>
-      <c r="V54" s="26"/>
-      <c r="W54" s="26"/>
-      <c r="X54" s="26"/>
-      <c r="Y54" s="26"/>
-      <c r="Z54" s="26"/>
-      <c r="AA54" s="26"/>
-      <c r="AB54" s="26"/>
-      <c r="AC54" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="AD54" s="26"/>
-      <c r="AE54" s="26"/>
-      <c r="AF54" s="26"/>
-      <c r="AG54" s="26"/>
-      <c r="AH54" s="26"/>
-      <c r="AI54" s="26"/>
-      <c r="AJ54" s="26"/>
-      <c r="AK54" s="26"/>
-      <c r="AL54" s="26"/>
-      <c r="AM54" s="26"/>
-      <c r="AN54" s="26"/>
-      <c r="AO54" s="26"/>
-      <c r="AP54" s="26"/>
-      <c r="AQ54" s="26"/>
-      <c r="AR54" s="26"/>
-      <c r="AS54" s="26"/>
-      <c r="AT54" s="26"/>
-      <c r="AU54" s="26"/>
-      <c r="AV54" s="26"/>
-      <c r="AW54" s="26"/>
-      <c r="AX54" s="26"/>
-      <c r="AY54" s="26"/>
-      <c r="AZ54" s="26"/>
-      <c r="BA54" s="26"/>
-      <c r="BB54" s="26"/>
-      <c r="BC54" s="26"/>
-      <c r="BD54" s="27"/>
+      <c r="AD58" s="17"/>
+      <c r="AE58" s="17"/>
+      <c r="AF58" s="17"/>
+      <c r="AG58" s="17"/>
+      <c r="AH58" s="17"/>
+      <c r="AI58" s="17"/>
+      <c r="AJ58" s="17"/>
+      <c r="AK58" s="17"/>
+      <c r="AL58" s="17"/>
+      <c r="AM58" s="17"/>
+      <c r="AN58" s="17"/>
+      <c r="AO58" s="17"/>
+      <c r="AP58" s="17"/>
+      <c r="AQ58" s="17"/>
+      <c r="AR58" s="17"/>
+      <c r="AS58" s="17"/>
+      <c r="AT58" s="17"/>
+      <c r="AU58" s="17"/>
+      <c r="AV58" s="17"/>
+      <c r="AW58" s="17"/>
+      <c r="AX58" s="17"/>
+      <c r="AY58" s="17"/>
+      <c r="AZ58" s="17"/>
+      <c r="BA58" s="17"/>
+      <c r="BB58" s="17"/>
+      <c r="BC58" s="17"/>
+      <c r="BD58" s="18"/>
     </row>
   </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="A53:AB53"/>
-    <mergeCell ref="AC53:BD53"/>
-    <mergeCell ref="A54:AB54"/>
-    <mergeCell ref="AC54:BD54"/>
-    <mergeCell ref="AC49:BD49"/>
-    <mergeCell ref="AC50:BD50"/>
+  <mergeCells count="26">
+    <mergeCell ref="A27:AB27"/>
+    <mergeCell ref="A28:AB28"/>
+    <mergeCell ref="A29:AB29"/>
+    <mergeCell ref="AC27:BD27"/>
+    <mergeCell ref="AC28:BD28"/>
+    <mergeCell ref="AC29:BD29"/>
+    <mergeCell ref="A1:BD1"/>
+    <mergeCell ref="A26:BD26"/>
+    <mergeCell ref="A2:BD2"/>
+    <mergeCell ref="A3:BD3"/>
+    <mergeCell ref="A4:BD4"/>
+    <mergeCell ref="A57:AB57"/>
+    <mergeCell ref="AC57:BD57"/>
+    <mergeCell ref="A58:AB58"/>
+    <mergeCell ref="AC58:BD58"/>
     <mergeCell ref="AC51:BD51"/>
     <mergeCell ref="AC52:BD52"/>
-    <mergeCell ref="A49:AB49"/>
-    <mergeCell ref="A50:AB50"/>
+    <mergeCell ref="AC53:BD53"/>
+    <mergeCell ref="AC56:BD56"/>
     <mergeCell ref="A51:AB51"/>
     <mergeCell ref="A52:AB52"/>
-    <mergeCell ref="A26:BD26"/>
-    <mergeCell ref="A27:BD27"/>
-    <mergeCell ref="A1:BD1"/>
-    <mergeCell ref="A25:BD25"/>
-    <mergeCell ref="A2:BD2"/>
-    <mergeCell ref="A3:BD3"/>
+    <mergeCell ref="A53:AB53"/>
+    <mergeCell ref="A56:AB56"/>
+    <mergeCell ref="AC54:BD54"/>
+    <mergeCell ref="AC55:BD55"/>
+    <mergeCell ref="A54:AB54"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Quest.xlsx
+++ b/Quest.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/aff98139d4bac41f/文件/DL/dragalia-data-track/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="79" documentId="8_{5481D2AA-BE39-4D5C-836A-7D24C3EF9124}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{BFA4DC96-1834-4064-90AB-67FAC6EE40C8}"/>
+  <xr:revisionPtr revIDLastSave="89" documentId="8_{5481D2AA-BE39-4D5C-836A-7D24C3EF9124}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{1A55927A-A522-43D2-808C-DB354128F746}"/>
   <bookViews>
-    <workbookView xWindow="31350" yWindow="1530" windowWidth="21525" windowHeight="13500" xr2:uid="{5ACD922F-E2B9-468A-8DAF-19A1C97D580A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5ACD922F-E2B9-468A-8DAF-19A1C97D580A}"/>
   </bookViews>
   <sheets>
     <sheet name="Agito A&amp;O" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>- SS 皇女可換庫豹，用皇女的開場要吃衝，庫豹不用</t>
   </si>
@@ -48,9 +48,6 @@
   </si>
   <si>
     <t>德菲要點</t>
-  </si>
-  <si>
-    <t>- P1: S1 &gt; FS &gt; S2 &gt; S3 &gt; S4 &gt; S1 (S1要落在王腳下，任一即可)</t>
   </si>
   <si>
     <t>- P2: 紫圈變龍 &gt; 拉牢 &gt; (王靠中) &gt; S1 &gt; FS &gt; S3 &gt; S4</t>
@@ -165,6 +162,12 @@
   </si>
   <si>
     <t>- 兩個三葉SS可以錯開的話，錯開放可以快1~2秒</t>
+  </si>
+  <si>
+    <t>- 必備 龍(阿薩為佳)、巧克、泳劍、增傷(悟淨為佳)，其餘可以不裝</t>
+  </si>
+  <si>
+    <t>- P1: S1 &gt; FS &gt; S2 &gt; S3 &gt; S4 &gt; S1 (S1要落在王腳下)</t>
   </si>
 </sst>
 </file>
@@ -383,54 +386,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -445,6 +400,54 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -570,56 +573,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>55</xdr:col>
-      <xdr:colOff>188278</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C6AA43B-364F-474A-873C-0AC2686BEB48}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5334000" y="5343525"/>
-          <a:ext cx="5331778" cy="3657600"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>30</xdr:row>
@@ -645,7 +598,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -660,6 +613,106 @@
         <a:xfrm>
           <a:off x="0" y="5343525"/>
           <a:ext cx="5331778" cy="3657600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>48</xdr:col>
+      <xdr:colOff>188834</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B8B8F7E9-03D5-4A3F-AB2C-7F46A8C365E9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5334000" y="5724525"/>
+          <a:ext cx="3998834" cy="2743200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>96083</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>56</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{58F8E7FB-313D-4DEB-81C8-216D6A69A714}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8668583" y="6600825"/>
+          <a:ext cx="1999417" cy="2743200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -973,8 +1026,8 @@
   </sheetPr>
   <dimension ref="A1:BD58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="AC27" sqref="AC27:BD29"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="BL34" sqref="BL34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.85546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -983,244 +1036,244 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:56" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="16"/>
+      <c r="N1" s="16"/>
+      <c r="O1" s="16"/>
+      <c r="P1" s="16"/>
+      <c r="Q1" s="16"/>
+      <c r="R1" s="16"/>
+      <c r="S1" s="16"/>
+      <c r="T1" s="16"/>
+      <c r="U1" s="16"/>
+      <c r="V1" s="16"/>
+      <c r="W1" s="16"/>
+      <c r="X1" s="16"/>
+      <c r="Y1" s="16"/>
+      <c r="Z1" s="16"/>
+      <c r="AA1" s="16"/>
+      <c r="AB1" s="16"/>
+      <c r="AC1" s="16"/>
+      <c r="AD1" s="16"/>
+      <c r="AE1" s="16"/>
+      <c r="AF1" s="16"/>
+      <c r="AG1" s="16"/>
+      <c r="AH1" s="16"/>
+      <c r="AI1" s="16"/>
+      <c r="AJ1" s="16"/>
+      <c r="AK1" s="16"/>
+      <c r="AL1" s="16"/>
+      <c r="AM1" s="16"/>
+      <c r="AN1" s="16"/>
+      <c r="AO1" s="16"/>
+      <c r="AP1" s="16"/>
+      <c r="AQ1" s="16"/>
+      <c r="AR1" s="16"/>
+      <c r="AS1" s="16"/>
+      <c r="AT1" s="16"/>
+      <c r="AU1" s="16"/>
+      <c r="AV1" s="16"/>
+      <c r="AW1" s="16"/>
+      <c r="AX1" s="16"/>
+      <c r="AY1" s="16"/>
+      <c r="AZ1" s="16"/>
+      <c r="BA1" s="16"/>
+      <c r="BB1" s="16"/>
+      <c r="BC1" s="16"/>
+      <c r="BD1" s="17"/>
+    </row>
+    <row r="2" spans="1:56" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="21"/>
+      <c r="M2" s="21"/>
+      <c r="N2" s="21"/>
+      <c r="O2" s="21"/>
+      <c r="P2" s="21"/>
+      <c r="Q2" s="21"/>
+      <c r="R2" s="21"/>
+      <c r="S2" s="21"/>
+      <c r="T2" s="21"/>
+      <c r="U2" s="21"/>
+      <c r="V2" s="21"/>
+      <c r="W2" s="21"/>
+      <c r="X2" s="21"/>
+      <c r="Y2" s="21"/>
+      <c r="Z2" s="21"/>
+      <c r="AA2" s="21"/>
+      <c r="AB2" s="21"/>
+      <c r="AC2" s="21"/>
+      <c r="AD2" s="21"/>
+      <c r="AE2" s="21"/>
+      <c r="AF2" s="21"/>
+      <c r="AG2" s="21"/>
+      <c r="AH2" s="21"/>
+      <c r="AI2" s="21"/>
+      <c r="AJ2" s="21"/>
+      <c r="AK2" s="21"/>
+      <c r="AL2" s="21"/>
+      <c r="AM2" s="21"/>
+      <c r="AN2" s="21"/>
+      <c r="AO2" s="21"/>
+      <c r="AP2" s="21"/>
+      <c r="AQ2" s="21"/>
+      <c r="AR2" s="21"/>
+      <c r="AS2" s="21"/>
+      <c r="AT2" s="21"/>
+      <c r="AU2" s="21"/>
+      <c r="AV2" s="21"/>
+      <c r="AW2" s="21"/>
+      <c r="AX2" s="21"/>
+      <c r="AY2" s="21"/>
+      <c r="AZ2" s="21"/>
+      <c r="BA2" s="21"/>
+      <c r="BB2" s="21"/>
+      <c r="BC2" s="21"/>
+      <c r="BD2" s="22"/>
+    </row>
+    <row r="3" spans="1:56" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="24"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="24"/>
+      <c r="I3" s="24"/>
+      <c r="J3" s="24"/>
+      <c r="K3" s="24"/>
+      <c r="L3" s="24"/>
+      <c r="M3" s="24"/>
+      <c r="N3" s="24"/>
+      <c r="O3" s="24"/>
+      <c r="P3" s="24"/>
+      <c r="Q3" s="24"/>
+      <c r="R3" s="24"/>
+      <c r="S3" s="24"/>
+      <c r="T3" s="24"/>
+      <c r="U3" s="24"/>
+      <c r="V3" s="24"/>
+      <c r="W3" s="24"/>
+      <c r="X3" s="24"/>
+      <c r="Y3" s="24"/>
+      <c r="Z3" s="24"/>
+      <c r="AA3" s="24"/>
+      <c r="AB3" s="24"/>
+      <c r="AC3" s="24"/>
+      <c r="AD3" s="24"/>
+      <c r="AE3" s="24"/>
+      <c r="AF3" s="24"/>
+      <c r="AG3" s="24"/>
+      <c r="AH3" s="24"/>
+      <c r="AI3" s="24"/>
+      <c r="AJ3" s="24"/>
+      <c r="AK3" s="24"/>
+      <c r="AL3" s="24"/>
+      <c r="AM3" s="24"/>
+      <c r="AN3" s="24"/>
+      <c r="AO3" s="24"/>
+      <c r="AP3" s="24"/>
+      <c r="AQ3" s="24"/>
+      <c r="AR3" s="24"/>
+      <c r="AS3" s="24"/>
+      <c r="AT3" s="24"/>
+      <c r="AU3" s="24"/>
+      <c r="AV3" s="24"/>
+      <c r="AW3" s="24"/>
+      <c r="AX3" s="24"/>
+      <c r="AY3" s="24"/>
+      <c r="AZ3" s="24"/>
+      <c r="BA3" s="24"/>
+      <c r="BB3" s="24"/>
+      <c r="BC3" s="24"/>
+      <c r="BD3" s="25"/>
+    </row>
+    <row r="4" spans="1:56" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
-      <c r="J1" s="32"/>
-      <c r="K1" s="32"/>
-      <c r="L1" s="32"/>
-      <c r="M1" s="32"/>
-      <c r="N1" s="32"/>
-      <c r="O1" s="32"/>
-      <c r="P1" s="32"/>
-      <c r="Q1" s="32"/>
-      <c r="R1" s="32"/>
-      <c r="S1" s="32"/>
-      <c r="T1" s="32"/>
-      <c r="U1" s="32"/>
-      <c r="V1" s="32"/>
-      <c r="W1" s="32"/>
-      <c r="X1" s="32"/>
-      <c r="Y1" s="32"/>
-      <c r="Z1" s="32"/>
-      <c r="AA1" s="32"/>
-      <c r="AB1" s="32"/>
-      <c r="AC1" s="32"/>
-      <c r="AD1" s="32"/>
-      <c r="AE1" s="32"/>
-      <c r="AF1" s="32"/>
-      <c r="AG1" s="32"/>
-      <c r="AH1" s="32"/>
-      <c r="AI1" s="32"/>
-      <c r="AJ1" s="32"/>
-      <c r="AK1" s="32"/>
-      <c r="AL1" s="32"/>
-      <c r="AM1" s="32"/>
-      <c r="AN1" s="32"/>
-      <c r="AO1" s="32"/>
-      <c r="AP1" s="32"/>
-      <c r="AQ1" s="32"/>
-      <c r="AR1" s="32"/>
-      <c r="AS1" s="32"/>
-      <c r="AT1" s="32"/>
-      <c r="AU1" s="32"/>
-      <c r="AV1" s="32"/>
-      <c r="AW1" s="32"/>
-      <c r="AX1" s="32"/>
-      <c r="AY1" s="32"/>
-      <c r="AZ1" s="32"/>
-      <c r="BA1" s="32"/>
-      <c r="BB1" s="32"/>
-      <c r="BC1" s="32"/>
-      <c r="BD1" s="33"/>
-    </row>
-    <row r="2" spans="1:56" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="14"/>
-      <c r="K2" s="14"/>
-      <c r="L2" s="14"/>
-      <c r="M2" s="14"/>
-      <c r="N2" s="14"/>
-      <c r="O2" s="14"/>
-      <c r="P2" s="14"/>
-      <c r="Q2" s="14"/>
-      <c r="R2" s="14"/>
-      <c r="S2" s="14"/>
-      <c r="T2" s="14"/>
-      <c r="U2" s="14"/>
-      <c r="V2" s="14"/>
-      <c r="W2" s="14"/>
-      <c r="X2" s="14"/>
-      <c r="Y2" s="14"/>
-      <c r="Z2" s="14"/>
-      <c r="AA2" s="14"/>
-      <c r="AB2" s="14"/>
-      <c r="AC2" s="14"/>
-      <c r="AD2" s="14"/>
-      <c r="AE2" s="14"/>
-      <c r="AF2" s="14"/>
-      <c r="AG2" s="14"/>
-      <c r="AH2" s="14"/>
-      <c r="AI2" s="14"/>
-      <c r="AJ2" s="14"/>
-      <c r="AK2" s="14"/>
-      <c r="AL2" s="14"/>
-      <c r="AM2" s="14"/>
-      <c r="AN2" s="14"/>
-      <c r="AO2" s="14"/>
-      <c r="AP2" s="14"/>
-      <c r="AQ2" s="14"/>
-      <c r="AR2" s="14"/>
-      <c r="AS2" s="14"/>
-      <c r="AT2" s="14"/>
-      <c r="AU2" s="14"/>
-      <c r="AV2" s="14"/>
-      <c r="AW2" s="14"/>
-      <c r="AX2" s="14"/>
-      <c r="AY2" s="14"/>
-      <c r="AZ2" s="14"/>
-      <c r="BA2" s="14"/>
-      <c r="BB2" s="14"/>
-      <c r="BC2" s="14"/>
-      <c r="BD2" s="15"/>
-    </row>
-    <row r="3" spans="1:56" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" s="23"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
-      <c r="G3" s="23"/>
-      <c r="H3" s="23"/>
-      <c r="I3" s="23"/>
-      <c r="J3" s="23"/>
-      <c r="K3" s="23"/>
-      <c r="L3" s="23"/>
-      <c r="M3" s="23"/>
-      <c r="N3" s="23"/>
-      <c r="O3" s="23"/>
-      <c r="P3" s="23"/>
-      <c r="Q3" s="23"/>
-      <c r="R3" s="23"/>
-      <c r="S3" s="23"/>
-      <c r="T3" s="23"/>
-      <c r="U3" s="23"/>
-      <c r="V3" s="23"/>
-      <c r="W3" s="23"/>
-      <c r="X3" s="23"/>
-      <c r="Y3" s="23"/>
-      <c r="Z3" s="23"/>
-      <c r="AA3" s="23"/>
-      <c r="AB3" s="23"/>
-      <c r="AC3" s="23"/>
-      <c r="AD3" s="23"/>
-      <c r="AE3" s="23"/>
-      <c r="AF3" s="23"/>
-      <c r="AG3" s="23"/>
-      <c r="AH3" s="23"/>
-      <c r="AI3" s="23"/>
-      <c r="AJ3" s="23"/>
-      <c r="AK3" s="23"/>
-      <c r="AL3" s="23"/>
-      <c r="AM3" s="23"/>
-      <c r="AN3" s="23"/>
-      <c r="AO3" s="23"/>
-      <c r="AP3" s="23"/>
-      <c r="AQ3" s="23"/>
-      <c r="AR3" s="23"/>
-      <c r="AS3" s="23"/>
-      <c r="AT3" s="23"/>
-      <c r="AU3" s="23"/>
-      <c r="AV3" s="23"/>
-      <c r="AW3" s="23"/>
-      <c r="AX3" s="23"/>
-      <c r="AY3" s="23"/>
-      <c r="AZ3" s="23"/>
-      <c r="BA3" s="23"/>
-      <c r="BB3" s="23"/>
-      <c r="BC3" s="23"/>
-      <c r="BD3" s="24"/>
-    </row>
-    <row r="4" spans="1:56" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" s="23"/>
-      <c r="C4" s="23"/>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="23"/>
-      <c r="G4" s="23"/>
-      <c r="H4" s="23"/>
-      <c r="I4" s="23"/>
-      <c r="J4" s="23"/>
-      <c r="K4" s="23"/>
-      <c r="L4" s="23"/>
-      <c r="M4" s="23"/>
-      <c r="N4" s="23"/>
-      <c r="O4" s="23"/>
-      <c r="P4" s="23"/>
-      <c r="Q4" s="23"/>
-      <c r="R4" s="23"/>
-      <c r="S4" s="23"/>
-      <c r="T4" s="23"/>
-      <c r="U4" s="23"/>
-      <c r="V4" s="23"/>
-      <c r="W4" s="23"/>
-      <c r="X4" s="23"/>
-      <c r="Y4" s="23"/>
-      <c r="Z4" s="23"/>
-      <c r="AA4" s="23"/>
-      <c r="AB4" s="23"/>
-      <c r="AC4" s="23"/>
-      <c r="AD4" s="23"/>
-      <c r="AE4" s="23"/>
-      <c r="AF4" s="23"/>
-      <c r="AG4" s="23"/>
-      <c r="AH4" s="23"/>
-      <c r="AI4" s="23"/>
-      <c r="AJ4" s="23"/>
-      <c r="AK4" s="23"/>
-      <c r="AL4" s="23"/>
-      <c r="AM4" s="23"/>
-      <c r="AN4" s="23"/>
-      <c r="AO4" s="23"/>
-      <c r="AP4" s="23"/>
-      <c r="AQ4" s="23"/>
-      <c r="AR4" s="23"/>
-      <c r="AS4" s="23"/>
-      <c r="AT4" s="23"/>
-      <c r="AU4" s="23"/>
-      <c r="AV4" s="23"/>
-      <c r="AW4" s="23"/>
-      <c r="AX4" s="23"/>
-      <c r="AY4" s="23"/>
-      <c r="AZ4" s="23"/>
-      <c r="BA4" s="23"/>
-      <c r="BB4" s="23"/>
-      <c r="BC4" s="23"/>
-      <c r="BD4" s="24"/>
+      <c r="B4" s="24"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="24"/>
+      <c r="H4" s="24"/>
+      <c r="I4" s="24"/>
+      <c r="J4" s="24"/>
+      <c r="K4" s="24"/>
+      <c r="L4" s="24"/>
+      <c r="M4" s="24"/>
+      <c r="N4" s="24"/>
+      <c r="O4" s="24"/>
+      <c r="P4" s="24"/>
+      <c r="Q4" s="24"/>
+      <c r="R4" s="24"/>
+      <c r="S4" s="24"/>
+      <c r="T4" s="24"/>
+      <c r="U4" s="24"/>
+      <c r="V4" s="24"/>
+      <c r="W4" s="24"/>
+      <c r="X4" s="24"/>
+      <c r="Y4" s="24"/>
+      <c r="Z4" s="24"/>
+      <c r="AA4" s="24"/>
+      <c r="AB4" s="24"/>
+      <c r="AC4" s="24"/>
+      <c r="AD4" s="24"/>
+      <c r="AE4" s="24"/>
+      <c r="AF4" s="24"/>
+      <c r="AG4" s="24"/>
+      <c r="AH4" s="24"/>
+      <c r="AI4" s="24"/>
+      <c r="AJ4" s="24"/>
+      <c r="AK4" s="24"/>
+      <c r="AL4" s="24"/>
+      <c r="AM4" s="24"/>
+      <c r="AN4" s="24"/>
+      <c r="AO4" s="24"/>
+      <c r="AP4" s="24"/>
+      <c r="AQ4" s="24"/>
+      <c r="AR4" s="24"/>
+      <c r="AS4" s="24"/>
+      <c r="AT4" s="24"/>
+      <c r="AU4" s="24"/>
+      <c r="AV4" s="24"/>
+      <c r="AW4" s="24"/>
+      <c r="AX4" s="24"/>
+      <c r="AY4" s="24"/>
+      <c r="AZ4" s="24"/>
+      <c r="BA4" s="24"/>
+      <c r="BB4" s="24"/>
+      <c r="BC4" s="24"/>
+      <c r="BD4" s="25"/>
     </row>
     <row r="5" spans="1:56" ht="8.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
@@ -2441,248 +2494,248 @@
       <c r="BD25" s="4"/>
     </row>
     <row r="26" spans="1:56" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="20" t="s">
+      <c r="A26" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B26" s="20"/>
-      <c r="C26" s="20"/>
-      <c r="D26" s="20"/>
-      <c r="E26" s="20"/>
-      <c r="F26" s="20"/>
-      <c r="G26" s="20"/>
-      <c r="H26" s="20"/>
-      <c r="I26" s="20"/>
-      <c r="J26" s="20"/>
-      <c r="K26" s="20"/>
-      <c r="L26" s="20"/>
-      <c r="M26" s="20"/>
-      <c r="N26" s="20"/>
-      <c r="O26" s="20"/>
-      <c r="P26" s="20"/>
-      <c r="Q26" s="20"/>
-      <c r="R26" s="20"/>
-      <c r="S26" s="20"/>
-      <c r="T26" s="20"/>
-      <c r="U26" s="20"/>
-      <c r="V26" s="20"/>
-      <c r="W26" s="20"/>
-      <c r="X26" s="20"/>
-      <c r="Y26" s="20"/>
-      <c r="Z26" s="20"/>
-      <c r="AA26" s="20"/>
-      <c r="AB26" s="20"/>
-      <c r="AC26" s="20"/>
-      <c r="AD26" s="20"/>
-      <c r="AE26" s="20"/>
-      <c r="AF26" s="20"/>
-      <c r="AG26" s="20"/>
-      <c r="AH26" s="20"/>
-      <c r="AI26" s="20"/>
-      <c r="AJ26" s="20"/>
-      <c r="AK26" s="20"/>
-      <c r="AL26" s="20"/>
-      <c r="AM26" s="20"/>
-      <c r="AN26" s="20"/>
-      <c r="AO26" s="20"/>
-      <c r="AP26" s="20"/>
-      <c r="AQ26" s="20"/>
-      <c r="AR26" s="20"/>
-      <c r="AS26" s="20"/>
-      <c r="AT26" s="20"/>
-      <c r="AU26" s="20"/>
-      <c r="AV26" s="20"/>
-      <c r="AW26" s="20"/>
-      <c r="AX26" s="20"/>
-      <c r="AY26" s="20"/>
-      <c r="AZ26" s="20"/>
-      <c r="BA26" s="20"/>
-      <c r="BB26" s="20"/>
-      <c r="BC26" s="20"/>
-      <c r="BD26" s="21"/>
+      <c r="B26" s="18"/>
+      <c r="C26" s="18"/>
+      <c r="D26" s="18"/>
+      <c r="E26" s="18"/>
+      <c r="F26" s="18"/>
+      <c r="G26" s="18"/>
+      <c r="H26" s="18"/>
+      <c r="I26" s="18"/>
+      <c r="J26" s="18"/>
+      <c r="K26" s="18"/>
+      <c r="L26" s="18"/>
+      <c r="M26" s="18"/>
+      <c r="N26" s="18"/>
+      <c r="O26" s="18"/>
+      <c r="P26" s="18"/>
+      <c r="Q26" s="18"/>
+      <c r="R26" s="18"/>
+      <c r="S26" s="18"/>
+      <c r="T26" s="18"/>
+      <c r="U26" s="18"/>
+      <c r="V26" s="18"/>
+      <c r="W26" s="18"/>
+      <c r="X26" s="18"/>
+      <c r="Y26" s="18"/>
+      <c r="Z26" s="18"/>
+      <c r="AA26" s="18"/>
+      <c r="AB26" s="18"/>
+      <c r="AC26" s="18"/>
+      <c r="AD26" s="18"/>
+      <c r="AE26" s="18"/>
+      <c r="AF26" s="18"/>
+      <c r="AG26" s="18"/>
+      <c r="AH26" s="18"/>
+      <c r="AI26" s="18"/>
+      <c r="AJ26" s="18"/>
+      <c r="AK26" s="18"/>
+      <c r="AL26" s="18"/>
+      <c r="AM26" s="18"/>
+      <c r="AN26" s="18"/>
+      <c r="AO26" s="18"/>
+      <c r="AP26" s="18"/>
+      <c r="AQ26" s="18"/>
+      <c r="AR26" s="18"/>
+      <c r="AS26" s="18"/>
+      <c r="AT26" s="18"/>
+      <c r="AU26" s="18"/>
+      <c r="AV26" s="18"/>
+      <c r="AW26" s="18"/>
+      <c r="AX26" s="18"/>
+      <c r="AY26" s="18"/>
+      <c r="AZ26" s="18"/>
+      <c r="BA26" s="18"/>
+      <c r="BB26" s="18"/>
+      <c r="BC26" s="18"/>
+      <c r="BD26" s="19"/>
     </row>
     <row r="27" spans="1:56" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="29" t="s">
+      <c r="A27" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B27" s="29"/>
-      <c r="C27" s="29"/>
-      <c r="D27" s="29"/>
-      <c r="E27" s="29"/>
-      <c r="F27" s="29"/>
-      <c r="G27" s="29"/>
-      <c r="H27" s="29"/>
-      <c r="I27" s="29"/>
-      <c r="J27" s="29"/>
-      <c r="K27" s="29"/>
-      <c r="L27" s="29"/>
-      <c r="M27" s="29"/>
-      <c r="N27" s="29"/>
-      <c r="O27" s="29"/>
-      <c r="P27" s="29"/>
-      <c r="Q27" s="29"/>
-      <c r="R27" s="29"/>
-      <c r="S27" s="29"/>
-      <c r="T27" s="29"/>
-      <c r="U27" s="29"/>
-      <c r="V27" s="29"/>
-      <c r="W27" s="29"/>
-      <c r="X27" s="29"/>
-      <c r="Y27" s="29"/>
-      <c r="Z27" s="29"/>
-      <c r="AA27" s="29"/>
-      <c r="AB27" s="29"/>
-      <c r="AC27" s="29" t="s">
-        <v>18</v>
-      </c>
-      <c r="AD27" s="29"/>
-      <c r="AE27" s="29"/>
-      <c r="AF27" s="29"/>
-      <c r="AG27" s="29"/>
-      <c r="AH27" s="29"/>
-      <c r="AI27" s="29"/>
-      <c r="AJ27" s="29"/>
-      <c r="AK27" s="29"/>
-      <c r="AL27" s="29"/>
-      <c r="AM27" s="29"/>
-      <c r="AN27" s="29"/>
-      <c r="AO27" s="29"/>
-      <c r="AP27" s="29"/>
-      <c r="AQ27" s="29"/>
-      <c r="AR27" s="29"/>
-      <c r="AS27" s="29"/>
-      <c r="AT27" s="29"/>
-      <c r="AU27" s="29"/>
-      <c r="AV27" s="29"/>
-      <c r="AW27" s="29"/>
-      <c r="AX27" s="29"/>
-      <c r="AY27" s="29"/>
-      <c r="AZ27" s="29"/>
-      <c r="BA27" s="29"/>
-      <c r="BB27" s="29"/>
-      <c r="BC27" s="29"/>
-      <c r="BD27" s="30"/>
-    </row>
-    <row r="28" spans="1:56" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="29" t="s">
-        <v>15</v>
-      </c>
-      <c r="B28" s="29"/>
-      <c r="C28" s="29"/>
-      <c r="D28" s="29"/>
-      <c r="E28" s="29"/>
-      <c r="F28" s="29"/>
-      <c r="G28" s="29"/>
-      <c r="H28" s="29"/>
-      <c r="I28" s="29"/>
-      <c r="J28" s="29"/>
-      <c r="K28" s="29"/>
-      <c r="L28" s="29"/>
-      <c r="M28" s="29"/>
-      <c r="N28" s="29"/>
-      <c r="O28" s="29"/>
-      <c r="P28" s="29"/>
-      <c r="Q28" s="29"/>
-      <c r="R28" s="29"/>
-      <c r="S28" s="29"/>
-      <c r="T28" s="29"/>
-      <c r="U28" s="29"/>
-      <c r="V28" s="29"/>
-      <c r="W28" s="29"/>
-      <c r="X28" s="29"/>
-      <c r="Y28" s="29"/>
-      <c r="Z28" s="29"/>
-      <c r="AA28" s="29"/>
-      <c r="AB28" s="29"/>
-      <c r="AC28" s="29" t="s">
-        <v>22</v>
-      </c>
-      <c r="AD28" s="29"/>
-      <c r="AE28" s="29"/>
-      <c r="AF28" s="29"/>
-      <c r="AG28" s="29"/>
-      <c r="AH28" s="29"/>
-      <c r="AI28" s="29"/>
-      <c r="AJ28" s="29"/>
-      <c r="AK28" s="29"/>
-      <c r="AL28" s="29"/>
-      <c r="AM28" s="29"/>
-      <c r="AN28" s="29"/>
-      <c r="AO28" s="29"/>
-      <c r="AP28" s="29"/>
-      <c r="AQ28" s="29"/>
-      <c r="AR28" s="29"/>
-      <c r="AS28" s="29"/>
-      <c r="AT28" s="29"/>
-      <c r="AU28" s="29"/>
-      <c r="AV28" s="29"/>
-      <c r="AW28" s="29"/>
-      <c r="AX28" s="29"/>
-      <c r="AY28" s="29"/>
-      <c r="AZ28" s="29"/>
-      <c r="BA28" s="29"/>
-      <c r="BB28" s="29"/>
-      <c r="BC28" s="29"/>
-      <c r="BD28" s="30"/>
-    </row>
-    <row r="29" spans="1:56" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="29" t="s">
+      <c r="B27" s="13"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="13"/>
+      <c r="G27" s="13"/>
+      <c r="H27" s="13"/>
+      <c r="I27" s="13"/>
+      <c r="J27" s="13"/>
+      <c r="K27" s="13"/>
+      <c r="L27" s="13"/>
+      <c r="M27" s="13"/>
+      <c r="N27" s="13"/>
+      <c r="O27" s="13"/>
+      <c r="P27" s="13"/>
+      <c r="Q27" s="13"/>
+      <c r="R27" s="13"/>
+      <c r="S27" s="13"/>
+      <c r="T27" s="13"/>
+      <c r="U27" s="13"/>
+      <c r="V27" s="13"/>
+      <c r="W27" s="13"/>
+      <c r="X27" s="13"/>
+      <c r="Y27" s="13"/>
+      <c r="Z27" s="13"/>
+      <c r="AA27" s="13"/>
+      <c r="AB27" s="13"/>
+      <c r="AC27" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="B29" s="29"/>
-      <c r="C29" s="29"/>
-      <c r="D29" s="29"/>
-      <c r="E29" s="29"/>
-      <c r="F29" s="29"/>
-      <c r="G29" s="29"/>
-      <c r="H29" s="29"/>
-      <c r="I29" s="29"/>
-      <c r="J29" s="29"/>
-      <c r="K29" s="29"/>
-      <c r="L29" s="29"/>
-      <c r="M29" s="29"/>
-      <c r="N29" s="29"/>
-      <c r="O29" s="29"/>
-      <c r="P29" s="29"/>
-      <c r="Q29" s="29"/>
-      <c r="R29" s="29"/>
-      <c r="S29" s="29"/>
-      <c r="T29" s="29"/>
-      <c r="U29" s="29"/>
-      <c r="V29" s="29"/>
-      <c r="W29" s="29"/>
-      <c r="X29" s="29"/>
-      <c r="Y29" s="29"/>
-      <c r="Z29" s="29"/>
-      <c r="AA29" s="29"/>
-      <c r="AB29" s="29"/>
-      <c r="AC29" s="29"/>
-      <c r="AD29" s="29"/>
-      <c r="AE29" s="29"/>
-      <c r="AF29" s="29"/>
-      <c r="AG29" s="29"/>
-      <c r="AH29" s="29"/>
-      <c r="AI29" s="29"/>
-      <c r="AJ29" s="29"/>
-      <c r="AK29" s="29"/>
-      <c r="AL29" s="29"/>
-      <c r="AM29" s="29"/>
-      <c r="AN29" s="29"/>
-      <c r="AO29" s="29"/>
-      <c r="AP29" s="29"/>
-      <c r="AQ29" s="29"/>
-      <c r="AR29" s="29"/>
-      <c r="AS29" s="29"/>
-      <c r="AT29" s="29"/>
-      <c r="AU29" s="29"/>
-      <c r="AV29" s="29"/>
-      <c r="AW29" s="29"/>
-      <c r="AX29" s="29"/>
-      <c r="AY29" s="29"/>
-      <c r="AZ29" s="29"/>
-      <c r="BA29" s="29"/>
-      <c r="BB29" s="29"/>
-      <c r="BC29" s="29"/>
-      <c r="BD29" s="30"/>
+      <c r="AD27" s="13"/>
+      <c r="AE27" s="13"/>
+      <c r="AF27" s="13"/>
+      <c r="AG27" s="13"/>
+      <c r="AH27" s="13"/>
+      <c r="AI27" s="13"/>
+      <c r="AJ27" s="13"/>
+      <c r="AK27" s="13"/>
+      <c r="AL27" s="13"/>
+      <c r="AM27" s="13"/>
+      <c r="AN27" s="13"/>
+      <c r="AO27" s="13"/>
+      <c r="AP27" s="13"/>
+      <c r="AQ27" s="13"/>
+      <c r="AR27" s="13"/>
+      <c r="AS27" s="13"/>
+      <c r="AT27" s="13"/>
+      <c r="AU27" s="13"/>
+      <c r="AV27" s="13"/>
+      <c r="AW27" s="13"/>
+      <c r="AX27" s="13"/>
+      <c r="AY27" s="13"/>
+      <c r="AZ27" s="13"/>
+      <c r="BA27" s="13"/>
+      <c r="BB27" s="13"/>
+      <c r="BC27" s="13"/>
+      <c r="BD27" s="14"/>
+    </row>
+    <row r="28" spans="1:56" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B28" s="13"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="13"/>
+      <c r="H28" s="13"/>
+      <c r="I28" s="13"/>
+      <c r="J28" s="13"/>
+      <c r="K28" s="13"/>
+      <c r="L28" s="13"/>
+      <c r="M28" s="13"/>
+      <c r="N28" s="13"/>
+      <c r="O28" s="13"/>
+      <c r="P28" s="13"/>
+      <c r="Q28" s="13"/>
+      <c r="R28" s="13"/>
+      <c r="S28" s="13"/>
+      <c r="T28" s="13"/>
+      <c r="U28" s="13"/>
+      <c r="V28" s="13"/>
+      <c r="W28" s="13"/>
+      <c r="X28" s="13"/>
+      <c r="Y28" s="13"/>
+      <c r="Z28" s="13"/>
+      <c r="AA28" s="13"/>
+      <c r="AB28" s="13"/>
+      <c r="AC28" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="AD28" s="13"/>
+      <c r="AE28" s="13"/>
+      <c r="AF28" s="13"/>
+      <c r="AG28" s="13"/>
+      <c r="AH28" s="13"/>
+      <c r="AI28" s="13"/>
+      <c r="AJ28" s="13"/>
+      <c r="AK28" s="13"/>
+      <c r="AL28" s="13"/>
+      <c r="AM28" s="13"/>
+      <c r="AN28" s="13"/>
+      <c r="AO28" s="13"/>
+      <c r="AP28" s="13"/>
+      <c r="AQ28" s="13"/>
+      <c r="AR28" s="13"/>
+      <c r="AS28" s="13"/>
+      <c r="AT28" s="13"/>
+      <c r="AU28" s="13"/>
+      <c r="AV28" s="13"/>
+      <c r="AW28" s="13"/>
+      <c r="AX28" s="13"/>
+      <c r="AY28" s="13"/>
+      <c r="AZ28" s="13"/>
+      <c r="BA28" s="13"/>
+      <c r="BB28" s="13"/>
+      <c r="BC28" s="13"/>
+      <c r="BD28" s="14"/>
+    </row>
+    <row r="29" spans="1:56" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B29" s="13"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="13"/>
+      <c r="G29" s="13"/>
+      <c r="H29" s="13"/>
+      <c r="I29" s="13"/>
+      <c r="J29" s="13"/>
+      <c r="K29" s="13"/>
+      <c r="L29" s="13"/>
+      <c r="M29" s="13"/>
+      <c r="N29" s="13"/>
+      <c r="O29" s="13"/>
+      <c r="P29" s="13"/>
+      <c r="Q29" s="13"/>
+      <c r="R29" s="13"/>
+      <c r="S29" s="13"/>
+      <c r="T29" s="13"/>
+      <c r="U29" s="13"/>
+      <c r="V29" s="13"/>
+      <c r="W29" s="13"/>
+      <c r="X29" s="13"/>
+      <c r="Y29" s="13"/>
+      <c r="Z29" s="13"/>
+      <c r="AA29" s="13"/>
+      <c r="AB29" s="13"/>
+      <c r="AC29" s="13"/>
+      <c r="AD29" s="13"/>
+      <c r="AE29" s="13"/>
+      <c r="AF29" s="13"/>
+      <c r="AG29" s="13"/>
+      <c r="AH29" s="13"/>
+      <c r="AI29" s="13"/>
+      <c r="AJ29" s="13"/>
+      <c r="AK29" s="13"/>
+      <c r="AL29" s="13"/>
+      <c r="AM29" s="13"/>
+      <c r="AN29" s="13"/>
+      <c r="AO29" s="13"/>
+      <c r="AP29" s="13"/>
+      <c r="AQ29" s="13"/>
+      <c r="AR29" s="13"/>
+      <c r="AS29" s="13"/>
+      <c r="AT29" s="13"/>
+      <c r="AU29" s="13"/>
+      <c r="AV29" s="13"/>
+      <c r="AW29" s="13"/>
+      <c r="AX29" s="13"/>
+      <c r="AY29" s="13"/>
+      <c r="AZ29" s="13"/>
+      <c r="BA29" s="13"/>
+      <c r="BB29" s="13"/>
+      <c r="BC29" s="13"/>
+      <c r="BD29" s="14"/>
     </row>
     <row r="30" spans="1:56" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="5"/>
@@ -3903,252 +3956,252 @@
       <c r="BD50" s="10"/>
     </row>
     <row r="51" spans="1:56" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="19" t="s">
+      <c r="A51" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="B51" s="18"/>
+      <c r="C51" s="18"/>
+      <c r="D51" s="18"/>
+      <c r="E51" s="18"/>
+      <c r="F51" s="18"/>
+      <c r="G51" s="18"/>
+      <c r="H51" s="18"/>
+      <c r="I51" s="18"/>
+      <c r="J51" s="18"/>
+      <c r="K51" s="18"/>
+      <c r="L51" s="18"/>
+      <c r="M51" s="18"/>
+      <c r="N51" s="18"/>
+      <c r="O51" s="18"/>
+      <c r="P51" s="18"/>
+      <c r="Q51" s="18"/>
+      <c r="R51" s="18"/>
+      <c r="S51" s="18"/>
+      <c r="T51" s="18"/>
+      <c r="U51" s="18"/>
+      <c r="V51" s="18"/>
+      <c r="W51" s="18"/>
+      <c r="X51" s="18"/>
+      <c r="Y51" s="18"/>
+      <c r="Z51" s="18"/>
+      <c r="AA51" s="18"/>
+      <c r="AB51" s="18"/>
+      <c r="AC51" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD51" s="18"/>
+      <c r="AE51" s="18"/>
+      <c r="AF51" s="18"/>
+      <c r="AG51" s="18"/>
+      <c r="AH51" s="18"/>
+      <c r="AI51" s="18"/>
+      <c r="AJ51" s="18"/>
+      <c r="AK51" s="18"/>
+      <c r="AL51" s="18"/>
+      <c r="AM51" s="18"/>
+      <c r="AN51" s="18"/>
+      <c r="AO51" s="18"/>
+      <c r="AP51" s="18"/>
+      <c r="AQ51" s="18"/>
+      <c r="AR51" s="18"/>
+      <c r="AS51" s="18"/>
+      <c r="AT51" s="18"/>
+      <c r="AU51" s="18"/>
+      <c r="AV51" s="18"/>
+      <c r="AW51" s="18"/>
+      <c r="AX51" s="18"/>
+      <c r="AY51" s="18"/>
+      <c r="AZ51" s="18"/>
+      <c r="BA51" s="18"/>
+      <c r="BB51" s="18"/>
+      <c r="BC51" s="18"/>
+      <c r="BD51" s="19"/>
+    </row>
+    <row r="52" spans="1:56" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="B51" s="20"/>
-      <c r="C51" s="20"/>
-      <c r="D51" s="20"/>
-      <c r="E51" s="20"/>
-      <c r="F51" s="20"/>
-      <c r="G51" s="20"/>
-      <c r="H51" s="20"/>
-      <c r="I51" s="20"/>
-      <c r="J51" s="20"/>
-      <c r="K51" s="20"/>
-      <c r="L51" s="20"/>
-      <c r="M51" s="20"/>
-      <c r="N51" s="20"/>
-      <c r="O51" s="20"/>
-      <c r="P51" s="20"/>
-      <c r="Q51" s="20"/>
-      <c r="R51" s="20"/>
-      <c r="S51" s="20"/>
-      <c r="T51" s="20"/>
-      <c r="U51" s="20"/>
-      <c r="V51" s="20"/>
-      <c r="W51" s="20"/>
-      <c r="X51" s="20"/>
-      <c r="Y51" s="20"/>
-      <c r="Z51" s="20"/>
-      <c r="AA51" s="20"/>
-      <c r="AB51" s="20"/>
-      <c r="AC51" s="19" t="s">
-        <v>4</v>
+      <c r="B52" s="24"/>
+      <c r="C52" s="24"/>
+      <c r="D52" s="24"/>
+      <c r="E52" s="24"/>
+      <c r="F52" s="24"/>
+      <c r="G52" s="24"/>
+      <c r="H52" s="24"/>
+      <c r="I52" s="24"/>
+      <c r="J52" s="24"/>
+      <c r="K52" s="24"/>
+      <c r="L52" s="24"/>
+      <c r="M52" s="24"/>
+      <c r="N52" s="24"/>
+      <c r="O52" s="24"/>
+      <c r="P52" s="24"/>
+      <c r="Q52" s="24"/>
+      <c r="R52" s="24"/>
+      <c r="S52" s="24"/>
+      <c r="T52" s="24"/>
+      <c r="U52" s="24"/>
+      <c r="V52" s="24"/>
+      <c r="W52" s="24"/>
+      <c r="X52" s="24"/>
+      <c r="Y52" s="24"/>
+      <c r="Z52" s="24"/>
+      <c r="AA52" s="24"/>
+      <c r="AB52" s="24"/>
+      <c r="AC52" s="23" t="s">
+        <v>23</v>
       </c>
-      <c r="AD51" s="20"/>
-      <c r="AE51" s="20"/>
-      <c r="AF51" s="20"/>
-      <c r="AG51" s="20"/>
-      <c r="AH51" s="20"/>
-      <c r="AI51" s="20"/>
-      <c r="AJ51" s="20"/>
-      <c r="AK51" s="20"/>
-      <c r="AL51" s="20"/>
-      <c r="AM51" s="20"/>
-      <c r="AN51" s="20"/>
-      <c r="AO51" s="20"/>
-      <c r="AP51" s="20"/>
-      <c r="AQ51" s="20"/>
-      <c r="AR51" s="20"/>
-      <c r="AS51" s="20"/>
-      <c r="AT51" s="20"/>
-      <c r="AU51" s="20"/>
-      <c r="AV51" s="20"/>
-      <c r="AW51" s="20"/>
-      <c r="AX51" s="20"/>
-      <c r="AY51" s="20"/>
-      <c r="AZ51" s="20"/>
-      <c r="BA51" s="20"/>
-      <c r="BB51" s="20"/>
-      <c r="BC51" s="20"/>
-      <c r="BD51" s="21"/>
-    </row>
-    <row r="52" spans="1:56" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="22" t="s">
+      <c r="AD52" s="24"/>
+      <c r="AE52" s="24"/>
+      <c r="AF52" s="24"/>
+      <c r="AG52" s="24"/>
+      <c r="AH52" s="24"/>
+      <c r="AI52" s="24"/>
+      <c r="AJ52" s="24"/>
+      <c r="AK52" s="24"/>
+      <c r="AL52" s="24"/>
+      <c r="AM52" s="24"/>
+      <c r="AN52" s="24"/>
+      <c r="AO52" s="24"/>
+      <c r="AP52" s="24"/>
+      <c r="AQ52" s="24"/>
+      <c r="AR52" s="24"/>
+      <c r="AS52" s="24"/>
+      <c r="AT52" s="24"/>
+      <c r="AU52" s="24"/>
+      <c r="AV52" s="24"/>
+      <c r="AW52" s="24"/>
+      <c r="AX52" s="24"/>
+      <c r="AY52" s="24"/>
+      <c r="AZ52" s="24"/>
+      <c r="BA52" s="24"/>
+      <c r="BB52" s="24"/>
+      <c r="BC52" s="24"/>
+      <c r="BD52" s="25"/>
+    </row>
+    <row r="53" spans="1:56" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="B53" s="24"/>
+      <c r="C53" s="24"/>
+      <c r="D53" s="24"/>
+      <c r="E53" s="24"/>
+      <c r="F53" s="24"/>
+      <c r="G53" s="24"/>
+      <c r="H53" s="24"/>
+      <c r="I53" s="24"/>
+      <c r="J53" s="24"/>
+      <c r="K53" s="24"/>
+      <c r="L53" s="24"/>
+      <c r="M53" s="24"/>
+      <c r="N53" s="24"/>
+      <c r="O53" s="24"/>
+      <c r="P53" s="24"/>
+      <c r="Q53" s="24"/>
+      <c r="R53" s="24"/>
+      <c r="S53" s="24"/>
+      <c r="T53" s="24"/>
+      <c r="U53" s="24"/>
+      <c r="V53" s="24"/>
+      <c r="W53" s="24"/>
+      <c r="X53" s="24"/>
+      <c r="Y53" s="24"/>
+      <c r="Z53" s="24"/>
+      <c r="AA53" s="24"/>
+      <c r="AB53" s="24"/>
+      <c r="AC53" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD53" s="24"/>
+      <c r="AE53" s="24"/>
+      <c r="AF53" s="24"/>
+      <c r="AG53" s="24"/>
+      <c r="AH53" s="24"/>
+      <c r="AI53" s="24"/>
+      <c r="AJ53" s="24"/>
+      <c r="AK53" s="24"/>
+      <c r="AL53" s="24"/>
+      <c r="AM53" s="24"/>
+      <c r="AN53" s="24"/>
+      <c r="AO53" s="24"/>
+      <c r="AP53" s="24"/>
+      <c r="AQ53" s="24"/>
+      <c r="AR53" s="24"/>
+      <c r="AS53" s="24"/>
+      <c r="AT53" s="24"/>
+      <c r="AU53" s="24"/>
+      <c r="AV53" s="24"/>
+      <c r="AW53" s="24"/>
+      <c r="AX53" s="24"/>
+      <c r="AY53" s="24"/>
+      <c r="AZ53" s="24"/>
+      <c r="BA53" s="24"/>
+      <c r="BB53" s="24"/>
+      <c r="BC53" s="24"/>
+      <c r="BD53" s="25"/>
+    </row>
+    <row r="54" spans="1:56" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="B52" s="23"/>
-      <c r="C52" s="23"/>
-      <c r="D52" s="23"/>
-      <c r="E52" s="23"/>
-      <c r="F52" s="23"/>
-      <c r="G52" s="23"/>
-      <c r="H52" s="23"/>
-      <c r="I52" s="23"/>
-      <c r="J52" s="23"/>
-      <c r="K52" s="23"/>
-      <c r="L52" s="23"/>
-      <c r="M52" s="23"/>
-      <c r="N52" s="23"/>
-      <c r="O52" s="23"/>
-      <c r="P52" s="23"/>
-      <c r="Q52" s="23"/>
-      <c r="R52" s="23"/>
-      <c r="S52" s="23"/>
-      <c r="T52" s="23"/>
-      <c r="U52" s="23"/>
-      <c r="V52" s="23"/>
-      <c r="W52" s="23"/>
-      <c r="X52" s="23"/>
-      <c r="Y52" s="23"/>
-      <c r="Z52" s="23"/>
-      <c r="AA52" s="23"/>
-      <c r="AB52" s="23"/>
-      <c r="AC52" s="22" t="s">
-        <v>5</v>
+      <c r="B54" s="24"/>
+      <c r="C54" s="24"/>
+      <c r="D54" s="24"/>
+      <c r="E54" s="24"/>
+      <c r="F54" s="24"/>
+      <c r="G54" s="24"/>
+      <c r="H54" s="24"/>
+      <c r="I54" s="24"/>
+      <c r="J54" s="24"/>
+      <c r="K54" s="24"/>
+      <c r="L54" s="24"/>
+      <c r="M54" s="24"/>
+      <c r="N54" s="24"/>
+      <c r="O54" s="24"/>
+      <c r="P54" s="24"/>
+      <c r="Q54" s="24"/>
+      <c r="R54" s="24"/>
+      <c r="S54" s="24"/>
+      <c r="T54" s="24"/>
+      <c r="U54" s="24"/>
+      <c r="V54" s="24"/>
+      <c r="W54" s="24"/>
+      <c r="X54" s="24"/>
+      <c r="Y54" s="24"/>
+      <c r="Z54" s="24"/>
+      <c r="AA54" s="24"/>
+      <c r="AB54" s="24"/>
+      <c r="AC54" s="23" t="s">
+        <v>8</v>
       </c>
-      <c r="AD52" s="23"/>
-      <c r="AE52" s="23"/>
-      <c r="AF52" s="23"/>
-      <c r="AG52" s="23"/>
-      <c r="AH52" s="23"/>
-      <c r="AI52" s="23"/>
-      <c r="AJ52" s="23"/>
-      <c r="AK52" s="23"/>
-      <c r="AL52" s="23"/>
-      <c r="AM52" s="23"/>
-      <c r="AN52" s="23"/>
-      <c r="AO52" s="23"/>
-      <c r="AP52" s="23"/>
-      <c r="AQ52" s="23"/>
-      <c r="AR52" s="23"/>
-      <c r="AS52" s="23"/>
-      <c r="AT52" s="23"/>
-      <c r="AU52" s="23"/>
-      <c r="AV52" s="23"/>
-      <c r="AW52" s="23"/>
-      <c r="AX52" s="23"/>
-      <c r="AY52" s="23"/>
-      <c r="AZ52" s="23"/>
-      <c r="BA52" s="23"/>
-      <c r="BB52" s="23"/>
-      <c r="BC52" s="23"/>
-      <c r="BD52" s="24"/>
-    </row>
-    <row r="53" spans="1:56" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="B53" s="23"/>
-      <c r="C53" s="23"/>
-      <c r="D53" s="23"/>
-      <c r="E53" s="23"/>
-      <c r="F53" s="23"/>
-      <c r="G53" s="23"/>
-      <c r="H53" s="23"/>
-      <c r="I53" s="23"/>
-      <c r="J53" s="23"/>
-      <c r="K53" s="23"/>
-      <c r="L53" s="23"/>
-      <c r="M53" s="23"/>
-      <c r="N53" s="23"/>
-      <c r="O53" s="23"/>
-      <c r="P53" s="23"/>
-      <c r="Q53" s="23"/>
-      <c r="R53" s="23"/>
-      <c r="S53" s="23"/>
-      <c r="T53" s="23"/>
-      <c r="U53" s="23"/>
-      <c r="V53" s="23"/>
-      <c r="W53" s="23"/>
-      <c r="X53" s="23"/>
-      <c r="Y53" s="23"/>
-      <c r="Z53" s="23"/>
-      <c r="AA53" s="23"/>
-      <c r="AB53" s="23"/>
-      <c r="AC53" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="AD53" s="23"/>
-      <c r="AE53" s="23"/>
-      <c r="AF53" s="23"/>
-      <c r="AG53" s="23"/>
-      <c r="AH53" s="23"/>
-      <c r="AI53" s="23"/>
-      <c r="AJ53" s="23"/>
-      <c r="AK53" s="23"/>
-      <c r="AL53" s="23"/>
-      <c r="AM53" s="23"/>
-      <c r="AN53" s="23"/>
-      <c r="AO53" s="23"/>
-      <c r="AP53" s="23"/>
-      <c r="AQ53" s="23"/>
-      <c r="AR53" s="23"/>
-      <c r="AS53" s="23"/>
-      <c r="AT53" s="23"/>
-      <c r="AU53" s="23"/>
-      <c r="AV53" s="23"/>
-      <c r="AW53" s="23"/>
-      <c r="AX53" s="23"/>
-      <c r="AY53" s="23"/>
-      <c r="AZ53" s="23"/>
-      <c r="BA53" s="23"/>
-      <c r="BB53" s="23"/>
-      <c r="BC53" s="23"/>
-      <c r="BD53" s="24"/>
-    </row>
-    <row r="54" spans="1:56" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="34" t="s">
-        <v>12</v>
-      </c>
-      <c r="B54" s="23"/>
-      <c r="C54" s="23"/>
-      <c r="D54" s="23"/>
-      <c r="E54" s="23"/>
-      <c r="F54" s="23"/>
-      <c r="G54" s="23"/>
-      <c r="H54" s="23"/>
-      <c r="I54" s="23"/>
-      <c r="J54" s="23"/>
-      <c r="K54" s="23"/>
-      <c r="L54" s="23"/>
-      <c r="M54" s="23"/>
-      <c r="N54" s="23"/>
-      <c r="O54" s="23"/>
-      <c r="P54" s="23"/>
-      <c r="Q54" s="23"/>
-      <c r="R54" s="23"/>
-      <c r="S54" s="23"/>
-      <c r="T54" s="23"/>
-      <c r="U54" s="23"/>
-      <c r="V54" s="23"/>
-      <c r="W54" s="23"/>
-      <c r="X54" s="23"/>
-      <c r="Y54" s="23"/>
-      <c r="Z54" s="23"/>
-      <c r="AA54" s="23"/>
-      <c r="AB54" s="23"/>
-      <c r="AC54" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="AD54" s="23"/>
-      <c r="AE54" s="23"/>
-      <c r="AF54" s="23"/>
-      <c r="AG54" s="23"/>
-      <c r="AH54" s="23"/>
-      <c r="AI54" s="23"/>
-      <c r="AJ54" s="23"/>
-      <c r="AK54" s="23"/>
-      <c r="AL54" s="23"/>
-      <c r="AM54" s="23"/>
-      <c r="AN54" s="23"/>
-      <c r="AO54" s="23"/>
-      <c r="AP54" s="23"/>
-      <c r="AQ54" s="23"/>
-      <c r="AR54" s="23"/>
-      <c r="AS54" s="23"/>
-      <c r="AT54" s="23"/>
-      <c r="AU54" s="23"/>
-      <c r="AV54" s="23"/>
-      <c r="AW54" s="23"/>
-      <c r="AX54" s="23"/>
-      <c r="AY54" s="23"/>
-      <c r="AZ54" s="23"/>
-      <c r="BA54" s="23"/>
-      <c r="BB54" s="23"/>
-      <c r="BC54" s="23"/>
-      <c r="BD54" s="24"/>
+      <c r="AD54" s="24"/>
+      <c r="AE54" s="24"/>
+      <c r="AF54" s="24"/>
+      <c r="AG54" s="24"/>
+      <c r="AH54" s="24"/>
+      <c r="AI54" s="24"/>
+      <c r="AJ54" s="24"/>
+      <c r="AK54" s="24"/>
+      <c r="AL54" s="24"/>
+      <c r="AM54" s="24"/>
+      <c r="AN54" s="24"/>
+      <c r="AO54" s="24"/>
+      <c r="AP54" s="24"/>
+      <c r="AQ54" s="24"/>
+      <c r="AR54" s="24"/>
+      <c r="AS54" s="24"/>
+      <c r="AT54" s="24"/>
+      <c r="AU54" s="24"/>
+      <c r="AV54" s="24"/>
+      <c r="AW54" s="24"/>
+      <c r="AX54" s="24"/>
+      <c r="AY54" s="24"/>
+      <c r="AZ54" s="24"/>
+      <c r="BA54" s="24"/>
+      <c r="BB54" s="24"/>
+      <c r="BC54" s="24"/>
+      <c r="BD54" s="25"/>
     </row>
     <row r="55" spans="1:56" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="11"/>
@@ -4179,232 +4232,223 @@
       <c r="Z55" s="12"/>
       <c r="AA55" s="12"/>
       <c r="AB55" s="12"/>
-      <c r="AC55" s="22" t="s">
-        <v>16</v>
+      <c r="AC55" s="23" t="s">
+        <v>15</v>
       </c>
-      <c r="AD55" s="23"/>
-      <c r="AE55" s="23"/>
-      <c r="AF55" s="23"/>
-      <c r="AG55" s="23"/>
-      <c r="AH55" s="23"/>
-      <c r="AI55" s="23"/>
-      <c r="AJ55" s="23"/>
-      <c r="AK55" s="23"/>
-      <c r="AL55" s="23"/>
-      <c r="AM55" s="23"/>
-      <c r="AN55" s="23"/>
-      <c r="AO55" s="23"/>
-      <c r="AP55" s="23"/>
-      <c r="AQ55" s="23"/>
-      <c r="AR55" s="23"/>
-      <c r="AS55" s="23"/>
-      <c r="AT55" s="23"/>
-      <c r="AU55" s="23"/>
-      <c r="AV55" s="23"/>
-      <c r="AW55" s="23"/>
-      <c r="AX55" s="23"/>
-      <c r="AY55" s="23"/>
-      <c r="AZ55" s="23"/>
-      <c r="BA55" s="23"/>
-      <c r="BB55" s="23"/>
-      <c r="BC55" s="23"/>
-      <c r="BD55" s="24"/>
+      <c r="AD55" s="24"/>
+      <c r="AE55" s="24"/>
+      <c r="AF55" s="24"/>
+      <c r="AG55" s="24"/>
+      <c r="AH55" s="24"/>
+      <c r="AI55" s="24"/>
+      <c r="AJ55" s="24"/>
+      <c r="AK55" s="24"/>
+      <c r="AL55" s="24"/>
+      <c r="AM55" s="24"/>
+      <c r="AN55" s="24"/>
+      <c r="AO55" s="24"/>
+      <c r="AP55" s="24"/>
+      <c r="AQ55" s="24"/>
+      <c r="AR55" s="24"/>
+      <c r="AS55" s="24"/>
+      <c r="AT55" s="24"/>
+      <c r="AU55" s="24"/>
+      <c r="AV55" s="24"/>
+      <c r="AW55" s="24"/>
+      <c r="AX55" s="24"/>
+      <c r="AY55" s="24"/>
+      <c r="AZ55" s="24"/>
+      <c r="BA55" s="24"/>
+      <c r="BB55" s="24"/>
+      <c r="BC55" s="24"/>
+      <c r="BD55" s="25"/>
     </row>
     <row r="56" spans="1:56" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="28"/>
-      <c r="B56" s="26"/>
-      <c r="C56" s="26"/>
-      <c r="D56" s="26"/>
-      <c r="E56" s="26"/>
-      <c r="F56" s="26"/>
-      <c r="G56" s="26"/>
-      <c r="H56" s="26"/>
-      <c r="I56" s="26"/>
-      <c r="J56" s="26"/>
-      <c r="K56" s="26"/>
-      <c r="L56" s="26"/>
-      <c r="M56" s="26"/>
-      <c r="N56" s="26"/>
-      <c r="O56" s="26"/>
-      <c r="P56" s="26"/>
-      <c r="Q56" s="26"/>
-      <c r="R56" s="26"/>
-      <c r="S56" s="26"/>
-      <c r="T56" s="26"/>
-      <c r="U56" s="26"/>
-      <c r="V56" s="26"/>
-      <c r="W56" s="26"/>
-      <c r="X56" s="26"/>
-      <c r="Y56" s="26"/>
-      <c r="Z56" s="26"/>
-      <c r="AA56" s="26"/>
-      <c r="AB56" s="26"/>
-      <c r="AC56" s="25"/>
-      <c r="AD56" s="26"/>
-      <c r="AE56" s="26"/>
-      <c r="AF56" s="26"/>
-      <c r="AG56" s="26"/>
-      <c r="AH56" s="26"/>
-      <c r="AI56" s="26"/>
-      <c r="AJ56" s="26"/>
-      <c r="AK56" s="26"/>
-      <c r="AL56" s="26"/>
-      <c r="AM56" s="26"/>
-      <c r="AN56" s="26"/>
-      <c r="AO56" s="26"/>
-      <c r="AP56" s="26"/>
-      <c r="AQ56" s="26"/>
-      <c r="AR56" s="26"/>
-      <c r="AS56" s="26"/>
-      <c r="AT56" s="26"/>
-      <c r="AU56" s="26"/>
-      <c r="AV56" s="26"/>
-      <c r="AW56" s="26"/>
-      <c r="AX56" s="26"/>
-      <c r="AY56" s="26"/>
-      <c r="AZ56" s="26"/>
-      <c r="BA56" s="26"/>
-      <c r="BB56" s="26"/>
-      <c r="BC56" s="26"/>
-      <c r="BD56" s="27"/>
+      <c r="A56" s="33"/>
+      <c r="B56" s="31"/>
+      <c r="C56" s="31"/>
+      <c r="D56" s="31"/>
+      <c r="E56" s="31"/>
+      <c r="F56" s="31"/>
+      <c r="G56" s="31"/>
+      <c r="H56" s="31"/>
+      <c r="I56" s="31"/>
+      <c r="J56" s="31"/>
+      <c r="K56" s="31"/>
+      <c r="L56" s="31"/>
+      <c r="M56" s="31"/>
+      <c r="N56" s="31"/>
+      <c r="O56" s="31"/>
+      <c r="P56" s="31"/>
+      <c r="Q56" s="31"/>
+      <c r="R56" s="31"/>
+      <c r="S56" s="31"/>
+      <c r="T56" s="31"/>
+      <c r="U56" s="31"/>
+      <c r="V56" s="31"/>
+      <c r="W56" s="31"/>
+      <c r="X56" s="31"/>
+      <c r="Y56" s="31"/>
+      <c r="Z56" s="31"/>
+      <c r="AA56" s="31"/>
+      <c r="AB56" s="31"/>
+      <c r="AC56" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="AD56" s="31"/>
+      <c r="AE56" s="31"/>
+      <c r="AF56" s="31"/>
+      <c r="AG56" s="31"/>
+      <c r="AH56" s="31"/>
+      <c r="AI56" s="31"/>
+      <c r="AJ56" s="31"/>
+      <c r="AK56" s="31"/>
+      <c r="AL56" s="31"/>
+      <c r="AM56" s="31"/>
+      <c r="AN56" s="31"/>
+      <c r="AO56" s="31"/>
+      <c r="AP56" s="31"/>
+      <c r="AQ56" s="31"/>
+      <c r="AR56" s="31"/>
+      <c r="AS56" s="31"/>
+      <c r="AT56" s="31"/>
+      <c r="AU56" s="31"/>
+      <c r="AV56" s="31"/>
+      <c r="AW56" s="31"/>
+      <c r="AX56" s="31"/>
+      <c r="AY56" s="31"/>
+      <c r="AZ56" s="31"/>
+      <c r="BA56" s="31"/>
+      <c r="BB56" s="31"/>
+      <c r="BC56" s="31"/>
+      <c r="BD56" s="32"/>
     </row>
     <row r="57" spans="1:56" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="B57" s="20"/>
-      <c r="C57" s="20"/>
-      <c r="D57" s="20"/>
-      <c r="E57" s="20"/>
-      <c r="F57" s="20"/>
-      <c r="G57" s="20"/>
-      <c r="H57" s="20"/>
-      <c r="I57" s="20"/>
-      <c r="J57" s="20"/>
-      <c r="K57" s="20"/>
-      <c r="L57" s="20"/>
-      <c r="M57" s="20"/>
-      <c r="N57" s="20"/>
-      <c r="O57" s="20"/>
-      <c r="P57" s="20"/>
-      <c r="Q57" s="20"/>
-      <c r="R57" s="20"/>
-      <c r="S57" s="20"/>
-      <c r="T57" s="20"/>
-      <c r="U57" s="20"/>
-      <c r="V57" s="20"/>
-      <c r="W57" s="20"/>
-      <c r="X57" s="20"/>
-      <c r="Y57" s="20"/>
-      <c r="Z57" s="20"/>
-      <c r="AA57" s="20"/>
-      <c r="AB57" s="20"/>
-      <c r="AC57" s="20" t="s">
+      <c r="A57" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="AD57" s="20"/>
-      <c r="AE57" s="20"/>
-      <c r="AF57" s="20"/>
-      <c r="AG57" s="20"/>
-      <c r="AH57" s="20"/>
-      <c r="AI57" s="20"/>
-      <c r="AJ57" s="20"/>
-      <c r="AK57" s="20"/>
-      <c r="AL57" s="20"/>
-      <c r="AM57" s="20"/>
-      <c r="AN57" s="20"/>
-      <c r="AO57" s="20"/>
-      <c r="AP57" s="20"/>
-      <c r="AQ57" s="20"/>
-      <c r="AR57" s="20"/>
-      <c r="AS57" s="20"/>
-      <c r="AT57" s="20"/>
-      <c r="AU57" s="20"/>
-      <c r="AV57" s="20"/>
-      <c r="AW57" s="20"/>
-      <c r="AX57" s="20"/>
-      <c r="AY57" s="20"/>
-      <c r="AZ57" s="20"/>
-      <c r="BA57" s="20"/>
-      <c r="BB57" s="20"/>
-      <c r="BC57" s="20"/>
-      <c r="BD57" s="21"/>
+      <c r="B57" s="18"/>
+      <c r="C57" s="18"/>
+      <c r="D57" s="18"/>
+      <c r="E57" s="18"/>
+      <c r="F57" s="18"/>
+      <c r="G57" s="18"/>
+      <c r="H57" s="18"/>
+      <c r="I57" s="18"/>
+      <c r="J57" s="18"/>
+      <c r="K57" s="18"/>
+      <c r="L57" s="18"/>
+      <c r="M57" s="18"/>
+      <c r="N57" s="18"/>
+      <c r="O57" s="18"/>
+      <c r="P57" s="18"/>
+      <c r="Q57" s="18"/>
+      <c r="R57" s="18"/>
+      <c r="S57" s="18"/>
+      <c r="T57" s="18"/>
+      <c r="U57" s="18"/>
+      <c r="V57" s="18"/>
+      <c r="W57" s="18"/>
+      <c r="X57" s="18"/>
+      <c r="Y57" s="18"/>
+      <c r="Z57" s="18"/>
+      <c r="AA57" s="18"/>
+      <c r="AB57" s="18"/>
+      <c r="AC57" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="AD57" s="18"/>
+      <c r="AE57" s="18"/>
+      <c r="AF57" s="18"/>
+      <c r="AG57" s="18"/>
+      <c r="AH57" s="18"/>
+      <c r="AI57" s="18"/>
+      <c r="AJ57" s="18"/>
+      <c r="AK57" s="18"/>
+      <c r="AL57" s="18"/>
+      <c r="AM57" s="18"/>
+      <c r="AN57" s="18"/>
+      <c r="AO57" s="18"/>
+      <c r="AP57" s="18"/>
+      <c r="AQ57" s="18"/>
+      <c r="AR57" s="18"/>
+      <c r="AS57" s="18"/>
+      <c r="AT57" s="18"/>
+      <c r="AU57" s="18"/>
+      <c r="AV57" s="18"/>
+      <c r="AW57" s="18"/>
+      <c r="AX57" s="18"/>
+      <c r="AY57" s="18"/>
+      <c r="AZ57" s="18"/>
+      <c r="BA57" s="18"/>
+      <c r="BB57" s="18"/>
+      <c r="BC57" s="18"/>
+      <c r="BD57" s="19"/>
     </row>
     <row r="58" spans="1:56" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="16" t="s">
+      <c r="A58" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="B58" s="28"/>
+      <c r="C58" s="28"/>
+      <c r="D58" s="28"/>
+      <c r="E58" s="28"/>
+      <c r="F58" s="28"/>
+      <c r="G58" s="28"/>
+      <c r="H58" s="28"/>
+      <c r="I58" s="28"/>
+      <c r="J58" s="28"/>
+      <c r="K58" s="28"/>
+      <c r="L58" s="28"/>
+      <c r="M58" s="28"/>
+      <c r="N58" s="28"/>
+      <c r="O58" s="28"/>
+      <c r="P58" s="28"/>
+      <c r="Q58" s="28"/>
+      <c r="R58" s="28"/>
+      <c r="S58" s="28"/>
+      <c r="T58" s="28"/>
+      <c r="U58" s="28"/>
+      <c r="V58" s="28"/>
+      <c r="W58" s="28"/>
+      <c r="X58" s="28"/>
+      <c r="Y58" s="28"/>
+      <c r="Z58" s="28"/>
+      <c r="AA58" s="28"/>
+      <c r="AB58" s="28"/>
+      <c r="AC58" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="B58" s="17"/>
-      <c r="C58" s="17"/>
-      <c r="D58" s="17"/>
-      <c r="E58" s="17"/>
-      <c r="F58" s="17"/>
-      <c r="G58" s="17"/>
-      <c r="H58" s="17"/>
-      <c r="I58" s="17"/>
-      <c r="J58" s="17"/>
-      <c r="K58" s="17"/>
-      <c r="L58" s="17"/>
-      <c r="M58" s="17"/>
-      <c r="N58" s="17"/>
-      <c r="O58" s="17"/>
-      <c r="P58" s="17"/>
-      <c r="Q58" s="17"/>
-      <c r="R58" s="17"/>
-      <c r="S58" s="17"/>
-      <c r="T58" s="17"/>
-      <c r="U58" s="17"/>
-      <c r="V58" s="17"/>
-      <c r="W58" s="17"/>
-      <c r="X58" s="17"/>
-      <c r="Y58" s="17"/>
-      <c r="Z58" s="17"/>
-      <c r="AA58" s="17"/>
-      <c r="AB58" s="17"/>
-      <c r="AC58" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="AD58" s="17"/>
-      <c r="AE58" s="17"/>
-      <c r="AF58" s="17"/>
-      <c r="AG58" s="17"/>
-      <c r="AH58" s="17"/>
-      <c r="AI58" s="17"/>
-      <c r="AJ58" s="17"/>
-      <c r="AK58" s="17"/>
-      <c r="AL58" s="17"/>
-      <c r="AM58" s="17"/>
-      <c r="AN58" s="17"/>
-      <c r="AO58" s="17"/>
-      <c r="AP58" s="17"/>
-      <c r="AQ58" s="17"/>
-      <c r="AR58" s="17"/>
-      <c r="AS58" s="17"/>
-      <c r="AT58" s="17"/>
-      <c r="AU58" s="17"/>
-      <c r="AV58" s="17"/>
-      <c r="AW58" s="17"/>
-      <c r="AX58" s="17"/>
-      <c r="AY58" s="17"/>
-      <c r="AZ58" s="17"/>
-      <c r="BA58" s="17"/>
-      <c r="BB58" s="17"/>
-      <c r="BC58" s="17"/>
-      <c r="BD58" s="18"/>
+      <c r="AD58" s="28"/>
+      <c r="AE58" s="28"/>
+      <c r="AF58" s="28"/>
+      <c r="AG58" s="28"/>
+      <c r="AH58" s="28"/>
+      <c r="AI58" s="28"/>
+      <c r="AJ58" s="28"/>
+      <c r="AK58" s="28"/>
+      <c r="AL58" s="28"/>
+      <c r="AM58" s="28"/>
+      <c r="AN58" s="28"/>
+      <c r="AO58" s="28"/>
+      <c r="AP58" s="28"/>
+      <c r="AQ58" s="28"/>
+      <c r="AR58" s="28"/>
+      <c r="AS58" s="28"/>
+      <c r="AT58" s="28"/>
+      <c r="AU58" s="28"/>
+      <c r="AV58" s="28"/>
+      <c r="AW58" s="28"/>
+      <c r="AX58" s="28"/>
+      <c r="AY58" s="28"/>
+      <c r="AZ58" s="28"/>
+      <c r="BA58" s="28"/>
+      <c r="BB58" s="28"/>
+      <c r="BC58" s="28"/>
+      <c r="BD58" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="A27:AB27"/>
-    <mergeCell ref="A28:AB28"/>
-    <mergeCell ref="A29:AB29"/>
-    <mergeCell ref="AC27:BD27"/>
-    <mergeCell ref="AC28:BD28"/>
-    <mergeCell ref="AC29:BD29"/>
-    <mergeCell ref="A1:BD1"/>
-    <mergeCell ref="A26:BD26"/>
-    <mergeCell ref="A2:BD2"/>
-    <mergeCell ref="A3:BD3"/>
-    <mergeCell ref="A4:BD4"/>
     <mergeCell ref="A57:AB57"/>
     <mergeCell ref="AC57:BD57"/>
     <mergeCell ref="A58:AB58"/>
@@ -4420,6 +4464,17 @@
     <mergeCell ref="AC54:BD54"/>
     <mergeCell ref="AC55:BD55"/>
     <mergeCell ref="A54:AB54"/>
+    <mergeCell ref="A1:BD1"/>
+    <mergeCell ref="A26:BD26"/>
+    <mergeCell ref="A2:BD2"/>
+    <mergeCell ref="A3:BD3"/>
+    <mergeCell ref="A4:BD4"/>
+    <mergeCell ref="A27:AB27"/>
+    <mergeCell ref="A28:AB28"/>
+    <mergeCell ref="A29:AB29"/>
+    <mergeCell ref="AC27:BD27"/>
+    <mergeCell ref="AC28:BD28"/>
+    <mergeCell ref="AC29:BD29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
